--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044115A6-D062-4DFC-95C2-20BD6A044E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CF3BCB-1ED8-4BBC-A753-D738261047AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="172">
   <si>
     <t>Customer Name</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>scmg_ali.alamar</t>
+  </si>
+  <si>
+    <t>AllCare To You</t>
+  </si>
+  <si>
+    <t>Western Health Advantage</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,6 +753,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1064,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1139,16 +1148,16 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="B5" s="10">
-        <v>1500</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>1750</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>99999</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1159,11 +1168,11 @@
       <c r="B6" s="10">
         <v>1500</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>137</v>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1174,11 +1183,11 @@
       <c r="B7" s="10">
         <v>1500</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>138</v>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1189,26 +1198,26 @@
       <c r="B8" s="10">
         <v>1500</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>6</v>
+      <c r="C8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10">
-        <v>3700</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>5</v>
+        <v>1500</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1219,35 +1228,35 @@
       <c r="B10" s="10">
         <v>3700</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>9</v>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>2200</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10">
-        <v>99999</v>
+        <v>3700</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>12</v>
@@ -1259,16 +1268,16 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B13" s="10">
-        <v>1600</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>6800</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10">
+        <v>99999</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1279,11 +1288,11 @@
       <c r="B14" s="10">
         <v>1600</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>8</v>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1294,11 +1303,11 @@
       <c r="B15" s="10">
         <v>1600</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>9</v>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1309,11 +1318,11 @@
       <c r="B16" s="10">
         <v>1600</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>14</v>
+      <c r="C16" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1324,86 +1333,86 @@
       <c r="B17" s="10">
         <v>1600</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>6</v>
+      <c r="C17" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B18" s="10">
-        <v>6700</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10">
-        <v>99999</v>
+        <v>1600</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="10">
+        <v>6700</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10">
+        <v>99999</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B20" s="10">
         <v>7100</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="10">
-        <v>4700</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="10">
-        <v>99999</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10">
+        <v>4700</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="10">
+        <v>99999</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B22" s="10">
         <v>7500</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="10">
-        <v>3200</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>65</v>
+      <c r="D22" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1414,11 +1423,11 @@
       <c r="B23" s="10">
         <v>3200</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>8</v>
+      <c r="C23" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1429,26 +1438,26 @@
       <c r="B24" s="10">
         <v>3200</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>67</v>
+      <c r="C24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="10">
-        <v>3100</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>5</v>
+        <v>3200</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1459,26 +1468,26 @@
       <c r="B26" s="10">
         <v>3100</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>8</v>
+      <c r="C26" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="10">
-        <v>1700</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>3100</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1489,11 +1498,11 @@
       <c r="B28" s="10">
         <v>1700</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
+      <c r="C28" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1504,26 +1513,26 @@
       <c r="B29" s="10">
         <v>1700</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>9</v>
+      <c r="C29" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="10">
-        <v>2900</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>5</v>
+        <v>1700</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1534,11 +1543,11 @@
       <c r="B31" s="10">
         <v>2900</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>14</v>
+      <c r="C31" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1549,26 +1558,26 @@
       <c r="B32" s="10">
         <v>2900</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>6</v>
+      <c r="C32" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B33" s="10">
-        <v>1800</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>5</v>
+        <v>2900</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1579,11 +1588,11 @@
       <c r="B34" s="10">
         <v>1800</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>8</v>
+      <c r="C34" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1594,11 +1603,11 @@
       <c r="B35" s="10">
         <v>1800</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>14</v>
+      <c r="C35" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1609,41 +1618,41 @@
       <c r="B36" s="10">
         <v>1800</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>6</v>
+      <c r="C36" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="10">
-        <v>4300</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>140</v>
+        <v>1800</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="10">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>77</v>
+      <c r="D38" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1654,11 +1663,11 @@
       <c r="B39" s="10">
         <v>3000</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>141</v>
+      <c r="C39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1669,11 +1678,11 @@
       <c r="B40" s="10">
         <v>3000</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>142</v>
+      <c r="C40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1684,11 +1693,11 @@
       <c r="B41" s="10">
         <v>3000</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>14</v>
+      <c r="C41" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1699,26 +1708,26 @@
       <c r="B42" s="10">
         <v>3000</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>78</v>
+      <c r="C42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="10">
-        <v>3500</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>79</v>
+        <v>3000</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1729,11 +1738,11 @@
       <c r="B44" s="10">
         <v>3500</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>8</v>
+      <c r="C44" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1744,35 +1753,35 @@
       <c r="B45" s="10">
         <v>3500</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>14</v>
+      <c r="C45" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="10">
-        <v>200</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="10">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="10">
-        <v>3600</v>
+        <v>200</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>12</v>
@@ -1784,16 +1793,16 @@
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="10">
-        <v>4600</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>82</v>
+        <v>3600</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="10">
+        <v>99999</v>
       </c>
       <c r="E48" s="1"/>
     </row>
@@ -1804,11 +1813,11 @@
       <c r="B49" s="10">
         <v>4600</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>8</v>
+      <c r="C49" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1819,11 +1828,11 @@
       <c r="B50" s="10">
         <v>4600</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>9</v>
+      <c r="C50" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -1834,26 +1843,26 @@
       <c r="B51" s="10">
         <v>4600</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>6</v>
+      <c r="C51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="10">
-        <v>150</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>5</v>
+        <v>4600</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -1864,11 +1873,11 @@
       <c r="B53" s="10">
         <v>150</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>8</v>
+      <c r="C53" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1879,11 +1888,11 @@
       <c r="B54" s="10">
         <v>150</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>9</v>
+      <c r="C54" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1894,11 +1903,11 @@
       <c r="B55" s="10">
         <v>150</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>14</v>
+      <c r="C55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1909,26 +1918,26 @@
       <c r="B56" s="10">
         <v>150</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>6</v>
+      <c r="C56" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="10">
-        <v>2700</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>165</v>
+        <v>150</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -1939,35 +1948,35 @@
       <c r="B58" s="10">
         <v>2700</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>150</v>
+      <c r="C58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B60" s="10">
         <v>2000</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="10">
-        <v>99999</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="10">
-        <v>2100</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>12</v>
@@ -1977,18 +1986,18 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B61" s="10">
-        <v>5600</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>125</v>
+        <v>2100</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="10">
+        <v>99999</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -1999,41 +2008,41 @@
       <c r="B62" s="10">
         <v>5600</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>8</v>
+      <c r="C62" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="B63" s="10">
-        <v>2600</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="10">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="10">
-        <v>1100</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>85</v>
+        <v>2600</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="10">
+        <v>99999</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -2044,11 +2053,11 @@
       <c r="B65" s="10">
         <v>1100</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>8</v>
+      <c r="C65" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -2059,11 +2068,11 @@
       <c r="B66" s="10">
         <v>1100</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>9</v>
+      <c r="C66" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -2074,35 +2083,35 @@
       <c r="B67" s="10">
         <v>1100</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>6</v>
+      <c r="C67" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="10">
-        <v>3300</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="10">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="10">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>12</v>
@@ -2114,10 +2123,10 @@
     </row>
     <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="10">
-        <v>7400</v>
+        <v>5100</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>12</v>
@@ -2127,12 +2136,12 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="B71" s="10">
-        <v>2800</v>
+        <v>7400</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>12</v>
@@ -2144,10 +2153,10 @@
     </row>
     <row r="72" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="19">
-        <v>1550</v>
+        <v>158</v>
+      </c>
+      <c r="B72" s="10">
+        <v>2800</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>12</v>
@@ -2155,13 +2164,14 @@
       <c r="D72" s="10">
         <v>99999</v>
       </c>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="10">
-        <v>6600</v>
+        <v>161</v>
+      </c>
+      <c r="B73" s="19">
+        <v>1550</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>12</v>
@@ -2169,14 +2179,13 @@
       <c r="D73" s="10">
         <v>99999</v>
       </c>
-      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="B74" s="10">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>12</v>
@@ -2188,10 +2197,10 @@
     </row>
     <row r="75" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="10">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>12</v>
@@ -2203,10 +2212,10 @@
     </row>
     <row r="76" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B76" s="10">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>12</v>
@@ -2218,10 +2227,10 @@
     </row>
     <row r="77" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B77" s="10">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>12</v>
@@ -2231,12 +2240,12 @@
       </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" s="10">
-        <v>4100</v>
+        <v>4900</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>12</v>
@@ -2248,10 +2257,10 @@
     </row>
     <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" s="10">
-        <v>5000</v>
+        <v>4100</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>12</v>
@@ -2263,10 +2272,10 @@
     </row>
     <row r="80" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="19">
-        <v>1650</v>
+        <v>43</v>
+      </c>
+      <c r="B80" s="10">
+        <v>5000</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>12</v>
@@ -2274,13 +2283,14 @@
       <c r="D80" s="10">
         <v>99999</v>
       </c>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" s="10">
-        <v>4500</v>
+        <v>162</v>
+      </c>
+      <c r="B81" s="19">
+        <v>1650</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>12</v>
@@ -2288,14 +2298,13 @@
       <c r="D81" s="10">
         <v>99999</v>
       </c>
-      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="10">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>12</v>
@@ -2307,16 +2316,16 @@
     </row>
     <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="10">
-        <v>1200</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>89</v>
+        <v>3400</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="10">
+        <v>99999</v>
       </c>
       <c r="E83" s="1"/>
     </row>
@@ -2327,11 +2336,11 @@
       <c r="B84" s="10">
         <v>1200</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>5</v>
+      <c r="C84" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="E84" s="1"/>
     </row>
@@ -2342,11 +2351,11 @@
       <c r="B85" s="10">
         <v>1200</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>8</v>
+      <c r="C85" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -2357,26 +2366,26 @@
       <c r="B86" s="10">
         <v>1200</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>9</v>
+      <c r="C86" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B87" s="10">
-        <v>3900</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -2387,11 +2396,11 @@
       <c r="B88" s="10">
         <v>3900</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>9</v>
+      <c r="C88" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -2402,11 +2411,11 @@
       <c r="B89" s="10">
         <v>3900</v>
       </c>
-      <c r="C89" s="16" t="s">
-        <v>14</v>
+      <c r="C89" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -2417,26 +2426,26 @@
       <c r="B90" s="10">
         <v>3900</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>6</v>
+      <c r="C90" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="10">
-        <v>3800</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>96</v>
+        <v>3900</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E91" s="1"/>
     </row>
@@ -2447,11 +2456,11 @@
       <c r="B92" s="10">
         <v>3800</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>14</v>
+      <c r="C92" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -2462,26 +2471,26 @@
       <c r="B93" s="10">
         <v>3800</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>164</v>
+      <c r="C93" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B94" s="10">
-        <v>1300</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>5</v>
+        <v>3800</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -2492,11 +2501,11 @@
       <c r="B95" s="10">
         <v>1300</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>8</v>
+      <c r="C95" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E95" s="1"/>
     </row>
@@ -2507,11 +2516,11 @@
       <c r="B96" s="10">
         <v>1300</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>9</v>
+      <c r="C96" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E96" s="1"/>
     </row>
@@ -2522,11 +2531,11 @@
       <c r="B97" s="10">
         <v>1300</v>
       </c>
-      <c r="C97" s="16" t="s">
-        <v>14</v>
+      <c r="C97" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E97" s="1"/>
     </row>
@@ -2537,26 +2546,26 @@
       <c r="B98" s="10">
         <v>1300</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>6</v>
+      <c r="C98" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="10">
-        <v>2500</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>103</v>
+        <v>1300</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E99" s="1"/>
     </row>
@@ -2567,11 +2576,11 @@
       <c r="B100" s="10">
         <v>2500</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>5</v>
+      <c r="C100" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E100" s="1"/>
     </row>
@@ -2582,26 +2591,26 @@
       <c r="B101" s="10">
         <v>2500</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>8</v>
+      <c r="C101" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B102" s="10">
-        <v>6000</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>106</v>
+        <v>2500</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -2612,11 +2621,11 @@
       <c r="B103" s="10">
         <v>6000</v>
       </c>
-      <c r="C103" s="14" t="s">
-        <v>8</v>
+      <c r="C103" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E103" s="1"/>
     </row>
@@ -2627,26 +2636,26 @@
       <c r="B104" s="10">
         <v>6000</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="10">
+        <v>6000</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B105" s="10">
-        <v>5400</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E105" s="1"/>
     </row>
@@ -2657,11 +2666,11 @@
       <c r="B106" s="10">
         <v>5400</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>5</v>
+      <c r="C106" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E106" s="1"/>
     </row>
@@ -2672,26 +2681,26 @@
       <c r="B107" s="10">
         <v>5400</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="10">
+        <v>5400</v>
+      </c>
+      <c r="C108" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B108" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E108" s="1"/>
     </row>
@@ -2702,11 +2711,11 @@
       <c r="B109" s="10">
         <v>1000</v>
       </c>
-      <c r="C109" s="16" t="s">
-        <v>14</v>
+      <c r="C109" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E109" s="1"/>
     </row>
@@ -2717,26 +2726,26 @@
       <c r="B110" s="10">
         <v>1000</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>6</v>
+      <c r="C110" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111" s="10">
-        <v>1900</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>1000</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E111" s="1"/>
     </row>
@@ -2747,11 +2756,11 @@
       <c r="B112" s="10">
         <v>1900</v>
       </c>
-      <c r="C112" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>112</v>
+      <c r="C112" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E112" s="1"/>
     </row>
@@ -2762,11 +2771,11 @@
       <c r="B113" s="10">
         <v>1900</v>
       </c>
-      <c r="C113" s="15" t="s">
-        <v>9</v>
+      <c r="C113" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E113" s="1"/>
     </row>
@@ -2777,11 +2786,11 @@
       <c r="B114" s="10">
         <v>1900</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>14</v>
+      <c r="C114" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E114" s="1"/>
     </row>
@@ -2792,26 +2801,26 @@
       <c r="B115" s="10">
         <v>1900</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="10">
+        <v>1900</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B116" s="10">
-        <v>7000</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E116" s="1"/>
     </row>
@@ -2822,11 +2831,11 @@
       <c r="B117" s="10">
         <v>7000</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>8</v>
+      <c r="C117" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E117" s="1"/>
     </row>
@@ -2837,26 +2846,26 @@
       <c r="B118" s="10">
         <v>7000</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="10">
+        <v>7000</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B119" s="10">
-        <v>4000</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E119" s="1"/>
     </row>
@@ -2867,11 +2876,11 @@
       <c r="B120" s="10">
         <v>4000</v>
       </c>
-      <c r="C120" s="15" t="s">
-        <v>9</v>
+      <c r="C120" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E120" s="1"/>
     </row>
@@ -2882,26 +2891,26 @@
       <c r="B121" s="10">
         <v>4000</v>
       </c>
-      <c r="C121" s="16" t="s">
-        <v>14</v>
+      <c r="C121" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B122" s="10">
-        <v>6500</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>103</v>
+        <v>4000</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E122" s="1"/>
     </row>
@@ -2912,11 +2921,11 @@
       <c r="B123" s="10">
         <v>6500</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>119</v>
+      <c r="C123" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E123" s="1"/>
     </row>
@@ -2927,11 +2936,11 @@
       <c r="B124" s="10">
         <v>6500</v>
       </c>
-      <c r="C124" s="14" t="s">
-        <v>8</v>
+      <c r="C124" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E124" s="1"/>
     </row>
@@ -2942,11 +2951,11 @@
       <c r="B125" s="10">
         <v>6500</v>
       </c>
-      <c r="C125" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>121</v>
+      <c r="C125" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="E125" s="1"/>
     </row>
@@ -2957,11 +2966,11 @@
       <c r="B126" s="10">
         <v>6500</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>122</v>
+      <c r="C126" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="E126" s="1"/>
     </row>
@@ -2972,34 +2981,35 @@
       <c r="B127" s="10">
         <v>6500</v>
       </c>
-      <c r="C127" s="13" t="s">
-        <v>6</v>
+      <c r="C127" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B128" s="10">
-        <v>5800</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="10">
-        <v>99999</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="B129" s="10">
-        <v>4400</v>
+        <v>5800</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>12</v>
@@ -3010,10 +3020,10 @@
     </row>
     <row r="130" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="B130" s="10">
-        <v>5900</v>
+        <v>4400</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>12</v>
@@ -3022,23 +3032,53 @@
         <v>99999</v>
       </c>
     </row>
+    <row r="131" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="10">
+        <v>5900</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="10">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="20">
+        <v>7200</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="10">
+        <v>99999</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{76D85841-0E92-4011-A17D-A4C4F39B78A0}"/>
-    <hyperlink ref="D25" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{C9A79CA9-B167-443A-AB21-1EA20451173E}"/>
-    <hyperlink ref="D26" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{6D2A01E7-99B9-4DCA-8F10-0193BA4220F1}"/>
-    <hyperlink ref="D43" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{22C1094A-0EAE-42D9-B543-021DD6A2C36F}"/>
-    <hyperlink ref="D44" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31837442&amp;forPersonCustId=3500" xr:uid="{7E462E08-4B0C-476D-AA36-E11FA80272FA}"/>
-    <hyperlink ref="D45" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{13B4A8AE-B629-42F9-B867-9E81A7263C7A}"/>
-    <hyperlink ref="D91" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=36963206&amp;forPersonCustId=3800" xr:uid="{C28604FE-26D1-453D-8E55-BF4C270F28C4}"/>
-    <hyperlink ref="D92" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=40707817&amp;forPersonCustId=3800" xr:uid="{E9917C5C-D5F0-4AD9-A2ED-472C92E6011C}"/>
-    <hyperlink ref="D111" r:id="rId9" display="http://puchakraborty.cm/" xr:uid="{02AFB277-C913-480D-BB5B-879E6BB17D14}"/>
-    <hyperlink ref="D21" r:id="rId10" xr:uid="{FCE7A3BF-4446-4E9F-83A0-11A360F0A079}"/>
-    <hyperlink ref="A72" r:id="rId11" tooltip="Optum Care Network - Idaho" display="javascript:void(0);" xr:uid="{90E131F6-422B-407C-B173-D7B05E9A01F6}"/>
-    <hyperlink ref="A80" r:id="rId12" tooltip="Optum Kansas City" display="javascript:void(0);" xr:uid="{ED7C1925-38C1-4B1C-BD55-4AC2E2B634E2}"/>
+    <hyperlink ref="D25" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{76D85841-0E92-4011-A17D-A4C4F39B78A0}"/>
+    <hyperlink ref="D26" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{C9A79CA9-B167-443A-AB21-1EA20451173E}"/>
+    <hyperlink ref="D27" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{6D2A01E7-99B9-4DCA-8F10-0193BA4220F1}"/>
+    <hyperlink ref="D44" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{22C1094A-0EAE-42D9-B543-021DD6A2C36F}"/>
+    <hyperlink ref="D45" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31837442&amp;forPersonCustId=3500" xr:uid="{7E462E08-4B0C-476D-AA36-E11FA80272FA}"/>
+    <hyperlink ref="D46" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{13B4A8AE-B629-42F9-B867-9E81A7263C7A}"/>
+    <hyperlink ref="D92" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=36963206&amp;forPersonCustId=3800" xr:uid="{C28604FE-26D1-453D-8E55-BF4C270F28C4}"/>
+    <hyperlink ref="D93" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=40707817&amp;forPersonCustId=3800" xr:uid="{E9917C5C-D5F0-4AD9-A2ED-472C92E6011C}"/>
+    <hyperlink ref="D112" r:id="rId9" display="http://puchakraborty.cm/" xr:uid="{02AFB277-C913-480D-BB5B-879E6BB17D14}"/>
+    <hyperlink ref="D22" r:id="rId10" xr:uid="{FCE7A3BF-4446-4E9F-83A0-11A360F0A079}"/>
+    <hyperlink ref="A73" r:id="rId11" tooltip="Optum Care Network - Idaho" display="javascript:void(0);" xr:uid="{90E131F6-422B-407C-B173-D7B05E9A01F6}"/>
+    <hyperlink ref="A81" r:id="rId12" tooltip="Optum Kansas City" display="javascript:void(0);" xr:uid="{ED7C1925-38C1-4B1C-BD55-4AC2E2B634E2}"/>
+    <hyperlink ref="A5" r:id="rId13" tooltip="AllCare To You" display="javascript:void(0);" xr:uid="{1E06C2FB-CB65-473A-A7AB-61F4C0CFB7D8}"/>
+    <hyperlink ref="A132" r:id="rId14" tooltip="Western Health Advantage" display="javascript:void(0);" xr:uid="{B71BB41A-2606-4691-BAF5-FEA2AF25D99F}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CF3BCB-1ED8-4BBC-A753-D738261047AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB79D16-E573-4B58-8EF1-680636CC1A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>NAMM</t>
   </si>
   <si>
-    <t>OCNCT</t>
-  </si>
-  <si>
     <t>Omnicare</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>Western Health Advantage</t>
+  </si>
+  <si>
+    <t>APN CT</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -753,9 +753,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1073,7 @@
   <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1100,7 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="10">
         <v>99999</v>
@@ -1127,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1142,13 +1139,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="10">
         <v>1750</v>
@@ -1172,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1187,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1202,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1217,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1232,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1247,16 +1244,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="B12" s="10">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>12</v>
@@ -1268,10 +1265,10 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -1283,16 +1280,16 @@
     </row>
     <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="B14" s="10">
-        <v>1600</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>6800</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10">
+        <v>99999</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1303,11 +1300,11 @@
       <c r="B15" s="10">
         <v>1600</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>8</v>
+      <c r="C15" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1318,11 +1315,11 @@
       <c r="B16" s="10">
         <v>1600</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>9</v>
+      <c r="C16" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1333,11 +1330,11 @@
       <c r="B17" s="10">
         <v>1600</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>14</v>
+      <c r="C17" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1348,86 +1345,86 @@
       <c r="B18" s="10">
         <v>1600</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>6</v>
+      <c r="C18" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B19" s="10">
-        <v>6700</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="10">
-        <v>99999</v>
+        <v>1600</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="10">
+        <v>6700</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="10">
+        <v>99999</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="10">
+        <v>7100</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B20" s="10">
-        <v>7100</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="10">
-        <v>4700</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="10">
-        <v>99999</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="B22" s="10">
+        <v>4700</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10">
+        <v>99999</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="10">
         <v>7500</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="10">
-        <v>3200</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>65</v>
+      <c r="D23" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1438,11 +1435,11 @@
       <c r="B24" s="10">
         <v>3200</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>8</v>
+      <c r="C24" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1453,26 +1450,26 @@
       <c r="B25" s="10">
         <v>3200</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>67</v>
+      <c r="C25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="10">
-        <v>3100</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>5</v>
+        <v>3200</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1483,26 +1480,26 @@
       <c r="B27" s="10">
         <v>3100</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>8</v>
+      <c r="C27" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="10">
-        <v>1700</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>3100</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1513,11 +1510,11 @@
       <c r="B29" s="10">
         <v>1700</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>8</v>
+      <c r="C29" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1528,26 +1525,26 @@
       <c r="B30" s="10">
         <v>1700</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>9</v>
+      <c r="C30" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="10">
-        <v>2900</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>5</v>
+        <v>1700</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1558,11 +1555,11 @@
       <c r="B32" s="10">
         <v>2900</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>14</v>
+      <c r="C32" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1573,26 +1570,26 @@
       <c r="B33" s="10">
         <v>2900</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>6</v>
+      <c r="C33" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B34" s="10">
-        <v>1800</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>5</v>
+        <v>2900</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1603,11 +1600,11 @@
       <c r="B35" s="10">
         <v>1800</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>8</v>
+      <c r="C35" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1618,11 +1615,11 @@
       <c r="B36" s="10">
         <v>1800</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>14</v>
+      <c r="C36" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1633,41 +1630,41 @@
       <c r="B37" s="10">
         <v>1800</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>6</v>
+      <c r="C37" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10">
-        <v>4300</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>140</v>
+        <v>1800</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="10">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>77</v>
+      <c r="D39" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1678,11 +1675,11 @@
       <c r="B40" s="10">
         <v>3000</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>141</v>
+      <c r="C40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1693,11 +1690,11 @@
       <c r="B41" s="10">
         <v>3000</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>142</v>
+      <c r="C41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1708,11 +1705,11 @@
       <c r="B42" s="10">
         <v>3000</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>14</v>
+      <c r="C42" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1723,26 +1720,26 @@
       <c r="B43" s="10">
         <v>3000</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>78</v>
+      <c r="C43" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="10">
-        <v>3500</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>79</v>
+        <v>3000</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1753,11 +1750,11 @@
       <c r="B45" s="10">
         <v>3500</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>8</v>
+      <c r="C45" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -1768,35 +1765,35 @@
       <c r="B46" s="10">
         <v>3500</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>14</v>
+      <c r="C46" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="10">
-        <v>200</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="10">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="10">
-        <v>3600</v>
+        <v>200</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>12</v>
@@ -1808,16 +1805,16 @@
     </row>
     <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="10">
-        <v>4600</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>82</v>
+        <v>3600</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="10">
+        <v>99999</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1828,11 +1825,11 @@
       <c r="B50" s="10">
         <v>4600</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>8</v>
+      <c r="C50" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -1843,11 +1840,11 @@
       <c r="B51" s="10">
         <v>4600</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>9</v>
+      <c r="C51" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -1858,26 +1855,26 @@
       <c r="B52" s="10">
         <v>4600</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>6</v>
+      <c r="C52" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="10">
-        <v>150</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>5</v>
+        <v>4600</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1888,11 +1885,11 @@
       <c r="B54" s="10">
         <v>150</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>8</v>
+      <c r="C54" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1903,11 +1900,11 @@
       <c r="B55" s="10">
         <v>150</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>9</v>
+      <c r="C55" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1918,11 +1915,11 @@
       <c r="B56" s="10">
         <v>150</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>14</v>
+      <c r="C56" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -1933,26 +1930,26 @@
       <c r="B57" s="10">
         <v>150</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>6</v>
+      <c r="C57" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="10">
-        <v>2700</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>165</v>
+        <v>150</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -1963,35 +1960,35 @@
       <c r="B59" s="10">
         <v>2700</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>150</v>
+      <c r="C59" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B60" s="10">
-        <v>2000</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="10">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="10">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>12</v>
@@ -2003,52 +2000,52 @@
     </row>
     <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B62" s="10">
-        <v>5600</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>125</v>
+        <v>2100</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="10">
+        <v>99999</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B63" s="10">
         <v>5600</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>8</v>
+      <c r="C63" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B64" s="10">
-        <v>2600</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="10">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="10">
         <v>1100</v>
@@ -2057,13 +2054,13 @@
         <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="10">
         <v>1100</v>
@@ -2072,13 +2069,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" s="10">
         <v>1100</v>
@@ -2087,13 +2084,13 @@
         <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="10">
         <v>1100</v>
@@ -2102,13 +2099,13 @@
         <v>6</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="10">
         <v>3300</v>
@@ -2123,7 +2120,7 @@
     </row>
     <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="10">
         <v>5100</v>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="10">
         <v>7400</v>
@@ -2153,7 +2150,7 @@
     </row>
     <row r="72" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="10">
         <v>2800</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="73" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73" s="19">
         <v>1550</v>
@@ -2182,7 +2179,7 @@
     </row>
     <row r="74" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="10">
         <v>6600</v>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="75" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="10">
         <v>5200</v>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="76" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" s="10">
         <v>4800</v>
@@ -2227,7 +2224,7 @@
     </row>
     <row r="77" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="10">
         <v>5300</v>
@@ -2242,7 +2239,7 @@
     </row>
     <row r="78" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" s="10">
         <v>4900</v>
@@ -2257,7 +2254,7 @@
     </row>
     <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" s="10">
         <v>4100</v>
@@ -2272,7 +2269,7 @@
     </row>
     <row r="80" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="10">
         <v>5000</v>
@@ -2287,7 +2284,7 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" s="19">
         <v>1650</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B82" s="10">
         <v>4500</v>
@@ -2316,7 +2313,7 @@
     </row>
     <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" s="10">
         <v>3400</v>
@@ -2331,22 +2328,22 @@
     </row>
     <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" s="10">
         <v>1200</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" s="10">
         <v>1200</v>
@@ -2355,13 +2352,13 @@
         <v>5</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86" s="10">
         <v>1200</v>
@@ -2370,13 +2367,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" s="10">
         <v>1200</v>
@@ -2385,13 +2382,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="10">
         <v>3900</v>
@@ -2400,13 +2397,13 @@
         <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" s="10">
         <v>3900</v>
@@ -2415,13 +2412,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" s="10">
         <v>3900</v>
@@ -2430,13 +2427,13 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" s="10">
         <v>3900</v>
@@ -2445,13 +2442,13 @@
         <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" s="10">
         <v>3800</v>
@@ -2460,13 +2457,13 @@
         <v>5</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" s="10">
         <v>3800</v>
@@ -2475,13 +2472,13 @@
         <v>14</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94" s="10">
         <v>3800</v>
@@ -2490,13 +2487,13 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95" s="10">
         <v>1300</v>
@@ -2505,13 +2502,13 @@
         <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" s="10">
         <v>1300</v>
@@ -2520,13 +2517,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" s="10">
         <v>1300</v>
@@ -2535,13 +2532,13 @@
         <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B98" s="10">
         <v>1300</v>
@@ -2550,13 +2547,13 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B99" s="10">
         <v>1300</v>
@@ -2565,28 +2562,28 @@
         <v>6</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" s="10">
         <v>2500</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B101" s="10">
         <v>2500</v>
@@ -2595,13 +2592,13 @@
         <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B102" s="10">
         <v>2500</v>
@@ -2610,13 +2607,13 @@
         <v>8</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B103" s="10">
         <v>6000</v>
@@ -2625,13 +2622,13 @@
         <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B104" s="10">
         <v>6000</v>
@@ -2640,13 +2637,13 @@
         <v>8</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B105" s="10">
         <v>6000</v>
@@ -2655,13 +2652,13 @@
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B106" s="10">
         <v>5400</v>
@@ -2670,13 +2667,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="10">
         <v>5400</v>
@@ -2685,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="10">
         <v>5400</v>
@@ -2700,13 +2697,13 @@
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B109" s="10">
         <v>1000</v>
@@ -2715,13 +2712,13 @@
         <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B110" s="10">
         <v>1000</v>
@@ -2730,13 +2727,13 @@
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B111" s="10">
         <v>1000</v>
@@ -2745,13 +2742,13 @@
         <v>6</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112" s="10">
         <v>1900</v>
@@ -2760,13 +2757,13 @@
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B113" s="10">
         <v>1900</v>
@@ -2775,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114" s="10">
         <v>1900</v>
@@ -2790,13 +2787,13 @@
         <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115" s="10">
         <v>1900</v>
@@ -2805,13 +2802,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116" s="10">
         <v>1900</v>
@@ -2820,13 +2817,13 @@
         <v>6</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="10">
         <v>7000</v>
@@ -2835,13 +2832,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118" s="10">
         <v>7000</v>
@@ -2850,13 +2847,13 @@
         <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="10">
         <v>7000</v>
@@ -2865,13 +2862,13 @@
         <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B120" s="10">
         <v>4000</v>
@@ -2880,13 +2877,13 @@
         <v>5</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B121" s="10">
         <v>4000</v>
@@ -2895,13 +2892,13 @@
         <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B122" s="10">
         <v>4000</v>
@@ -2910,28 +2907,28 @@
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B123" s="10">
         <v>6500</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124" s="10">
         <v>6500</v>
@@ -2940,13 +2937,13 @@
         <v>5</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B125" s="10">
         <v>6500</v>
@@ -2955,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B126" s="10">
         <v>6500</v>
@@ -2970,13 +2967,13 @@
         <v>9</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B127" s="10">
         <v>6500</v>
@@ -2985,13 +2982,13 @@
         <v>14</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B128" s="10">
         <v>6500</v>
@@ -3000,13 +2997,13 @@
         <v>6</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="10">
         <v>5800</v>
@@ -3020,7 +3017,7 @@
     </row>
     <row r="130" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B130" s="10">
         <v>4400</v>
@@ -3034,7 +3031,7 @@
     </row>
     <row r="131" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="10">
         <v>5900</v>
@@ -3048,9 +3045,9 @@
     </row>
     <row r="132" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="20">
+        <v>170</v>
+      </c>
+      <c r="B132" s="19">
         <v>7200</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -3062,23 +3059,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{76D85841-0E92-4011-A17D-A4C4F39B78A0}"/>
-    <hyperlink ref="D26" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{C9A79CA9-B167-443A-AB21-1EA20451173E}"/>
-    <hyperlink ref="D27" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{6D2A01E7-99B9-4DCA-8F10-0193BA4220F1}"/>
-    <hyperlink ref="D44" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{22C1094A-0EAE-42D9-B543-021DD6A2C36F}"/>
-    <hyperlink ref="D45" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31837442&amp;forPersonCustId=3500" xr:uid="{7E462E08-4B0C-476D-AA36-E11FA80272FA}"/>
-    <hyperlink ref="D46" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{13B4A8AE-B629-42F9-B867-9E81A7263C7A}"/>
+    <hyperlink ref="D26" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{76D85841-0E92-4011-A17D-A4C4F39B78A0}"/>
+    <hyperlink ref="D27" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{C9A79CA9-B167-443A-AB21-1EA20451173E}"/>
+    <hyperlink ref="D28" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{6D2A01E7-99B9-4DCA-8F10-0193BA4220F1}"/>
+    <hyperlink ref="D45" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{22C1094A-0EAE-42D9-B543-021DD6A2C36F}"/>
+    <hyperlink ref="D46" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31837442&amp;forPersonCustId=3500" xr:uid="{7E462E08-4B0C-476D-AA36-E11FA80272FA}"/>
+    <hyperlink ref="D47" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{13B4A8AE-B629-42F9-B867-9E81A7263C7A}"/>
     <hyperlink ref="D92" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=36963206&amp;forPersonCustId=3800" xr:uid="{C28604FE-26D1-453D-8E55-BF4C270F28C4}"/>
     <hyperlink ref="D93" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=40707817&amp;forPersonCustId=3800" xr:uid="{E9917C5C-D5F0-4AD9-A2ED-472C92E6011C}"/>
     <hyperlink ref="D112" r:id="rId9" display="http://puchakraborty.cm/" xr:uid="{02AFB277-C913-480D-BB5B-879E6BB17D14}"/>
-    <hyperlink ref="D22" r:id="rId10" xr:uid="{FCE7A3BF-4446-4E9F-83A0-11A360F0A079}"/>
+    <hyperlink ref="D23" r:id="rId10" xr:uid="{FCE7A3BF-4446-4E9F-83A0-11A360F0A079}"/>
     <hyperlink ref="A73" r:id="rId11" tooltip="Optum Care Network - Idaho" display="javascript:void(0);" xr:uid="{90E131F6-422B-407C-B173-D7B05E9A01F6}"/>
     <hyperlink ref="A81" r:id="rId12" tooltip="Optum Kansas City" display="javascript:void(0);" xr:uid="{ED7C1925-38C1-4B1C-BD55-4AC2E2B634E2}"/>
     <hyperlink ref="A5" r:id="rId13" tooltip="AllCare To You" display="javascript:void(0);" xr:uid="{1E06C2FB-CB65-473A-A7AB-61F4C0CFB7D8}"/>
     <hyperlink ref="A132" r:id="rId14" tooltip="Western Health Advantage" display="javascript:void(0);" xr:uid="{B71BB41A-2606-4691-BAF5-FEA2AF25D99F}"/>
+    <hyperlink ref="A12" r:id="rId15" tooltip="APN CT" display="javascript:void(0);" xr:uid="{CEAD461B-39DE-4B6E-94C1-5D67097FEB24}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB79D16-E573-4B58-8EF1-680636CC1A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80CE44B-5BEA-4E80-BADC-FB4F503B5D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,9 +432,6 @@
     <t>Allcare_fbandookwala</t>
   </si>
   <si>
-    <t>altamed_abarsegyan</t>
-  </si>
-  <si>
     <t>altamed_amacwan</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>APN CT</t>
+  </si>
+  <si>
+    <t>altamed_adelao</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -754,6 +754,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1073,7 +1076,7 @@
   <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="10">
         <v>1750</v>
@@ -1168,8 +1171,8 @@
       <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>135</v>
+      <c r="D6" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1184,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1199,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1214,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1250,7 +1253,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="10">
         <v>2600</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="10">
         <v>7100</v>
@@ -1394,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="23" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="10">
         <v>7500</v>
@@ -1424,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1664,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1694,7 +1697,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1709,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1724,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1874,7 +1877,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1889,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1904,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1919,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -1934,7 +1937,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -1949,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -1964,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -1979,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -2039,7 +2042,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="72" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" s="10">
         <v>2800</v>
@@ -2165,7 +2168,7 @@
     </row>
     <row r="73" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73" s="19">
         <v>1550</v>
@@ -2284,7 +2287,7 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" s="19">
         <v>1650</v>
@@ -2352,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -2487,7 +2490,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -2667,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E106" s="1"/>
     </row>
@@ -2682,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="1"/>
     </row>
@@ -2697,7 +2700,7 @@
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E108" s="1"/>
     </row>
@@ -2712,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E109" s="1"/>
     </row>
@@ -2832,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E117" s="1"/>
     </row>
@@ -2847,7 +2850,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E118" s="1"/>
     </row>
@@ -2862,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E119" s="1"/>
     </row>
@@ -2997,7 +3000,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E128" s="1"/>
     </row>
@@ -3045,7 +3048,7 @@
     </row>
     <row r="132" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="19">
         <v>7200</v>
@@ -3074,9 +3077,10 @@
     <hyperlink ref="A5" r:id="rId13" tooltip="AllCare To You" display="javascript:void(0);" xr:uid="{1E06C2FB-CB65-473A-A7AB-61F4C0CFB7D8}"/>
     <hyperlink ref="A132" r:id="rId14" tooltip="Western Health Advantage" display="javascript:void(0);" xr:uid="{B71BB41A-2606-4691-BAF5-FEA2AF25D99F}"/>
     <hyperlink ref="A12" r:id="rId15" tooltip="APN CT" display="javascript:void(0);" xr:uid="{CEAD461B-39DE-4B6E-94C1-5D67097FEB24}"/>
+    <hyperlink ref="D6" r:id="rId16" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31620086&amp;forPersonCustId=1500" xr:uid="{821AE8F7-8968-4834-93BD-9073769A1EC9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80CE44B-5BEA-4E80-BADC-FB4F503B5D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CF3BCB-1ED8-4BBC-A753-D738261047AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,6 +129,9 @@
     <t>NAMM</t>
   </si>
   <si>
+    <t>OCNCT</t>
+  </si>
+  <si>
     <t>Omnicare</t>
   </si>
   <si>
@@ -432,6 +435,9 @@
     <t>Allcare_fbandookwala</t>
   </si>
   <si>
+    <t>altamed_abarsegyan</t>
+  </si>
+  <si>
     <t>altamed_amacwan</t>
   </si>
   <si>
@@ -535,12 +541,6 @@
   </si>
   <si>
     <t>Western Health Advantage</t>
-  </si>
-  <si>
-    <t>APN CT</t>
-  </si>
-  <si>
-    <t>altamed_adelao</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="10">
         <v>99999</v>
@@ -1127,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1142,13 +1142,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B5" s="10">
         <v>1750</v>
@@ -1171,8 +1171,8 @@
       <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>171</v>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1187,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1202,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1247,16 +1247,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>12</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B13" s="10">
-        <v>2200</v>
+        <v>6800</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -1283,16 +1283,16 @@
     </row>
     <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>6800</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10">
-        <v>99999</v>
+        <v>1600</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1303,11 +1303,11 @@
       <c r="B15" s="10">
         <v>1600</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>5</v>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1318,11 +1318,11 @@
       <c r="B16" s="10">
         <v>1600</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>8</v>
+      <c r="C16" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1333,11 +1333,11 @@
       <c r="B17" s="10">
         <v>1600</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>9</v>
+      <c r="C17" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1348,86 +1348,86 @@
       <c r="B18" s="10">
         <v>1600</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>14</v>
+      <c r="C18" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="B19" s="10">
-        <v>1600</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>6700</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10">
+        <v>99999</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B20" s="10">
-        <v>6700</v>
-      </c>
-      <c r="C20" s="11" t="s">
+        <v>7100</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10">
+        <v>4700</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <v>99999</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="10">
-        <v>7100</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="B22" s="10">
-        <v>4700</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="10">
-        <v>99999</v>
+        <v>7500</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>155</v>
+      <c r="D23" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1438,11 +1438,11 @@
       <c r="B24" s="10">
         <v>3200</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>5</v>
+      <c r="C24" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1453,26 +1453,26 @@
       <c r="B25" s="10">
         <v>3200</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>65</v>
+      <c r="C25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="10">
-        <v>3200</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>9</v>
+        <v>3100</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1483,26 +1483,26 @@
       <c r="B27" s="10">
         <v>3100</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>5</v>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="10">
-        <v>3100</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>1700</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1513,11 +1513,11 @@
       <c r="B29" s="10">
         <v>1700</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>5</v>
+      <c r="C29" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1528,26 +1528,26 @@
       <c r="B30" s="10">
         <v>1700</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>8</v>
+      <c r="C30" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="10">
-        <v>1700</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>9</v>
+        <v>2900</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1558,11 +1558,11 @@
       <c r="B32" s="10">
         <v>2900</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>5</v>
+      <c r="C32" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1573,26 +1573,26 @@
       <c r="B33" s="10">
         <v>2900</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>14</v>
+      <c r="C33" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B34" s="10">
-        <v>2900</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>6</v>
+        <v>1800</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1603,11 +1603,11 @@
       <c r="B35" s="10">
         <v>1800</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>5</v>
+      <c r="C35" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -1618,11 +1618,11 @@
       <c r="B36" s="10">
         <v>1800</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>8</v>
+      <c r="C36" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1633,41 +1633,41 @@
       <c r="B37" s="10">
         <v>1800</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>14</v>
+      <c r="C37" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="10">
-        <v>1800</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>4300</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" s="10">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>138</v>
+      <c r="D39" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1678,11 +1678,11 @@
       <c r="B40" s="10">
         <v>3000</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>76</v>
+      <c r="C40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1693,11 +1693,11 @@
       <c r="B41" s="10">
         <v>3000</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>139</v>
+      <c r="C41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1708,11 +1708,11 @@
       <c r="B42" s="10">
         <v>3000</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>9</v>
+      <c r="C42" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -1723,26 +1723,26 @@
       <c r="B43" s="10">
         <v>3000</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>141</v>
+      <c r="C43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="10">
-        <v>3000</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>77</v>
+        <v>3500</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1753,11 +1753,11 @@
       <c r="B45" s="10">
         <v>3500</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>5</v>
+      <c r="C45" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -1768,35 +1768,35 @@
       <c r="B46" s="10">
         <v>3500</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>8</v>
+      <c r="C46" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" s="10">
-        <v>3500</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>80</v>
+        <v>200</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="10">
+        <v>99999</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" s="10">
-        <v>200</v>
+        <v>3600</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>12</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B49" s="10">
-        <v>3600</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="10">
-        <v>99999</v>
+        <v>4600</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1828,11 +1828,11 @@
       <c r="B50" s="10">
         <v>4600</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>5</v>
+      <c r="C50" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -1843,11 +1843,11 @@
       <c r="B51" s="10">
         <v>4600</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>8</v>
+      <c r="C51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -1858,26 +1858,26 @@
       <c r="B52" s="10">
         <v>4600</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>9</v>
+      <c r="C52" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" s="10">
-        <v>4600</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1888,11 +1888,11 @@
       <c r="B54" s="10">
         <v>150</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>5</v>
+      <c r="C54" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -1903,11 +1903,11 @@
       <c r="B55" s="10">
         <v>150</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>8</v>
+      <c r="C55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -1918,11 +1918,11 @@
       <c r="B56" s="10">
         <v>150</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>9</v>
+      <c r="C56" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E56" s="1"/>
     </row>
@@ -1933,26 +1933,26 @@
       <c r="B57" s="10">
         <v>150</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>14</v>
+      <c r="C57" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58" s="10">
-        <v>150</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>147</v>
+        <v>2700</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -1963,35 +1963,35 @@
       <c r="B59" s="10">
         <v>2700</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>163</v>
+      <c r="C59" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60" s="10">
-        <v>2700</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>148</v>
+        <v>2000</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="10">
+        <v>99999</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B61" s="10">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>12</v>
@@ -2003,52 +2003,52 @@
     </row>
     <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B62" s="10">
-        <v>2100</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="10">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B63" s="10">
         <v>5600</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>5</v>
+      <c r="C63" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="B64" s="10">
-        <v>5600</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>161</v>
+        <v>2600</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="10">
+        <v>99999</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B65" s="10">
         <v>1100</v>
@@ -2057,13 +2057,13 @@
         <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" s="10">
         <v>1100</v>
@@ -2072,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B67" s="10">
         <v>1100</v>
@@ -2087,13 +2087,13 @@
         <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" s="10">
         <v>1100</v>
@@ -2102,13 +2102,13 @@
         <v>6</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B69" s="10">
         <v>3300</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" s="10">
         <v>5100</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B71" s="10">
         <v>7400</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="72" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B72" s="10">
         <v>2800</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="73" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B73" s="19">
         <v>1550</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="74" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B74" s="10">
         <v>6600</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="75" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B75" s="10">
         <v>5200</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="76" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B76" s="10">
         <v>4800</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="77" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B77" s="10">
         <v>5300</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="78" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B78" s="10">
         <v>4900</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B79" s="10">
         <v>4100</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="80" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B80" s="10">
         <v>5000</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B81" s="19">
         <v>1650</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B82" s="10">
         <v>4500</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" s="10">
         <v>3400</v>
@@ -2331,22 +2331,22 @@
     </row>
     <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B84" s="10">
         <v>1200</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B85" s="10">
         <v>1200</v>
@@ -2355,13 +2355,13 @@
         <v>5</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B86" s="10">
         <v>1200</v>
@@ -2370,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B87" s="10">
         <v>1200</v>
@@ -2385,13 +2385,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B88" s="10">
         <v>3900</v>
@@ -2400,13 +2400,13 @@
         <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" s="10">
         <v>3900</v>
@@ -2415,13 +2415,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B90" s="10">
         <v>3900</v>
@@ -2430,13 +2430,13 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B91" s="10">
         <v>3900</v>
@@ -2445,13 +2445,13 @@
         <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B92" s="10">
         <v>3800</v>
@@ -2460,13 +2460,13 @@
         <v>5</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B93" s="10">
         <v>3800</v>
@@ -2475,13 +2475,13 @@
         <v>14</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B94" s="10">
         <v>3800</v>
@@ -2490,13 +2490,13 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B95" s="10">
         <v>1300</v>
@@ -2505,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B96" s="10">
         <v>1300</v>
@@ -2520,13 +2520,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B97" s="10">
         <v>1300</v>
@@ -2535,13 +2535,13 @@
         <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B98" s="10">
         <v>1300</v>
@@ -2550,13 +2550,13 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B99" s="10">
         <v>1300</v>
@@ -2565,28 +2565,28 @@
         <v>6</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" s="10">
         <v>2500</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B101" s="10">
         <v>2500</v>
@@ -2595,13 +2595,13 @@
         <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B102" s="10">
         <v>2500</v>
@@ -2610,13 +2610,13 @@
         <v>8</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B103" s="10">
         <v>6000</v>
@@ -2625,13 +2625,13 @@
         <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B104" s="10">
         <v>6000</v>
@@ -2640,13 +2640,13 @@
         <v>8</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B105" s="10">
         <v>6000</v>
@@ -2655,13 +2655,13 @@
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B106" s="10">
         <v>5400</v>
@@ -2670,13 +2670,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" s="10">
         <v>5400</v>
@@ -2685,13 +2685,13 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10">
         <v>5400</v>
@@ -2700,13 +2700,13 @@
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B109" s="10">
         <v>1000</v>
@@ -2715,13 +2715,13 @@
         <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B110" s="10">
         <v>1000</v>
@@ -2730,13 +2730,13 @@
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B111" s="10">
         <v>1000</v>
@@ -2745,13 +2745,13 @@
         <v>6</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B112" s="10">
         <v>1900</v>
@@ -2760,13 +2760,13 @@
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B113" s="10">
         <v>1900</v>
@@ -2775,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B114" s="10">
         <v>1900</v>
@@ -2790,13 +2790,13 @@
         <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B115" s="10">
         <v>1900</v>
@@ -2805,13 +2805,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B116" s="10">
         <v>1900</v>
@@ -2820,13 +2820,13 @@
         <v>6</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B117" s="10">
         <v>7000</v>
@@ -2835,13 +2835,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B118" s="10">
         <v>7000</v>
@@ -2850,13 +2850,13 @@
         <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="10">
         <v>7000</v>
@@ -2865,13 +2865,13 @@
         <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B120" s="10">
         <v>4000</v>
@@ -2880,13 +2880,13 @@
         <v>5</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B121" s="10">
         <v>4000</v>
@@ -2895,13 +2895,13 @@
         <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B122" s="10">
         <v>4000</v>
@@ -2910,28 +2910,28 @@
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B123" s="10">
         <v>6500</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B124" s="10">
         <v>6500</v>
@@ -2940,13 +2940,13 @@
         <v>5</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B125" s="10">
         <v>6500</v>
@@ -2955,13 +2955,13 @@
         <v>8</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B126" s="10">
         <v>6500</v>
@@ -2970,13 +2970,13 @@
         <v>9</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B127" s="10">
         <v>6500</v>
@@ -2985,13 +2985,13 @@
         <v>14</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B128" s="10">
         <v>6500</v>
@@ -3000,13 +3000,13 @@
         <v>6</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="10">
         <v>5800</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="130" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B130" s="10">
         <v>4400</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="131" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" s="10">
         <v>5900</v>
@@ -3048,9 +3048,9 @@
     </row>
     <row r="132" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B132" s="19">
+        <v>171</v>
+      </c>
+      <c r="B132" s="20">
         <v>7200</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -3062,25 +3062,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{76D85841-0E92-4011-A17D-A4C4F39B78A0}"/>
-    <hyperlink ref="D27" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{C9A79CA9-B167-443A-AB21-1EA20451173E}"/>
-    <hyperlink ref="D28" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{6D2A01E7-99B9-4DCA-8F10-0193BA4220F1}"/>
-    <hyperlink ref="D45" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{22C1094A-0EAE-42D9-B543-021DD6A2C36F}"/>
-    <hyperlink ref="D46" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31837442&amp;forPersonCustId=3500" xr:uid="{7E462E08-4B0C-476D-AA36-E11FA80272FA}"/>
-    <hyperlink ref="D47" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{13B4A8AE-B629-42F9-B867-9E81A7263C7A}"/>
+    <hyperlink ref="D25" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{76D85841-0E92-4011-A17D-A4C4F39B78A0}"/>
+    <hyperlink ref="D26" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{C9A79CA9-B167-443A-AB21-1EA20451173E}"/>
+    <hyperlink ref="D27" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{6D2A01E7-99B9-4DCA-8F10-0193BA4220F1}"/>
+    <hyperlink ref="D44" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{22C1094A-0EAE-42D9-B543-021DD6A2C36F}"/>
+    <hyperlink ref="D45" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31837442&amp;forPersonCustId=3500" xr:uid="{7E462E08-4B0C-476D-AA36-E11FA80272FA}"/>
+    <hyperlink ref="D46" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{13B4A8AE-B629-42F9-B867-9E81A7263C7A}"/>
     <hyperlink ref="D92" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=36963206&amp;forPersonCustId=3800" xr:uid="{C28604FE-26D1-453D-8E55-BF4C270F28C4}"/>
     <hyperlink ref="D93" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=40707817&amp;forPersonCustId=3800" xr:uid="{E9917C5C-D5F0-4AD9-A2ED-472C92E6011C}"/>
     <hyperlink ref="D112" r:id="rId9" display="http://puchakraborty.cm/" xr:uid="{02AFB277-C913-480D-BB5B-879E6BB17D14}"/>
-    <hyperlink ref="D23" r:id="rId10" xr:uid="{FCE7A3BF-4446-4E9F-83A0-11A360F0A079}"/>
+    <hyperlink ref="D22" r:id="rId10" xr:uid="{FCE7A3BF-4446-4E9F-83A0-11A360F0A079}"/>
     <hyperlink ref="A73" r:id="rId11" tooltip="Optum Care Network - Idaho" display="javascript:void(0);" xr:uid="{90E131F6-422B-407C-B173-D7B05E9A01F6}"/>
     <hyperlink ref="A81" r:id="rId12" tooltip="Optum Kansas City" display="javascript:void(0);" xr:uid="{ED7C1925-38C1-4B1C-BD55-4AC2E2B634E2}"/>
     <hyperlink ref="A5" r:id="rId13" tooltip="AllCare To You" display="javascript:void(0);" xr:uid="{1E06C2FB-CB65-473A-A7AB-61F4C0CFB7D8}"/>
     <hyperlink ref="A132" r:id="rId14" tooltip="Western Health Advantage" display="javascript:void(0);" xr:uid="{B71BB41A-2606-4691-BAF5-FEA2AF25D99F}"/>
-    <hyperlink ref="A12" r:id="rId15" tooltip="APN CT" display="javascript:void(0);" xr:uid="{CEAD461B-39DE-4B6E-94C1-5D67097FEB24}"/>
-    <hyperlink ref="D6" r:id="rId16" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31620086&amp;forPersonCustId=1500" xr:uid="{821AE8F7-8968-4834-93BD-9073769A1EC9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CF3BCB-1ED8-4BBC-A753-D738261047AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ACF4B7-9960-4464-BCA8-82EC08BDBD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6870" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -498,9 +498,6 @@
     <t>Chinese Community Health Plan (CCHP)</t>
   </si>
   <si>
-    <t>alex.turchinsky@cchphealthplan.com</t>
-  </si>
-  <si>
     <t>Optum Care Colorado(NWST)</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>Western Health Advantage</t>
+  </si>
+  <si>
+    <t>craig.reich@cchphealthplan.com</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -753,9 +753,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1083,7 @@
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="10">
         <v>1750</v>
@@ -1191,7 +1188,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1233,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1308,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1323,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1370,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="10">
         <v>7100</v>
@@ -1382,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1412,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1446,7 +1443,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
@@ -1521,7 +1518,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1548,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
@@ -1611,7 +1608,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>23</v>
       </c>
@@ -1686,7 +1683,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
@@ -1701,7 +1698,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1758,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>26</v>
       </c>
@@ -1836,7 +1833,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>29</v>
       </c>
@@ -1896,7 +1893,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +1908,7 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>30</v>
       </c>
@@ -1952,11 +1949,11 @@
         <v>5</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +2024,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -2076,7 +2073,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>35</v>
       </c>
@@ -2153,7 +2150,7 @@
     </row>
     <row r="72" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="10">
         <v>2800</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="73" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73" s="19">
         <v>1550</v>
@@ -2255,7 +2252,7 @@
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>42</v>
       </c>
@@ -2287,7 +2284,7 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" s="19">
         <v>1650</v>
@@ -2355,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -2374,7 +2371,7 @@
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +2401,7 @@
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>48</v>
       </c>
@@ -2419,7 +2416,7 @@
       </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>48</v>
       </c>
@@ -2464,7 +2461,7 @@
       </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>49</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -2524,7 +2521,7 @@
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>50</v>
       </c>
@@ -2539,7 +2536,7 @@
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>50</v>
       </c>
@@ -2644,7 +2641,7 @@
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>52</v>
       </c>
@@ -2719,7 +2716,7 @@
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>53</v>
       </c>
@@ -2779,7 +2776,7 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +2791,7 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>54</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E117" s="1"/>
     </row>
@@ -2850,7 +2847,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E118" s="1"/>
     </row>
@@ -2865,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E119" s="1"/>
     </row>
@@ -2884,7 +2881,7 @@
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>55</v>
       </c>
@@ -2899,7 +2896,7 @@
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>55</v>
       </c>
@@ -2959,7 +2956,7 @@
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>56</v>
       </c>
@@ -2974,7 +2971,7 @@
       </c>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>56</v>
       </c>
@@ -3048,9 +3045,9 @@
     </row>
     <row r="132" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="20">
+        <v>170</v>
+      </c>
+      <c r="B132" s="19">
         <v>7200</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -3071,14 +3068,13 @@
     <hyperlink ref="D92" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=36963206&amp;forPersonCustId=3800" xr:uid="{C28604FE-26D1-453D-8E55-BF4C270F28C4}"/>
     <hyperlink ref="D93" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=40707817&amp;forPersonCustId=3800" xr:uid="{E9917C5C-D5F0-4AD9-A2ED-472C92E6011C}"/>
     <hyperlink ref="D112" r:id="rId9" display="http://puchakraborty.cm/" xr:uid="{02AFB277-C913-480D-BB5B-879E6BB17D14}"/>
-    <hyperlink ref="D22" r:id="rId10" xr:uid="{FCE7A3BF-4446-4E9F-83A0-11A360F0A079}"/>
-    <hyperlink ref="A73" r:id="rId11" tooltip="Optum Care Network - Idaho" display="javascript:void(0);" xr:uid="{90E131F6-422B-407C-B173-D7B05E9A01F6}"/>
-    <hyperlink ref="A81" r:id="rId12" tooltip="Optum Kansas City" display="javascript:void(0);" xr:uid="{ED7C1925-38C1-4B1C-BD55-4AC2E2B634E2}"/>
-    <hyperlink ref="A5" r:id="rId13" tooltip="AllCare To You" display="javascript:void(0);" xr:uid="{1E06C2FB-CB65-473A-A7AB-61F4C0CFB7D8}"/>
-    <hyperlink ref="A132" r:id="rId14" tooltip="Western Health Advantage" display="javascript:void(0);" xr:uid="{B71BB41A-2606-4691-BAF5-FEA2AF25D99F}"/>
+    <hyperlink ref="A73" r:id="rId10" tooltip="Optum Care Network - Idaho" display="javascript:void(0);" xr:uid="{90E131F6-422B-407C-B173-D7B05E9A01F6}"/>
+    <hyperlink ref="A81" r:id="rId11" tooltip="Optum Kansas City" display="javascript:void(0);" xr:uid="{ED7C1925-38C1-4B1C-BD55-4AC2E2B634E2}"/>
+    <hyperlink ref="A5" r:id="rId12" tooltip="AllCare To You" display="javascript:void(0);" xr:uid="{1E06C2FB-CB65-473A-A7AB-61F4C0CFB7D8}"/>
+    <hyperlink ref="A132" r:id="rId13" tooltip="Western Health Advantage" display="javascript:void(0);" xr:uid="{B71BB41A-2606-4691-BAF5-FEA2AF25D99F}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ACF4B7-9960-4464-BCA8-82EC08BDBD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8AD1A0-EA2C-42A0-915F-051002027DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6870" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>EXCL_CSmith</t>
   </si>
   <si>
-    <t>EXCL_SVielma</t>
-  </si>
-  <si>
     <t>EXCL_DKHAY</t>
   </si>
   <si>
@@ -498,6 +495,9 @@
     <t>Chinese Community Health Plan (CCHP)</t>
   </si>
   <si>
+    <t>alex.turchinsky@cchphealthplan.com</t>
+  </si>
+  <si>
     <t>Optum Care Colorado(NWST)</t>
   </si>
   <si>
@@ -540,7 +540,7 @@
     <t>Western Health Advantage</t>
   </si>
   <si>
-    <t>craig.reich@cchphealthplan.com</t>
+    <t>EXCL_AAgustin</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="10">
         <v>99999</v>
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1139,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1169,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1184,11 +1184,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1229,11 +1229,11 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="10">
         <v>6800</v>
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1304,11 +1304,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -1319,11 +1319,11 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1349,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="10">
         <v>6700</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="22" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="10">
         <v>7500</v>
@@ -1409,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1424,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1439,11 +1439,11 @@
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1514,11 +1514,11 @@
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>19</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1574,13 +1574,13 @@
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="10">
         <v>1800</v>
@@ -1589,13 +1589,13 @@
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="10">
         <v>1800</v>
@@ -1604,13 +1604,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="10">
         <v>1800</v>
@@ -1619,13 +1619,13 @@
         <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="10">
         <v>1800</v>
@@ -1634,13 +1634,13 @@
         <v>6</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10">
         <v>4300</v>
@@ -1649,13 +1649,13 @@
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="10">
         <v>3000</v>
@@ -1664,13 +1664,13 @@
         <v>5</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="10">
         <v>3000</v>
@@ -1679,13 +1679,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="10">
         <v>3000</v>
@@ -1694,13 +1694,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="10">
         <v>3000</v>
@@ -1709,13 +1709,13 @@
         <v>14</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="10">
         <v>3000</v>
@@ -1724,13 +1724,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="10">
         <v>3500</v>
@@ -1739,13 +1739,13 @@
         <v>5</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="10">
         <v>3500</v>
@@ -1754,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="10">
         <v>3500</v>
@@ -1769,13 +1769,13 @@
         <v>14</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="10">
         <v>200</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="10">
         <v>3600</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="10">
         <v>4600</v>
@@ -1814,13 +1814,13 @@
         <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="10">
         <v>4600</v>
@@ -1829,13 +1829,13 @@
         <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="10">
         <v>4600</v>
@@ -1844,13 +1844,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="10">
         <v>4600</v>
@@ -1859,13 +1859,13 @@
         <v>6</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="10">
         <v>150</v>
@@ -1874,13 +1874,13 @@
         <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="10">
         <v>150</v>
@@ -1889,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="10">
         <v>150</v>
@@ -1904,13 +1904,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" s="10">
         <v>150</v>
@@ -1919,13 +1919,13 @@
         <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" s="10">
         <v>150</v>
@@ -1934,13 +1934,13 @@
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="10">
         <v>2700</v>
@@ -1953,9 +1953,9 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="10">
         <v>2700</v>
@@ -1964,13 +1964,13 @@
         <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B60" s="10">
         <v>2000</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="10">
         <v>2100</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" s="10">
         <v>5600</v>
@@ -2009,13 +2009,13 @@
         <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B63" s="10">
         <v>5600</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="64" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="10">
         <v>2600</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="10">
         <v>1100</v>
@@ -2054,13 +2054,13 @@
         <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="10">
         <v>1100</v>
@@ -2069,13 +2069,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" s="10">
         <v>1100</v>
@@ -2084,13 +2084,13 @@
         <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="10">
         <v>1100</v>
@@ -2099,13 +2099,13 @@
         <v>6</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="10">
         <v>3300</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="10">
         <v>5100</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="10">
         <v>7400</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="74" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="10">
         <v>6600</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="75" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="10">
         <v>5200</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="76" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" s="10">
         <v>4800</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="77" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="10">
         <v>5300</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="78" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" s="10">
         <v>4900</v>
@@ -2252,9 +2252,9 @@
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" s="10">
         <v>4100</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="80" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="10">
         <v>5000</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B82" s="10">
         <v>4500</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" s="10">
         <v>3400</v>
@@ -2328,22 +2328,22 @@
     </row>
     <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" s="10">
         <v>1200</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" s="10">
         <v>1200</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86" s="10">
         <v>1200</v>
@@ -2367,13 +2367,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" s="10">
         <v>1200</v>
@@ -2382,13 +2382,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="10">
         <v>3900</v>
@@ -2397,13 +2397,13 @@
         <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" s="10">
         <v>3900</v>
@@ -2412,13 +2412,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" s="10">
         <v>3900</v>
@@ -2427,13 +2427,13 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" s="10">
         <v>3900</v>
@@ -2442,13 +2442,13 @@
         <v>6</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" s="10">
         <v>3800</v>
@@ -2457,13 +2457,13 @@
         <v>5</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" s="10">
         <v>3800</v>
@@ -2472,13 +2472,13 @@
         <v>14</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94" s="10">
         <v>3800</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="95" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95" s="10">
         <v>1300</v>
@@ -2502,13 +2502,13 @@
         <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" s="10">
         <v>1300</v>
@@ -2517,13 +2517,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" s="10">
         <v>1300</v>
@@ -2532,13 +2532,13 @@
         <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B98" s="10">
         <v>1300</v>
@@ -2547,13 +2547,13 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B99" s="10">
         <v>1300</v>
@@ -2562,28 +2562,28 @@
         <v>6</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" s="10">
         <v>2500</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B101" s="10">
         <v>2500</v>
@@ -2592,13 +2592,13 @@
         <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B102" s="10">
         <v>2500</v>
@@ -2607,13 +2607,13 @@
         <v>8</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B103" s="10">
         <v>6000</v>
@@ -2622,13 +2622,13 @@
         <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B104" s="10">
         <v>6000</v>
@@ -2637,13 +2637,13 @@
         <v>8</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B105" s="10">
         <v>6000</v>
@@ -2652,13 +2652,13 @@
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B106" s="10">
         <v>5400</v>
@@ -2667,13 +2667,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="10">
         <v>5400</v>
@@ -2682,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="10">
         <v>5400</v>
@@ -2697,13 +2697,13 @@
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B109" s="10">
         <v>1000</v>
@@ -2712,13 +2712,13 @@
         <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B110" s="10">
         <v>1000</v>
@@ -2727,13 +2727,13 @@
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B111" s="10">
         <v>1000</v>
@@ -2742,13 +2742,13 @@
         <v>6</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112" s="10">
         <v>1900</v>
@@ -2757,13 +2757,13 @@
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B113" s="10">
         <v>1900</v>
@@ -2772,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114" s="10">
         <v>1900</v>
@@ -2787,13 +2787,13 @@
         <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115" s="10">
         <v>1900</v>
@@ -2802,13 +2802,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116" s="10">
         <v>1900</v>
@@ -2817,13 +2817,13 @@
         <v>6</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="10">
         <v>7000</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="118" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118" s="10">
         <v>7000</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="119" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="10">
         <v>7000</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="120" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B120" s="10">
         <v>4000</v>
@@ -2877,13 +2877,13 @@
         <v>5</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B121" s="10">
         <v>4000</v>
@@ -2892,13 +2892,13 @@
         <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B122" s="10">
         <v>4000</v>
@@ -2907,28 +2907,28 @@
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B123" s="10">
         <v>6500</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124" s="10">
         <v>6500</v>
@@ -2937,13 +2937,13 @@
         <v>5</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B125" s="10">
         <v>6500</v>
@@ -2952,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B126" s="10">
         <v>6500</v>
@@ -2967,13 +2967,13 @@
         <v>9</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B127" s="10">
         <v>6500</v>
@@ -2982,13 +2982,13 @@
         <v>14</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B128" s="10">
         <v>6500</v>
@@ -2997,13 +2997,13 @@
         <v>6</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="10">
         <v>5800</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="130" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B130" s="10">
         <v>4400</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="131" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="10">
         <v>5900</v>
@@ -3068,13 +3068,15 @@
     <hyperlink ref="D92" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=36963206&amp;forPersonCustId=3800" xr:uid="{C28604FE-26D1-453D-8E55-BF4C270F28C4}"/>
     <hyperlink ref="D93" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=40707817&amp;forPersonCustId=3800" xr:uid="{E9917C5C-D5F0-4AD9-A2ED-472C92E6011C}"/>
     <hyperlink ref="D112" r:id="rId9" display="http://puchakraborty.cm/" xr:uid="{02AFB277-C913-480D-BB5B-879E6BB17D14}"/>
-    <hyperlink ref="A73" r:id="rId10" tooltip="Optum Care Network - Idaho" display="javascript:void(0);" xr:uid="{90E131F6-422B-407C-B173-D7B05E9A01F6}"/>
-    <hyperlink ref="A81" r:id="rId11" tooltip="Optum Kansas City" display="javascript:void(0);" xr:uid="{ED7C1925-38C1-4B1C-BD55-4AC2E2B634E2}"/>
-    <hyperlink ref="A5" r:id="rId12" tooltip="AllCare To You" display="javascript:void(0);" xr:uid="{1E06C2FB-CB65-473A-A7AB-61F4C0CFB7D8}"/>
-    <hyperlink ref="A132" r:id="rId13" tooltip="Western Health Advantage" display="javascript:void(0);" xr:uid="{B71BB41A-2606-4691-BAF5-FEA2AF25D99F}"/>
+    <hyperlink ref="D22" r:id="rId10" xr:uid="{FCE7A3BF-4446-4E9F-83A0-11A360F0A079}"/>
+    <hyperlink ref="A73" r:id="rId11" tooltip="Optum Care Network - Idaho" display="javascript:void(0);" xr:uid="{90E131F6-422B-407C-B173-D7B05E9A01F6}"/>
+    <hyperlink ref="A81" r:id="rId12" tooltip="Optum Kansas City" display="javascript:void(0);" xr:uid="{ED7C1925-38C1-4B1C-BD55-4AC2E2B634E2}"/>
+    <hyperlink ref="A5" r:id="rId13" tooltip="AllCare To You" display="javascript:void(0);" xr:uid="{1E06C2FB-CB65-473A-A7AB-61F4C0CFB7D8}"/>
+    <hyperlink ref="A132" r:id="rId14" tooltip="Western Health Advantage" display="javascript:void(0);" xr:uid="{B71BB41A-2606-4691-BAF5-FEA2AF25D99F}"/>
+    <hyperlink ref="D32" r:id="rId15" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTIwMCZvcmdJZD0yMDAmcXVhcnRlcj0yMDIzLTEyLTMx&amp;person_id=47287683&amp;forPersonCustId=2900" xr:uid="{80C65B54-C905-474E-9487-7FDC76BA01D8}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFE8249-8C20-4D68-8114-15291E393D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9EE732-B1C2-4A5E-AFD6-8CE91DFCB6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="187">
   <si>
     <t>Customer Name</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>craig.reich@cchphealthplan.com</t>
+  </si>
+  <si>
+    <t>imphp_cloe.butial</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -789,6 +792,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1106,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2996,11 +3000,11 @@
       <c r="B53" s="7">
         <v>2350</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="7">
-        <v>99999</v>
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -6313,9 +6317,10 @@
     <hyperlink ref="D51" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{0109AA83-5E18-4786-B03E-9777A15B64CF}"/>
     <hyperlink ref="D123" r:id="rId9" display="http://puchakraborty.cm/" xr:uid="{307A7FC4-2066-4A12-B303-9F9FF490B86E}"/>
     <hyperlink ref="D24" r:id="rId10" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmZG9jdG9yc1BlcnNvbklkPTk2MjI1NDQmZG9jdG9yX3VpZD05NjAyNDU1JnBheWVySWQ9MTUwMCZxdWFydGVyPTIwMjMtMTItMzEmaG9tZT1ZWEJ3WDJsa1BYSmxaMmx6ZEhKcFpYTW1ZM1Z6ZEVsa1BURTFNREFtY0dGNVpYSkpaRDB4TlRBd0ptOXlaMGxrUFRFMU1EQW1kbWR3U1dROU1UVXdNQ1oyY0Vsa1BURTFNREE&amp;person_id=49706900&amp;forPersonCustId=7500" xr:uid="{CC18F32E-C09E-4CA5-97D0-878614ABE42D}"/>
+    <hyperlink ref="D53" r:id="rId11" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTMwMDAmb3JnSWQ9MzAwMCZ2Z3BJZD0zMDAwJnZwSWQ9MzAwMA&amp;person_id=59064038&amp;forPersonCustId=2350" xr:uid="{8894B148-5BC9-45EF-9724-E71F502C83DF}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9EE732-B1C2-4A5E-AFD6-8CE91DFCB6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AABAB-3866-4083-ACC7-12EE80346F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,9 +492,6 @@
     <t>Optum Kansas City</t>
   </si>
   <si>
-    <t>MRTG_BCano</t>
-  </si>
-  <si>
     <t>AllCare To You</t>
   </si>
   <si>
@@ -586,6 +583,9 @@
   </si>
   <si>
     <t>imphp_cloe.butial</t>
+  </si>
+  <si>
+    <t>kghosh.cm.meritage</t>
   </si>
 </sst>
 </file>
@@ -812,9 +812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -852,7 +852,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -958,7 +958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1100,7 +1100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="7">
         <v>1750</v>
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="7">
         <v>2600</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="24" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="7">
         <v>7500</v>
@@ -1960,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="7">
         <v>2050</v>
@@ -2212,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2392,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2428,7 +2428,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="7">
         <v>2350</v>
@@ -3004,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="64" spans="1:26" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="7">
         <v>5700</v>
@@ -3435,8 +3435,8 @@
       <c r="C65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>155</v>
+      <c r="D65" t="s">
+        <v>186</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="7">
         <v>1950</v>
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="80" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B80" s="7">
         <v>2800</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" s="7">
         <v>2450</v>
@@ -4444,7 +4444,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4732,7 +4732,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -4768,7 +4768,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B108" s="7">
         <v>1850</v>
@@ -4984,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5164,7 +5164,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5236,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5380,7 +5380,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5704,7 +5704,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5740,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5773,10 +5773,10 @@
         <v>7000</v>
       </c>
       <c r="C130" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5848,7 +5848,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B144" s="7">
         <v>7200</v>
@@ -6280,7 +6280,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AABAB-3866-4083-ACC7-12EE80346F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919D2C3-EF48-45F0-BF41-E42AB7C0430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6870" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>btp_agodinez</t>
   </si>
   <si>
-    <t>btp_aaminzadeh</t>
-  </si>
-  <si>
     <t>btp_SBUTTLIERE</t>
   </si>
   <si>
@@ -586,6 +583,9 @@
   </si>
   <si>
     <t>kghosh.cm.meritage</t>
+  </si>
+  <si>
+    <t>btp_aloo</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,7 @@
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7">
         <v>99999</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="7">
         <v>1750</v>
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1420,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="7">
         <v>2600</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="7">
         <v>6800</v>
@@ -1708,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1733,7 +1733,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1769,7 +1769,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1816,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="21" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="7">
         <v>6700</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="7">
         <v>7100</v>
@@ -1888,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="24" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="7">
         <v>7500</v>
@@ -1960,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1996,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="16"/>
@@ -2032,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2057,7 +2057,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="7">
         <v>2050</v>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2176,7 +2176,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2201,7 +2201,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2248,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2284,7 +2284,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2309,7 +2309,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2392,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2417,7 +2417,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2500,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2536,7 +2536,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2561,7 +2561,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>22</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2608,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2644,7 +2644,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2680,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2716,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2741,7 +2741,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>24</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2777,7 +2777,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>24</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2824,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2860,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2896,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2921,7 +2921,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>25</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="7">
         <v>2350</v>
@@ -3004,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3076,7 +3076,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3112,7 +3112,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3137,7 +3137,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>28</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3184,7 +3184,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3256,7 +3256,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3281,7 +3281,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3328,7 +3328,7 @@
         <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3364,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="64" spans="1:26" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="7">
         <v>5700</v>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3461,7 +3461,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" s="7">
         <v>1950</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="70" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B70" s="7">
         <v>5600</v>
@@ -3616,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" s="7">
         <v>5600</v>
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3688,7 +3688,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3724,7 +3724,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3749,7 +3749,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>33</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3796,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="80" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B80" s="7">
         <v>2800</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B81" s="7">
         <v>1550</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="82" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" s="7">
         <v>6600</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="85" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" s="7">
         <v>5300</v>
@@ -4217,7 +4217,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>40</v>
       </c>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B89" s="7">
         <v>2450</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B90" s="7">
         <v>1650</v>
@@ -4408,7 +4408,7 @@
         <v>45</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4444,7 +4444,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4480,7 +4480,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -4505,7 +4505,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>44</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4552,7 +4552,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4577,7 +4577,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>46</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -4613,7 +4613,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>46</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -4660,7 +4660,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4696,7 +4696,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -4721,7 +4721,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>47</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -4768,7 +4768,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4804,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -4840,7 +4840,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4865,7 +4865,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>48</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -4901,7 +4901,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>48</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>14</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -4948,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B108" s="7">
         <v>1850</v>
@@ -4984,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5020,7 +5020,7 @@
         <v>45</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5056,7 +5056,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5092,7 +5092,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5128,7 +5128,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5164,7 +5164,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5189,7 +5189,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>50</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>14</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5225,7 +5225,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>50</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="116" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" s="7">
         <v>5400</v>
@@ -5272,7 +5272,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="117" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117" s="7">
         <v>5400</v>
@@ -5308,7 +5308,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="118" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="7">
         <v>5400</v>
@@ -5344,7 +5344,7 @@
         <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="119" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="7">
         <v>5400</v>
@@ -5380,7 +5380,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5416,7 +5416,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5441,7 +5441,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>51</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5488,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5524,7 +5524,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5560,7 +5560,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5585,7 +5585,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>52</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5621,7 +5621,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>52</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>14</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5668,7 +5668,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="128" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="7">
         <v>7000</v>
@@ -5704,7 +5704,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="129" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="7">
         <v>7000</v>
@@ -5740,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5767,16 +5767,16 @@
     </row>
     <row r="130" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="7">
         <v>7000</v>
       </c>
       <c r="C130" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="131" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" s="7">
         <v>7000</v>
@@ -5848,7 +5848,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -5873,7 +5873,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>53</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -5909,7 +5909,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>53</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -5956,7 +5956,7 @@
         <v>45</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -5992,7 +5992,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6028,7 +6028,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6053,7 +6053,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>54</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6089,7 +6089,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>54</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6136,7 +6136,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B141" s="7">
         <v>5800</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B143" s="7">
         <v>5900</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B144" s="7">
         <v>7200</v>
@@ -6280,7 +6280,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919D2C3-EF48-45F0-BF41-E42AB7C0430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DC29F1-AE70-430F-9E62-670E095EA589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6870" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="191">
   <si>
     <t>Customer Name</t>
   </si>
@@ -228,12 +228,6 @@
     <t>dhmf_abajwa</t>
   </si>
   <si>
-    <t>epic_agonzales</t>
-  </si>
-  <si>
-    <t>epic_aarteaga</t>
-  </si>
-  <si>
     <t>ProviderBMG</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>adriana.x.hernandez@healthnet.com</t>
   </si>
   <si>
-    <t>aartikul4@gmail.com</t>
-  </si>
-  <si>
     <t>S_Vankadaru</t>
   </si>
   <si>
@@ -429,9 +420,6 @@
     <t>altamed_kprice</t>
   </si>
   <si>
-    <t>FCMG_dbrick</t>
-  </si>
-  <si>
     <t>aemerson@cnhfclinics.org</t>
   </si>
   <si>
@@ -510,9 +498,6 @@
     <t>EXCL_AShetty</t>
   </si>
   <si>
-    <t>EXCL_SVielma</t>
-  </si>
-  <si>
     <t>Imperial Health</t>
   </si>
   <si>
@@ -579,20 +564,47 @@
     <t>craig.reich@cchphealthplan.com</t>
   </si>
   <si>
-    <t>imphp_cloe.butial</t>
-  </si>
-  <si>
     <t>kghosh.cm.meritage</t>
   </si>
   <si>
     <t>btp_aloo</t>
+  </si>
+  <si>
+    <t>Alliant Health</t>
+  </si>
+  <si>
+    <t>Altura La Salle</t>
+  </si>
+  <si>
+    <t>jiamiw@chasf.org</t>
+  </si>
+  <si>
+    <t>epic_allopez</t>
+  </si>
+  <si>
+    <t>epic_abarrera</t>
+  </si>
+  <si>
+    <t>EXCL_Acastillo</t>
+  </si>
+  <si>
+    <t>FCMG_CCarpenter</t>
+  </si>
+  <si>
+    <t>acmdgp@gmail.com</t>
+  </si>
+  <si>
+    <t>imphp_adrienne.smith</t>
+  </si>
+  <si>
+    <t>PROV_CA_AAlonso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -613,11 +625,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Roboto"/>
     </font>
@@ -627,14 +634,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFE8EAED"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,14 +702,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF202124"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -731,68 +726,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1108,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z144"/>
+  <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1121,17 +1196,17 @@
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -1158,16 +1233,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="6">
         <v>99999</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>99999</v>
       </c>
       <c r="E2" s="1"/>
@@ -1194,17 +1269,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2400</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>128</v>
+      <c r="D3" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1230,17 +1305,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2400</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>129</v>
+      <c r="D4" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1266,16 +1341,16 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="6">
         <v>1750</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>99999</v>
       </c>
       <c r="E5" s="1"/>
@@ -1302,17 +1377,17 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>130</v>
+      <c r="A6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2750</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8">
+        <v>99999</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1338,17 +1413,17 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1500</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>131</v>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1373,18 +1448,18 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1500</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>132</v>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1410,17 +1485,17 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1500</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>133</v>
+      <c r="C9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1446,17 +1521,17 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7">
-        <v>3700</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1482,17 +1557,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3700</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>156</v>
+      <c r="A11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2650</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8">
+        <v>99999</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1517,18 +1592,18 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>3700</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1554,17 +1629,17 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2600</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7">
-        <v>99999</v>
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3700</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1590,17 +1665,17 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2200</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7">
-        <v>99999</v>
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3700</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1626,16 +1701,16 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="7">
-        <v>6800</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2600</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>99999</v>
       </c>
       <c r="E15" s="1"/>
@@ -1662,17 +1737,17 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1600</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2200</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8">
+        <v>99999</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1698,17 +1773,17 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1600</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>186</v>
+      <c r="A17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="6">
+        <v>6800</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8">
+        <v>99999</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1733,18 +1808,18 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>1600</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
+      <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1769,18 +1844,18 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>1600</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1806,17 +1881,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>1600</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
+      <c r="C20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1842,17 +1917,17 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="7">
-        <v>6700</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7">
-        <v>99999</v>
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1600</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1878,17 +1953,17 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="7">
-        <v>7100</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>151</v>
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1600</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1913,17 +1988,17 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4700</v>
-      </c>
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="6">
+        <v>6700</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>99999</v>
       </c>
       <c r="E23" s="1"/>
@@ -1949,18 +2024,18 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="7">
-        <v>7500</v>
+    <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="6">
+        <v>7100</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>183</v>
+      <c r="D24" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1985,21 +2060,21 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="7">
-        <v>3200</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>62</v>
+    <row r="25" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6">
+        <v>4700</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="8">
+        <v>99999</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2021,18 +2096,18 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="7">
-        <v>3200</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>63</v>
+    <row r="26" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7500</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2057,18 +2132,18 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3200</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
+    <row r="27" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="6">
+        <v>7500</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2094,17 +2169,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="7">
-        <v>2050</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1">
-        <v>99999</v>
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3200</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2130,17 +2205,17 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="7">
-        <v>3100</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>65</v>
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>3200</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2166,17 +2241,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="7">
-        <v>3100</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>66</v>
+      <c r="A30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3200</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2201,18 +2276,18 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="7">
-        <v>3100</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>159</v>
+    <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2050</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8">
+        <v>99999</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2238,17 +2313,17 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1700</v>
+      <c r="A32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <v>3100</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>67</v>
+      <c r="D32" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2274,17 +2349,17 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1700</v>
+      <c r="A33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="6">
+        <v>3100</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
+      <c r="D33" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2309,18 +2384,18 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1700</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>69</v>
+    <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3100</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2346,17 +2421,17 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="7">
-        <v>2900</v>
+      <c r="A35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1700</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
+      <c r="D35" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2382,17 +2457,17 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="7">
-        <v>2900</v>
+      <c r="A36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1700</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>160</v>
+      <c r="D36" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2417,18 +2492,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="7">
-        <v>2900</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>161</v>
+    <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1700</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2454,17 +2529,17 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>2900</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>21</v>
+      <c r="C38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2490,17 +2565,17 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="7">
-        <v>1800</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>70</v>
+      <c r="A39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="6">
+        <v>2900</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2526,17 +2601,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="7">
-        <v>1800</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>71</v>
+      <c r="A40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2900</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2561,18 +2636,18 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="7">
-        <v>1800</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>72</v>
+    <row r="41" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2900</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2598,17 +2673,17 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>1800</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>73</v>
+      <c r="C42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2634,17 +2709,17 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="7">
-        <v>4300</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>134</v>
+      <c r="A43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2670,17 +2745,17 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>74</v>
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2706,17 +2781,17 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>135</v>
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2741,18 +2816,18 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>136</v>
+    <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="6">
+        <v>4300</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2777,18 +2852,18 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>3000</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>137</v>
+      <c r="C47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2814,17 +2889,17 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>3000</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>75</v>
+      <c r="C48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2850,17 +2925,17 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="7">
-        <v>3500</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>76</v>
+      <c r="A49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2886,17 +2961,17 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="7">
-        <v>3500</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>77</v>
+      <c r="A50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2921,18 +2996,18 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="7">
-        <v>3500</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>78</v>
+    <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2958,17 +3033,17 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="7">
-        <v>200</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="1">
-        <v>99999</v>
+      <c r="A52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="6">
+        <v>3500</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2994,17 +3069,17 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="7">
-        <v>2350</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>184</v>
+      <c r="A53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="6">
+        <v>3500</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3030,17 +3105,17 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="7">
-        <v>3600</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="7">
-        <v>99999</v>
+      <c r="A54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="6">
+        <v>3500</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3066,17 +3141,17 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="7">
-        <v>4600</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>79</v>
+      <c r="A55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="6">
+        <v>200</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="8">
+        <v>99999</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3102,17 +3177,17 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="7">
-        <v>4600</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>80</v>
+      <c r="A56" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="6">
+        <v>2350</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3137,18 +3212,18 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="7">
-        <v>4600</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>81</v>
+    <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="6">
+        <v>3600</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="8">
+        <v>99999</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3174,17 +3249,17 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>4600</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>138</v>
+      <c r="C58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3210,17 +3285,17 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="7">
-        <v>150</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>139</v>
+      <c r="A59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="6">
+        <v>4600</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3246,17 +3321,17 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="7">
-        <v>150</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>140</v>
+      <c r="A60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="6">
+        <v>4600</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3281,18 +3356,18 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="7">
-        <v>150</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>141</v>
+    <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="6">
+        <v>4600</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3318,17 +3393,17 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>150</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>142</v>
+      <c r="C62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3354,17 +3429,17 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>150</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>143</v>
+      <c r="C63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3389,18 +3464,18 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="7">
-        <v>5700</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="7">
-        <v>99999</v>
+    <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="6">
+        <v>150</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3426,17 +3501,17 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" s="7">
-        <v>2700</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" t="s">
-        <v>185</v>
+      <c r="A65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="6">
+        <v>150</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3461,18 +3536,18 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="7">
-        <v>2700</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>144</v>
+    <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="6">
+        <v>150</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3497,17 +3572,17 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="7">
-        <v>1950</v>
-      </c>
-      <c r="C67" s="8" t="s">
+    <row r="67" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="6">
+        <v>5700</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="8">
         <v>99999</v>
       </c>
       <c r="E67" s="1"/>
@@ -3534,17 +3609,17 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="7">
-        <v>2000</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="7">
-        <v>99999</v>
+      <c r="A68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="6">
+        <v>2700</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3570,17 +3645,17 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="7">
-        <v>2100</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="7">
-        <v>99999</v>
+      <c r="A69" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="6">
+        <v>2700</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3606,17 +3681,17 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="7">
-        <v>5600</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>119</v>
+      <c r="A70" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="6">
+        <v>1950</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="8">
+        <v>99999</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3642,17 +3717,17 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="7">
-        <v>5600</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>165</v>
+      <c r="A71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="8">
+        <v>99999</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3678,17 +3753,17 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="7">
-        <v>1100</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>82</v>
+      <c r="A72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2100</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="8">
+        <v>99999</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3714,17 +3789,17 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="7">
-        <v>1100</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>83</v>
+      <c r="A73" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="6">
+        <v>5600</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3749,18 +3824,18 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="7">
-        <v>1100</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>84</v>
+    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="6">
+        <v>5600</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3786,17 +3861,17 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>1100</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>85</v>
+      <c r="C75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3822,17 +3897,17 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="7">
-        <v>3300</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="7">
-        <v>99999</v>
+      <c r="A76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="6">
+        <v>1100</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3858,17 +3933,17 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="7">
-        <v>4500</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="7">
-        <v>99999</v>
+      <c r="A77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="6">
+        <v>1100</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3894,17 +3969,17 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="7">
-        <v>5100</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="7">
-        <v>99999</v>
+      <c r="A78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1100</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3930,16 +4005,16 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="7">
-        <v>7400</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="A79" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="6">
+        <v>3300</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="8">
         <v>99999</v>
       </c>
       <c r="E79" s="1"/>
@@ -3965,17 +4040,17 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="7">
-        <v>2800</v>
-      </c>
-      <c r="C80" s="8" t="s">
+    <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="6">
+        <v>4500</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="8">
         <v>99999</v>
       </c>
       <c r="E80" s="1"/>
@@ -4002,16 +4077,16 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" s="7">
-        <v>1550</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="A81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="6">
+        <v>5100</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="8">
         <v>99999</v>
       </c>
       <c r="E81" s="1"/>
@@ -4037,17 +4112,17 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="7">
-        <v>6600</v>
-      </c>
-      <c r="C82" s="8" t="s">
+    <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="6">
+        <v>7400</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="8">
         <v>99999</v>
       </c>
       <c r="E82" s="1"/>
@@ -4074,16 +4149,16 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="7">
-        <v>5200</v>
-      </c>
-      <c r="C83" s="8" t="s">
+      <c r="A83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="6">
+        <v>2800</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="8">
         <v>99999</v>
       </c>
       <c r="E83" s="1"/>
@@ -4110,16 +4185,16 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="7">
-        <v>4800</v>
-      </c>
-      <c r="C84" s="8" t="s">
+      <c r="A84" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="6">
+        <v>1550</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="8">
         <v>99999</v>
       </c>
       <c r="E84" s="1"/>
@@ -4146,16 +4221,16 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" s="7">
-        <v>5300</v>
-      </c>
-      <c r="C85" s="8" t="s">
+      <c r="A85" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="6">
+        <v>6600</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="8">
         <v>99999</v>
       </c>
       <c r="E85" s="1"/>
@@ -4182,16 +4257,16 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="7">
-        <v>4900</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="A86" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="6">
+        <v>5200</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>99999</v>
       </c>
       <c r="E86" s="1"/>
@@ -4218,16 +4293,16 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="7">
-        <v>4100</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="A87" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="6">
+        <v>4800</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="8">
         <v>99999</v>
       </c>
       <c r="E87" s="1"/>
@@ -4253,17 +4328,17 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C88" s="8" t="s">
+    <row r="88" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="6">
+        <v>5300</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="8">
         <v>99999</v>
       </c>
       <c r="E88" s="1"/>
@@ -4289,17 +4364,17 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="7">
-        <v>2450</v>
-      </c>
-      <c r="C89" s="8" t="s">
+    <row r="89" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="6">
+        <v>4900</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="8">
         <v>99999</v>
       </c>
       <c r="E89" s="1"/>
@@ -4326,16 +4401,16 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B90" s="7">
-        <v>1650</v>
-      </c>
-      <c r="C90" s="8" t="s">
+      <c r="A90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="6">
+        <v>4100</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="8">
         <v>99999</v>
       </c>
       <c r="E90" s="1"/>
@@ -4362,16 +4437,16 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="7">
-        <v>3400</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="A91" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="8">
         <v>99999</v>
       </c>
       <c r="E91" s="1"/>
@@ -4397,18 +4472,18 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" s="7">
-        <v>1200</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>86</v>
+    <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="6">
+        <v>2450</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="8">
+        <v>99999</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4434,17 +4509,17 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="7">
-        <v>1200</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>168</v>
+      <c r="A93" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="6">
+        <v>1650</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="8">
+        <v>99999</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4470,17 +4545,17 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" s="7">
-        <v>1200</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>87</v>
+      <c r="A94" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="6">
+        <v>3400</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="8">
+        <v>99999</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -4505,18 +4580,18 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>1200</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>88</v>
+      <c r="C95" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4542,17 +4617,17 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="7">
-        <v>3900</v>
+      <c r="A96" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="6">
+        <v>1200</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>89</v>
+      <c r="D96" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4577,18 +4652,18 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" s="7">
-        <v>3900</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>90</v>
+    <row r="97" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -4613,18 +4688,18 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" s="7">
-        <v>3900</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>91</v>
+    <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -4650,17 +4725,17 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>3900</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>92</v>
+      <c r="C99" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4686,17 +4761,17 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="7">
-        <v>3800</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>93</v>
+      <c r="A100" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="6">
+        <v>3900</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -4721,18 +4796,18 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" s="7">
-        <v>3800</v>
-      </c>
-      <c r="C101" s="13" t="s">
+    <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="6">
+        <v>3900</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>169</v>
+      <c r="D101" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -4758,17 +4833,17 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B102" s="7">
-        <v>3800</v>
+      <c r="A102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="6">
+        <v>3900</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>170</v>
+      <c r="D102" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4794,17 +4869,17 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="7">
-        <v>1300</v>
+      <c r="A103" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="6">
+        <v>3800</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>94</v>
+      <c r="D103" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -4830,17 +4905,17 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="7">
-        <v>1300</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>95</v>
+      <c r="A104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" s="6">
+        <v>3800</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4865,18 +4940,18 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="7">
-        <v>1300</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>96</v>
+    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="6">
+        <v>3800</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -4901,18 +4976,18 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <v>1300</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>97</v>
+      <c r="C106" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -4938,17 +5013,17 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="6">
         <v>1300</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>98</v>
+      <c r="C107" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -4974,17 +5049,17 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B108" s="7">
-        <v>1850</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>172</v>
+      <c r="A108" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="6">
+        <v>1300</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5010,17 +5085,17 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B109" s="7">
-        <v>2500</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>99</v>
+      <c r="A109" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="6">
+        <v>1300</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5046,17 +5121,17 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="7">
-        <v>2500</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>100</v>
+      <c r="A110" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="6">
+        <v>1300</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5082,17 +5157,17 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="7">
-        <v>2500</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>101</v>
+      <c r="A111" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="6">
+        <v>1850</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5118,17 +5193,17 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="7">
-        <v>6000</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>102</v>
+      <c r="A112" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="6">
+        <v>1850</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5154,17 +5229,17 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B113" s="7">
-        <v>6000</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>173</v>
+      <c r="A113" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5189,18 +5264,18 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B114" s="7">
-        <v>6000</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>103</v>
+    <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5225,18 +5300,18 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" s="7">
-        <v>6000</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>174</v>
+    <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5261,18 +5336,18 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B116" s="7">
-        <v>5400</v>
+    <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" s="6">
+        <v>6000</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>146</v>
+      <c r="D116" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5297,18 +5372,18 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="7">
-        <v>5400</v>
+    <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="6">
+        <v>6000</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="18" t="s">
-        <v>145</v>
+      <c r="D117" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5333,18 +5408,18 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="7">
-        <v>5400</v>
-      </c>
-      <c r="C118" s="13" t="s">
+    <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>147</v>
+      <c r="D118" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5369,18 +5444,18 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="7">
-        <v>5400</v>
-      </c>
-      <c r="C119" s="12" t="s">
+    <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>175</v>
+      <c r="D119" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5405,18 +5480,18 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" s="7">
-        <v>1000</v>
+    <row r="120" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="6">
+        <v>5400</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>148</v>
+      <c r="D120" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5441,18 +5516,18 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B121" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>104</v>
+    <row r="121" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5477,18 +5552,18 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B122" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>105</v>
+    <row r="122" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5513,18 +5588,18 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B123" s="7">
-        <v>1900</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>106</v>
+    <row r="123" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5550,17 +5625,17 @@
       <c r="Z123" s="1"/>
     </row>
     <row r="124" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B124" s="7">
-        <v>1900</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>107</v>
+      <c r="A124" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5585,18 +5660,18 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B125" s="7">
-        <v>1900</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>108</v>
+    <row r="125" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5621,18 +5696,18 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B126" s="7">
-        <v>1900</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>109</v>
+    <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5658,17 +5733,17 @@
       <c r="Z126" s="1"/>
     </row>
     <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="6">
         <v>1900</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>110</v>
+      <c r="C127" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5693,18 +5768,18 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" s="7">
-        <v>7000</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>176</v>
+    <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5729,18 +5804,18 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" s="7">
-        <v>7000</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>177</v>
+    <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5765,18 +5840,18 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" s="7">
-        <v>7000</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>179</v>
+    <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5801,18 +5876,18 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B131" s="7">
-        <v>7000</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="7">
-        <v>99999</v>
+    <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -5837,18 +5912,18 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B132" s="7">
-        <v>4000</v>
+    <row r="132" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B132" s="6">
+        <v>7000</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>180</v>
+      <c r="D132" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -5873,18 +5948,18 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B133" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>111</v>
+    <row r="133" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -5909,18 +5984,18 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B134" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>112</v>
+    <row r="134" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -5945,18 +6020,18 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B135" s="7">
-        <v>6500</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>99</v>
+    <row r="135" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="8">
+        <v>99999</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -5982,17 +6057,17 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B136" s="7">
-        <v>6500</v>
+      <c r="A136" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" s="6">
+        <v>4000</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>113</v>
+      <c r="D136" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6018,17 +6093,17 @@
       <c r="Z136" s="1"/>
     </row>
     <row r="137" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B137" s="7">
-        <v>6500</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>114</v>
+      <c r="A137" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6053,18 +6128,18 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B138" s="7">
-        <v>6500</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>115</v>
+    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6089,18 +6164,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="6">
         <v>6500</v>
       </c>
-      <c r="C139" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>116</v>
+      <c r="C139" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6126,17 +6201,17 @@
       <c r="Z139" s="1"/>
     </row>
     <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="6">
         <v>6500</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>149</v>
+      <c r="C140" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6162,17 +6237,17 @@
       <c r="Z140" s="1"/>
     </row>
     <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B141" s="7">
-        <v>5800</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="7">
-        <v>99999</v>
+      <c r="A141" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6198,17 +6273,17 @@
       <c r="Z141" s="1"/>
     </row>
     <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B142" s="7">
-        <v>4400</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="7">
-        <v>99999</v>
+      <c r="A142" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6234,17 +6309,17 @@
       <c r="Z142" s="1"/>
     </row>
     <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B143" s="7">
-        <v>5900</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="7">
-        <v>99999</v>
+      <c r="A143" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6270,17 +6345,17 @@
       <c r="Z143" s="1"/>
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B144" s="7">
-        <v>7200</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>181</v>
+      <c r="A144" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6305,22 +6380,74 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
+    <row r="145" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145" s="6">
+        <v>5800</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="6">
+        <v>7200</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=9694765&amp;forPersonCustId=1500" xr:uid="{3055FFA0-EEF7-43CD-A688-75447FE68FBD}"/>
-    <hyperlink ref="D27" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{B00B0E7B-5A07-4A2D-8359-1F3BC492B81D}"/>
-    <hyperlink ref="D29" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{A1EF17E5-FD27-4959-8B64-7E0493253E49}"/>
-    <hyperlink ref="D30" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{70078BED-15EC-493A-87D2-10641AE78DD5}"/>
-    <hyperlink ref="D31" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{A7405B48-CC14-42F7-AD56-F159511DDA59}"/>
-    <hyperlink ref="D49" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{7F536535-C3C6-4E3C-AD55-13883198F468}"/>
-    <hyperlink ref="D50" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=31837442&amp;forPersonCustId=3500" xr:uid="{1B100153-C6F0-4237-9BC2-438F6943FA03}"/>
-    <hyperlink ref="D51" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{0109AA83-5E18-4786-B03E-9777A15B64CF}"/>
-    <hyperlink ref="D123" r:id="rId9" display="http://puchakraborty.cm/" xr:uid="{307A7FC4-2066-4A12-B303-9F9FF490B86E}"/>
-    <hyperlink ref="D24" r:id="rId10" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmZG9jdG9yc1BlcnNvbklkPTk2MjI1NDQmZG9jdG9yX3VpZD05NjAyNDU1JnBheWVySWQ9MTUwMCZxdWFydGVyPTIwMjMtMTItMzEmaG9tZT1ZWEJ3WDJsa1BYSmxaMmx6ZEhKcFpYTW1ZM1Z6ZEVsa1BURTFNREFtY0dGNVpYSkpaRDB4TlRBd0ptOXlaMGxrUFRFMU1EQW1kbWR3U1dROU1UVXdNQ1oyY0Vsa1BURTFNREE&amp;person_id=49706900&amp;forPersonCustId=7500" xr:uid="{CC18F32E-C09E-4CA5-97D0-878614ABE42D}"/>
-    <hyperlink ref="D53" r:id="rId11" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTMwMDAmb3JnSWQ9MzAwMCZ2Z3BJZD0zMDAwJnZwSWQ9MzAwMA&amp;person_id=59064038&amp;forPersonCustId=2350" xr:uid="{8894B148-5BC9-45EF-9724-E71F502C83DF}"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=9694765&amp;forPersonCustId=1500" xr:uid="{76314F97-D0E4-4B9C-A525-77BF8D108672}"/>
+    <hyperlink ref="D30" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{3C703413-5F16-4014-B426-6D34197A52F8}"/>
+    <hyperlink ref="D32" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{8057719F-86C6-4FB5-8841-F6ACD3AF57D2}"/>
+    <hyperlink ref="D33" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{0EBCA833-8C51-43DE-80DF-9002B5F2ED2B}"/>
+    <hyperlink ref="D34" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9F1D420A-FEFD-42B4-B52D-5003092E508B}"/>
+    <hyperlink ref="D52" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{D2BFD976-7861-4669-8708-DCDC6B1D16B4}"/>
+    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{C2C9178A-17B7-4D66-A053-9DFFE11BB741}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DC29F1-AE70-430F-9E62-670E095EA589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE31A9-BB9D-49D8-8710-560851B4A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="190">
   <si>
     <t>Customer Name</t>
   </si>
@@ -480,9 +480,6 @@
     <t>AllCare To You</t>
   </si>
   <si>
-    <t>Western Health Advantage</t>
-  </si>
-  <si>
     <t>anthm_thassan</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
     <t>sharp_brovo</t>
   </si>
   <si>
-    <t>wha_jbaillie</t>
-  </si>
-  <si>
     <t>Chinese Community Health Plan (CCHP)</t>
   </si>
   <si>
@@ -597,7 +591,10 @@
     <t>imphp_adrienne.smith</t>
   </si>
   <si>
-    <t>PROV_CA_AAlonso</t>
+    <t>PROV_CA_AAbeita</t>
+  </si>
+  <si>
+    <t>PROV_CA_AAfshari</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="6">
         <v>2750</v>
@@ -1558,7 +1555,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B11" s="6">
         <v>2650</v>
@@ -1639,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="6">
         <v>2600</v>
@@ -1855,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="26" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26" s="6">
         <v>7500</v>
@@ -2107,7 +2104,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="27" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B27" s="6">
         <v>7500</v>
@@ -2143,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2278,7 +2275,7 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="6">
         <v>2050</v>
@@ -2395,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2431,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2467,7 +2464,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2575,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2611,7 +2608,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2827,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3007,7 +3004,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3178,7 +3175,7 @@
     </row>
     <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="6">
         <v>2350</v>
@@ -3187,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3574,7 +3571,7 @@
     </row>
     <row r="67" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" s="6">
         <v>5700</v>
@@ -3619,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3682,7 +3679,7 @@
     </row>
     <row r="70" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70" s="6">
         <v>1950</v>
@@ -3835,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="83" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B83" s="6">
         <v>2800</v>
@@ -4474,7 +4471,7 @@
     </row>
     <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B92" s="6">
         <v>2450</v>
@@ -4627,7 +4624,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4915,7 +4912,7 @@
         <v>14</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4951,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5158,7 +5155,7 @@
     </row>
     <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B111" s="6">
         <v>1850</v>
@@ -5167,7 +5164,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5194,7 +5191,7 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112" s="6">
         <v>1850</v>
@@ -5203,7 +5200,7 @@
         <v>8</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5230,16 +5227,16 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="B113" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>45</v>
+        <v>1850</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5271,11 +5268,11 @@
       <c r="B114" s="6">
         <v>2500</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>5</v>
+      <c r="C114" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5307,11 +5304,11 @@
       <c r="B115" s="6">
         <v>2500</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>8</v>
+      <c r="C115" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5338,16 +5335,16 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B116" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>99</v>
+        <v>2500</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5379,11 +5376,11 @@
       <c r="B117" s="6">
         <v>6000</v>
       </c>
-      <c r="C117" s="11" t="s">
-        <v>8</v>
+      <c r="C117" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5415,11 +5412,11 @@
       <c r="B118" s="6">
         <v>6000</v>
       </c>
-      <c r="C118" s="15" t="s">
-        <v>14</v>
+      <c r="C118" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5451,11 +5448,11 @@
       <c r="B119" s="6">
         <v>6000</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>9</v>
+      <c r="C119" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5480,18 +5477,18 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B120" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>5</v>
+        <v>6000</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5523,11 +5520,11 @@
       <c r="B121" s="6">
         <v>5400</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>141</v>
+      <c r="C121" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5559,11 +5556,11 @@
       <c r="B122" s="6">
         <v>5400</v>
       </c>
-      <c r="C122" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>143</v>
+      <c r="C122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5595,11 +5592,11 @@
       <c r="B123" s="6">
         <v>5400</v>
       </c>
-      <c r="C123" s="14" t="s">
-        <v>9</v>
+      <c r="C123" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5624,18 +5621,18 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B124" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>5</v>
+        <v>5400</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5667,11 +5664,11 @@
       <c r="B125" s="6">
         <v>1000</v>
       </c>
-      <c r="C125" s="15" t="s">
-        <v>14</v>
+      <c r="C125" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5703,11 +5700,11 @@
       <c r="B126" s="6">
         <v>1000</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>6</v>
+      <c r="C126" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5734,16 +5731,16 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B127" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5775,11 +5772,11 @@
       <c r="B128" s="6">
         <v>1900</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>8</v>
+      <c r="C128" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5811,11 +5808,11 @@
       <c r="B129" s="6">
         <v>1900</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>9</v>
+      <c r="C129" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5847,11 +5844,11 @@
       <c r="B130" s="6">
         <v>1900</v>
       </c>
-      <c r="C130" s="15" t="s">
-        <v>14</v>
+      <c r="C130" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5883,11 +5880,11 @@
       <c r="B131" s="6">
         <v>1900</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>6</v>
+      <c r="C131" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -5912,18 +5909,18 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="B132" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>5</v>
+        <v>1900</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -5955,11 +5952,11 @@
       <c r="B133" s="6">
         <v>7000</v>
       </c>
-      <c r="C133" s="11" t="s">
-        <v>8</v>
+      <c r="C133" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -5991,11 +5988,11 @@
       <c r="B134" s="6">
         <v>7000</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>173</v>
+      <c r="C134" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6027,11 +6024,11 @@
       <c r="B135" s="6">
         <v>7000</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="8">
-        <v>99999</v>
+      <c r="C135" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6056,18 +6053,18 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B136" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>175</v>
+        <v>7000</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="8">
+        <v>99999</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6099,11 +6096,11 @@
       <c r="B137" s="6">
         <v>4000</v>
       </c>
-      <c r="C137" s="14" t="s">
-        <v>9</v>
+      <c r="C137" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6135,11 +6132,11 @@
       <c r="B138" s="6">
         <v>4000</v>
       </c>
-      <c r="C138" s="15" t="s">
-        <v>14</v>
+      <c r="C138" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6166,16 +6163,16 @@
     </row>
     <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B139" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>96</v>
+        <v>4000</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6207,11 +6204,11 @@
       <c r="B140" s="6">
         <v>6500</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>5</v>
+      <c r="C140" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6243,11 +6240,11 @@
       <c r="B141" s="6">
         <v>6500</v>
       </c>
-      <c r="C141" s="11" t="s">
-        <v>8</v>
+      <c r="C141" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6279,11 +6276,11 @@
       <c r="B142" s="6">
         <v>6500</v>
       </c>
-      <c r="C142" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>112</v>
+      <c r="C142" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6315,11 +6312,11 @@
       <c r="B143" s="6">
         <v>6500</v>
       </c>
-      <c r="C143" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>113</v>
+      <c r="C143" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6351,11 +6348,11 @@
       <c r="B144" s="6">
         <v>6500</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>6</v>
+      <c r="C144" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6382,24 +6379,24 @@
     </row>
     <row r="145" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B145" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="8">
-        <v>99999</v>
+        <v>6500</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="B146" s="6">
-        <v>4400</v>
+        <v>5800</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>12</v>
@@ -6410,10 +6407,10 @@
     </row>
     <row r="147" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="B147" s="6">
-        <v>5900</v>
+        <v>4400</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>12</v>
@@ -6424,27 +6421,27 @@
     </row>
     <row r="148" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B148" s="6">
-        <v>7200</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>176</v>
+        <v>5900</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="8">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=9694765&amp;forPersonCustId=1500" xr:uid="{76314F97-D0E4-4B9C-A525-77BF8D108672}"/>
-    <hyperlink ref="D30" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{3C703413-5F16-4014-B426-6D34197A52F8}"/>
-    <hyperlink ref="D32" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{8057719F-86C6-4FB5-8841-F6ACD3AF57D2}"/>
-    <hyperlink ref="D33" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{0EBCA833-8C51-43DE-80DF-9002B5F2ED2B}"/>
-    <hyperlink ref="D34" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9F1D420A-FEFD-42B4-B52D-5003092E508B}"/>
-    <hyperlink ref="D52" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{D2BFD976-7861-4669-8708-DCDC6B1D16B4}"/>
-    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{C2C9178A-17B7-4D66-A053-9DFFE11BB741}"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=9694765&amp;forPersonCustId=1500" xr:uid="{7455E026-194A-49DA-A400-55AA8523FC09}"/>
+    <hyperlink ref="D30" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{77D3F9EE-45FC-4F82-8BE7-651B77EAEDDF}"/>
+    <hyperlink ref="D32" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{97BBF1FC-1EA2-4894-AFD3-7CC6819E2B4D}"/>
+    <hyperlink ref="D33" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{F86BF9E6-C9B9-4488-8DB0-E5E52A2511FB}"/>
+    <hyperlink ref="D34" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{3C4FBA40-1282-4A89-A630-DE932E9BBD99}"/>
+    <hyperlink ref="D52" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{47641AA3-44DA-47A9-ACA3-784D76F1A2CD}"/>
+    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{51C747C3-D132-46CF-B573-B2E263740DF6}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE31A9-BB9D-49D8-8710-560851B4A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542D777A-0988-44B8-AC23-00ED158BB03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="192">
   <si>
     <t>Customer Name</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>PROV_CA_AAfshari</t>
+  </si>
+  <si>
+    <t>Western Health Advantage</t>
+  </si>
+  <si>
+    <t>wha_jbaillie</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z148"/>
+  <dimension ref="A1:Z149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6433,15 +6439,29 @@
         <v>99999</v>
       </c>
     </row>
+    <row r="149" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B149" s="6">
+        <v>7200</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=9694765&amp;forPersonCustId=1500" xr:uid="{7455E026-194A-49DA-A400-55AA8523FC09}"/>
-    <hyperlink ref="D30" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{77D3F9EE-45FC-4F82-8BE7-651B77EAEDDF}"/>
-    <hyperlink ref="D32" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{97BBF1FC-1EA2-4894-AFD3-7CC6819E2B4D}"/>
-    <hyperlink ref="D33" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{F86BF9E6-C9B9-4488-8DB0-E5E52A2511FB}"/>
-    <hyperlink ref="D34" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{3C4FBA40-1282-4A89-A630-DE932E9BBD99}"/>
-    <hyperlink ref="D52" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{47641AA3-44DA-47A9-ACA3-784D76F1A2CD}"/>
-    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{51C747C3-D132-46CF-B573-B2E263740DF6}"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=9694765&amp;forPersonCustId=1500" xr:uid="{78F93C90-F5E6-4994-93A9-E773F683C047}"/>
+    <hyperlink ref="D30" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{CEE388AB-B290-47E1-B69C-7A4A6C2E0D07}"/>
+    <hyperlink ref="D32" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{7E82E94B-6C22-4B02-AFEA-1BC2F44C6318}"/>
+    <hyperlink ref="D33" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{CE9CE294-5CF6-42F5-986B-E47943E6D9FC}"/>
+    <hyperlink ref="D34" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{F089B761-0E96-48FA-B219-CD89A4EE2B80}"/>
+    <hyperlink ref="D52" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{94FD8B0D-B67A-4A93-A5BE-DB59E9061B14}"/>
+    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{34F049C9-E1C1-4811-8C33-82E26D8887DB}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542D777A-0988-44B8-AC23-00ED158BB03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BD3808-EA5B-42A2-91D9-C853FE8593EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="206">
   <si>
     <t>Customer Name</t>
   </si>
@@ -228,9 +228,6 @@
     <t>dhmf_abajwa</t>
   </si>
   <si>
-    <t>ProviderBMG</t>
-  </si>
-  <si>
     <t>Jhall_FCA</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>PIH_aacha</t>
   </si>
   <si>
-    <t>Pih_dchinchilla</t>
-  </si>
-  <si>
     <t>ppmsi_aaschim</t>
   </si>
   <si>
@@ -339,18 +333,9 @@
     <t>puchakraborty.cm.sequoia</t>
   </si>
   <si>
-    <t>SIH_AHuang</t>
-  </si>
-  <si>
     <t>SIH_LWilbourn</t>
   </si>
   <si>
-    <t>sequoia_office_admin</t>
-  </si>
-  <si>
-    <t>SIH_BJohnson</t>
-  </si>
-  <si>
     <t>sharp_lagbr</t>
   </si>
   <si>
@@ -402,21 +387,9 @@
     <t>Sharp Community Medical Group</t>
   </si>
   <si>
-    <t>Allcare_abueno</t>
-  </si>
-  <si>
     <t>Allcare_fbandookwala</t>
   </si>
   <si>
-    <t>altamed_abarsegyan</t>
-  </si>
-  <si>
-    <t>altamed_amacwan</t>
-  </si>
-  <si>
-    <t>abanerjee</t>
-  </si>
-  <si>
     <t>altamed_kprice</t>
   </si>
   <si>
@@ -435,18 +408,12 @@
     <t>GNP_Bwoods</t>
   </si>
   <si>
-    <t>MCMF_Jmollineda</t>
-  </si>
-  <si>
     <t>dbouyear_pracDel</t>
   </si>
   <si>
     <t>aomalley</t>
   </si>
   <si>
-    <t>SNguyen7</t>
-  </si>
-  <si>
     <t>MRTG_JMcIsaac</t>
   </si>
   <si>
@@ -601,13 +568,88 @@
   </si>
   <si>
     <t>wha_jbaillie</t>
+  </si>
+  <si>
+    <t>Allcare_abaca</t>
+  </si>
+  <si>
+    <t>AltaMed_AlUtria</t>
+  </si>
+  <si>
+    <t>altamed_aavila</t>
+  </si>
+  <si>
+    <t>AltaMed_Abigail</t>
+  </si>
+  <si>
+    <t>Bjohnson</t>
+  </si>
+  <si>
+    <t>Ofiice Admin</t>
+  </si>
+  <si>
+    <t>Adesbaillets</t>
+  </si>
+  <si>
+    <t>epic_cgibson</t>
+  </si>
+  <si>
+    <t>LaSalle Medical Associates</t>
+  </si>
+  <si>
+    <t>LSMA_SToubal</t>
+  </si>
+  <si>
+    <t>LSMA_Eaquino</t>
+  </si>
+  <si>
+    <t>adriene.przekop</t>
+  </si>
+  <si>
+    <t>EMG_sarnold</t>
+  </si>
+  <si>
+    <t>MCSHP_AdkinsDwivedi</t>
+  </si>
+  <si>
+    <t>mcshp_aamaya</t>
+  </si>
+  <si>
+    <t>SPatel4</t>
+  </si>
+  <si>
+    <t>PIH_aaldrete</t>
+  </si>
+  <si>
+    <t>SIH_TGleason</t>
+  </si>
+  <si>
+    <t>SIH_CHer</t>
+  </si>
+  <si>
+    <t>SIH_APatel</t>
+  </si>
+  <si>
+    <t>TMIPA_cteng</t>
+  </si>
+  <si>
+    <t>TMIPA_aip</t>
+  </si>
+  <si>
+    <t>Office Admin Practice and Provider Delegate</t>
+  </si>
+  <si>
+    <t>TMIPA_Apartovi</t>
+  </si>
+  <si>
+    <t>TMIPA_ctsuneishi2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -634,6 +676,11 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -809,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,9 +894,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -869,6 +913,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1186,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z149"/>
+  <dimension ref="A1:Z158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1287,7 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" s="6">
         <v>99999</v>
@@ -1281,8 +1331,8 @@
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>125</v>
+      <c r="D3" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1318,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1345,7 +1395,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B5" s="6">
         <v>1750</v>
@@ -1381,7 +1431,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B6" s="6">
         <v>2750</v>
@@ -1426,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1461,8 +1511,8 @@
       <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>128</v>
+      <c r="D8" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1494,11 +1544,11 @@
       <c r="B9" s="6">
         <v>1500</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1534,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1561,7 +1611,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B11" s="6">
         <v>2650</v>
@@ -1642,7 +1692,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1674,7 +1724,7 @@
       <c r="B14" s="6">
         <v>3700</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1705,7 +1755,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B15" s="6">
         <v>2600</v>
@@ -1777,7 +1827,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B17" s="6">
         <v>6800</v>
@@ -1858,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1890,7 +1940,7 @@
       <c r="B20" s="6">
         <v>1600</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1926,7 +1976,7 @@
       <c r="B21" s="6">
         <v>1600</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1993,7 +2043,7 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B23" s="6">
         <v>6700</v>
@@ -2029,7 +2079,7 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B24" s="6">
         <v>7100</v>
@@ -2038,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2063,18 +2113,18 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B25" s="6">
-        <v>4700</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="8">
-        <v>99999</v>
+        <v>7100</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
@@ -2099,18 +2149,18 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B26" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>5</v>
+        <v>7100</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2137,16 +2187,16 @@
     </row>
     <row r="27" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="B27" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>181</v>
+        <v>4700</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="8">
+        <v>99999</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2171,18 +2221,18 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B28" s="6">
-        <v>3200</v>
+        <v>7500</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2207,18 +2257,18 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B29" s="6">
-        <v>3200</v>
+        <v>7500</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2250,11 +2300,11 @@
       <c r="B30" s="6">
         <v>3200</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>64</v>
+      <c r="C30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2281,16 +2331,16 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="B31" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="8">
-        <v>99999</v>
+        <v>3200</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2317,16 +2367,16 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>65</v>
+        <v>3200</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2353,16 +2403,16 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="B33" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>66</v>
+        <v>2050</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="8">
+        <v>99999</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2394,11 +2444,11 @@
       <c r="B34" s="6">
         <v>3100</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>154</v>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2425,16 +2475,16 @@
     </row>
     <row r="35" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>182</v>
+        <v>3100</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2461,16 +2511,16 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>183</v>
+        <v>3100</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2502,11 +2552,11 @@
       <c r="B37" s="6">
         <v>1700</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>67</v>
+      <c r="C37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2533,16 +2583,16 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>1700</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2569,16 +2619,16 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>155</v>
+        <v>1700</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2610,11 +2660,11 @@
       <c r="B40" s="6">
         <v>2900</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>14</v>
+      <c r="C40" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2646,11 +2696,11 @@
       <c r="B41" s="6">
         <v>2900</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>6</v>
+      <c r="C41" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2677,16 +2727,16 @@
     </row>
     <row r="42" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B42" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>5</v>
+        <v>2900</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2713,16 +2763,16 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B43" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>8</v>
+        <v>2900</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2754,11 +2804,11 @@
       <c r="B44" s="6">
         <v>1800</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>14</v>
+      <c r="C44" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2790,11 +2840,11 @@
       <c r="B45" s="6">
         <v>1800</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>6</v>
+      <c r="C45" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2821,16 +2871,16 @@
     </row>
     <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="6">
-        <v>4300</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>185</v>
+        <v>1800</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2857,16 +2907,16 @@
     </row>
     <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>72</v>
+        <v>1800</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2893,16 +2943,16 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>131</v>
+        <v>4300</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2934,11 +2984,11 @@
       <c r="B49" s="6">
         <v>3000</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>132</v>
+      <c r="C49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2970,11 +3020,11 @@
       <c r="B50" s="6">
         <v>3000</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>133</v>
+      <c r="C50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3006,11 +3056,11 @@
       <c r="B51" s="6">
         <v>3000</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>6</v>
+      <c r="C51" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3037,16 +3087,16 @@
     </row>
     <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>73</v>
+        <v>3000</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3073,16 +3123,16 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>74</v>
+        <v>3000</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3114,11 +3164,11 @@
       <c r="B54" s="6">
         <v>3500</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>75</v>
+      <c r="C54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3145,16 +3195,16 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="6">
-        <v>200</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3181,16 +3231,16 @@
     </row>
     <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="B56" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>187</v>
+        <v>3500</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3217,10 +3267,10 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" s="6">
-        <v>3600</v>
+        <v>200</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>12</v>
@@ -3253,16 +3303,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="B58" s="6">
-        <v>4600</v>
+        <v>2350</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>76</v>
+      <c r="D58" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3289,16 +3339,16 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>77</v>
+        <v>3600</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="8">
+        <v>99999</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3325,16 +3375,16 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="B60" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>9</v>
+        <v>2650</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3361,16 +3411,16 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="B61" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>6</v>
+        <v>2650</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3397,16 +3447,16 @@
     </row>
     <row r="62" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" s="6">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3433,16 +3483,16 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" s="6">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3469,16 +3519,16 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="6">
-        <v>150</v>
-      </c>
-      <c r="C64" s="14" t="s">
+        <v>4600</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3505,16 +3555,16 @@
     </row>
     <row r="65" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" s="6">
-        <v>150</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>14</v>
+        <v>4600</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3546,11 +3596,11 @@
       <c r="B66" s="6">
         <v>150</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>6</v>
+      <c r="C66" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3575,18 +3625,18 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="B67" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="8">
-        <v>99999</v>
+        <v>150</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3613,16 +3663,16 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B68" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>177</v>
+        <v>150</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3649,16 +3699,16 @@
     </row>
     <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C69" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3685,16 +3735,16 @@
     </row>
     <row r="70" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="B70" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="8">
-        <v>99999</v>
+        <v>150</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3719,18 +3769,18 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="B71" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="8">
-        <v>99999</v>
+        <v>5700</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3755,18 +3805,18 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="B72" s="6">
-        <v>2100</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="8">
-        <v>99999</v>
+        <v>5700</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3793,16 +3843,16 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="B73" s="6">
-        <v>5600</v>
+        <v>2700</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>116</v>
+      <c r="D73" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3829,16 +3879,16 @@
     </row>
     <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="B74" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>8</v>
+        <v>2700</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3865,16 +3915,16 @@
     </row>
     <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="B75" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>79</v>
+        <v>1950</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="8">
+        <v>99999</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3901,16 +3951,16 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B76" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>80</v>
+        <v>2000</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="8">
+        <v>99999</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3937,16 +3987,16 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>81</v>
+        <v>2100</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="8">
+        <v>99999</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3973,16 +4023,16 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B78" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>6</v>
+        <v>5600</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4009,16 +4059,16 @@
     </row>
     <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B79" s="6">
-        <v>3300</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="8">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4045,16 +4095,16 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B80" s="6">
-        <v>4500</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4081,16 +4131,16 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B81" s="6">
-        <v>5100</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4117,16 +4167,16 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B82" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4151,18 +4201,18 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="B83" s="6">
-        <v>2800</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4187,12 +4237,12 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="B84" s="6">
-        <v>1550</v>
+        <v>3300</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>12</v>
@@ -4223,12 +4273,12 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="B85" s="6">
-        <v>6600</v>
+        <v>4500</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>12</v>
@@ -4259,12 +4309,12 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B86" s="6">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>12</v>
@@ -4295,12 +4345,12 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B87" s="6">
-        <v>4800</v>
+        <v>7400</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>12</v>
@@ -4333,10 +4383,10 @@
     </row>
     <row r="88" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="B88" s="6">
-        <v>5300</v>
+        <v>2800</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>12</v>
@@ -4369,10 +4419,10 @@
     </row>
     <row r="89" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B89" s="6">
-        <v>4900</v>
+        <v>1550</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>12</v>
@@ -4403,12 +4453,12 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="B90" s="6">
-        <v>4100</v>
+        <v>6600</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>12</v>
@@ -4439,12 +4489,12 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B91" s="6">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>12</v>
@@ -4477,10 +4527,10 @@
     </row>
     <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="B92" s="6">
-        <v>2450</v>
+        <v>4800</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
@@ -4511,12 +4561,12 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B93" s="6">
-        <v>1650</v>
+        <v>5300</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
@@ -4547,12 +4597,12 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B94" s="6">
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
@@ -4585,16 +4635,16 @@
     </row>
     <row r="95" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B95" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>83</v>
+        <v>4100</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="8">
+        <v>99999</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4621,16 +4671,16 @@
     </row>
     <row r="96" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B96" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>162</v>
+        <v>5000</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="8">
+        <v>99999</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4655,18 +4705,18 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B97" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>84</v>
+        <v>2450</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="8">
+        <v>99999</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -4693,16 +4743,16 @@
     </row>
     <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="B98" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>85</v>
+        <v>1650</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="8">
+        <v>99999</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -4729,16 +4779,16 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B99" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>86</v>
+        <v>3400</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="8">
+        <v>99999</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4765,16 +4815,16 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B100" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>9</v>
+        <v>1200</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -4801,16 +4851,16 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B101" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>14</v>
+        <v>1200</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -4837,16 +4887,16 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B102" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>6</v>
+        <v>1200</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4873,16 +4923,16 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B103" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -4909,16 +4959,16 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B104" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>14</v>
+        <v>1200</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4945,16 +4995,16 @@
     </row>
     <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B105" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>6</v>
+        <v>3900</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -4981,16 +5031,16 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B106" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>5</v>
+        <v>3900</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5017,16 +5067,16 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B107" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>8</v>
+        <v>3900</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5053,16 +5103,16 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B108" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>9</v>
+        <v>3900</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5089,16 +5139,16 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>14</v>
+        <v>3800</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5125,16 +5175,16 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>6</v>
+        <v>3800</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5161,16 +5211,16 @@
     </row>
     <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="B111" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>5</v>
+        <v>3800</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5197,16 +5247,16 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="B112" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5233,16 +5283,16 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="B113" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>189</v>
+        <v>1300</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5269,16 +5319,16 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B114" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>96</v>
+        <v>1300</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5305,16 +5355,16 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>97</v>
+        <v>1300</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5341,16 +5391,16 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B116" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>98</v>
+        <v>1300</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5377,16 +5427,16 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B117" s="6">
-        <v>6000</v>
+        <v>1850</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5413,16 +5463,16 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B118" s="6">
-        <v>6000</v>
+        <v>1850</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5449,16 +5499,16 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B119" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C119" s="15" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>100</v>
+      <c r="D119" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5485,16 +5535,16 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B120" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>168</v>
+        <v>2500</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5519,18 +5569,18 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B121" s="6">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>142</v>
+      <c r="D121" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5555,18 +5605,18 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B122" s="6">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>141</v>
+      <c r="D122" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5591,18 +5641,18 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B123" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>14</v>
+        <v>6000</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5627,18 +5677,18 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B124" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>9</v>
+        <v>6000</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5665,16 +5715,16 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B125" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>5</v>
+        <v>6000</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5701,16 +5751,16 @@
     </row>
     <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B126" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>14</v>
+        <v>6000</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5735,18 +5785,18 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B127" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>6</v>
+        <v>5400</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5771,18 +5821,18 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B128" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>103</v>
+        <v>5400</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5807,18 +5857,18 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B129" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>8</v>
+        <v>5400</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5843,18 +5893,18 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B130" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C130" s="14" t="s">
+        <v>5400</v>
+      </c>
+      <c r="C130" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5881,16 +5931,16 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B131" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>14</v>
+        <v>1000</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -5917,16 +5967,16 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B132" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>6</v>
+        <v>1000</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -5951,18 +6001,18 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B133" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -5987,18 +6037,18 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="B134" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>8</v>
+        <v>1900</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6023,18 +6073,18 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="B135" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>172</v>
+        <v>1900</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6059,18 +6109,18 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="B136" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="8">
-        <v>99999</v>
+        <v>1900</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6097,16 +6147,16 @@
     </row>
     <row r="137" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B137" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>5</v>
+        <v>1900</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6133,16 +6183,16 @@
     </row>
     <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B138" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>9</v>
+        <v>1900</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6167,18 +6217,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B139" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>14</v>
+        <v>7000</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6203,18 +6253,18 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B140" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>96</v>
+        <v>7000</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6239,18 +6289,18 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B141" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>110</v>
+        <v>7000</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6275,18 +6325,18 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B142" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>111</v>
+        <v>7000</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="8">
+        <v>99999</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6313,16 +6363,16 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B143" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>9</v>
+        <v>4000</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6349,16 +6399,16 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B144" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>113</v>
+        <v>4000</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6385,86 +6435,213 @@
     </row>
     <row r="145" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B145" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>145</v>
+        <v>4000</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B146" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="8">
-        <v>99999</v>
+        <v>6500</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B147" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="8">
-        <v>99999</v>
+        <v>6500</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B148" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="8">
-        <v>99999</v>
+        <v>6500</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="B149" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" s="6">
+        <v>5800</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B153" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B157" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" s="6">
         <v>7200</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C158" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D149" s="12" t="s">
-        <v>191</v>
+      <c r="D158" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=9694765&amp;forPersonCustId=1500" xr:uid="{78F93C90-F5E6-4994-93A9-E773F683C047}"/>
-    <hyperlink ref="D30" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{CEE388AB-B290-47E1-B69C-7A4A6C2E0D07}"/>
-    <hyperlink ref="D32" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{7E82E94B-6C22-4B02-AFEA-1BC2F44C6318}"/>
-    <hyperlink ref="D33" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{CE9CE294-5CF6-42F5-986B-E47943E6D9FC}"/>
-    <hyperlink ref="D34" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{F089B761-0E96-48FA-B219-CD89A4EE2B80}"/>
-    <hyperlink ref="D52" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{94FD8B0D-B67A-4A93-A5BE-DB59E9061B14}"/>
-    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{34F049C9-E1C1-4811-8C33-82E26D8887DB}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{3AA17D9F-0394-418F-8F81-415D653930D8}"/>
+    <hyperlink ref="D32" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{A1D049BC-03E8-42C1-966A-600E87E092A6}"/>
+    <hyperlink ref="D34" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{0BF47B9A-FA31-499C-A6E2-0564CAA08A51}"/>
+    <hyperlink ref="D35" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{7857E010-19F1-4D55-AAB5-C49682C31352}"/>
+    <hyperlink ref="D36" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{54B827EF-006E-4E2B-9D9F-755C0612BAEB}"/>
+    <hyperlink ref="D39" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=60458157&amp;forPersonCustId=1700" xr:uid="{24CDD955-5A01-4675-835E-7821BD74DDAA}"/>
+    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{E02C5E5F-1A97-4F6C-8E04-C7C1467BC8D9}"/>
+    <hyperlink ref="D56" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{36BA325E-B5F4-4546-ADDC-DEA213851D23}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BD3808-EA5B-42A2-91D9-C853FE8593EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687DB96-F681-4217-B884-06400A9423C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:Z158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687DB96-F681-4217-B884-06400A9423C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D27D5E-FB44-408B-A66E-16088F5406D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="212">
   <si>
     <t>Customer Name</t>
   </si>
@@ -643,6 +643,24 @@
   </si>
   <si>
     <t>TMIPA_ctsuneishi2</t>
+  </si>
+  <si>
+    <t>Optum Care Network Wisconsin</t>
+  </si>
+  <si>
+    <t>Preferred IPA</t>
+  </si>
+  <si>
+    <t>preipa_cgrasu</t>
+  </si>
+  <si>
+    <t>USRC_anna.giang</t>
+  </si>
+  <si>
+    <t>TM_mrendle</t>
+  </si>
+  <si>
+    <t>PPG_hbollen</t>
   </si>
 </sst>
 </file>
@@ -856,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -919,6 +937,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z158"/>
+  <dimension ref="A1:Z162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4633,12 +4663,12 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="B95" s="6">
-        <v>4100</v>
+        <v>2950</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
@@ -4671,10 +4701,10 @@
     </row>
     <row r="96" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B96" s="6">
-        <v>5000</v>
+        <v>4100</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>12</v>
@@ -4705,12 +4735,12 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="B97" s="6">
-        <v>2450</v>
+        <v>5000</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
@@ -4741,12 +4771,12 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B98" s="6">
-        <v>1650</v>
+        <v>2450</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>12</v>
@@ -4779,10 +4809,10 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B99" s="6">
-        <v>3400</v>
+        <v>1650</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
@@ -4815,16 +4845,16 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B100" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>82</v>
+        <v>3400</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="8">
+        <v>99999</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -4856,11 +4886,11 @@
       <c r="B101" s="6">
         <v>1200</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>5</v>
+      <c r="C101" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -4892,11 +4922,11 @@
       <c r="B102" s="6">
         <v>1200</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>8</v>
+      <c r="C102" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4928,11 +4958,11 @@
       <c r="B103" s="6">
         <v>1200</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>6</v>
+      <c r="C103" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -4964,11 +4994,11 @@
       <c r="B104" s="6">
         <v>1200</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>161</v>
+      <c r="C104" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4995,16 +5025,16 @@
     </row>
     <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B105" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5036,11 +5066,11 @@
       <c r="B106" s="6">
         <v>3900</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>9</v>
+      <c r="C106" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5072,11 +5102,11 @@
       <c r="B107" s="6">
         <v>3900</v>
       </c>
-      <c r="C107" s="14" t="s">
-        <v>14</v>
+      <c r="C107" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5108,11 +5138,11 @@
       <c r="B108" s="6">
         <v>3900</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>6</v>
+      <c r="C108" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5139,16 +5169,16 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B109" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>5</v>
+        <v>3900</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5175,16 +5205,16 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="B110" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>14</v>
+        <v>2550</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5216,11 +5246,11 @@
       <c r="B111" s="6">
         <v>3800</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>6</v>
+      <c r="C111" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5247,16 +5277,16 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B112" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>5</v>
+        <v>3800</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5283,16 +5313,16 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>8</v>
+        <v>3800</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5324,11 +5354,11 @@
       <c r="B114" s="6">
         <v>1300</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>9</v>
+      <c r="C114" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5360,11 +5390,11 @@
       <c r="B115" s="6">
         <v>1300</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>14</v>
+      <c r="C115" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5396,11 +5426,11 @@
       <c r="B116" s="6">
         <v>1300</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>6</v>
+      <c r="C116" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5427,16 +5457,16 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B117" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5463,16 +5493,16 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B118" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5504,11 +5534,11 @@
       <c r="B119" s="6">
         <v>1850</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>178</v>
+      <c r="C119" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5535,16 +5565,16 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B120" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>94</v>
+        <v>1850</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5571,16 +5601,16 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B121" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>5</v>
+        <v>1850</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5612,11 +5642,11 @@
       <c r="B122" s="6">
         <v>2500</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>8</v>
+      <c r="C122" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5643,16 +5673,16 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B123" s="6">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>97</v>
+      <c r="D123" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5679,16 +5709,16 @@
     </row>
     <row r="124" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B124" s="6">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>156</v>
+      <c r="D124" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5720,11 +5750,11 @@
       <c r="B125" s="6">
         <v>6000</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>14</v>
+      <c r="C125" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5756,11 +5786,11 @@
       <c r="B126" s="6">
         <v>6000</v>
       </c>
-      <c r="C126" s="13" t="s">
-        <v>9</v>
+      <c r="C126" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5785,18 +5815,18 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B127" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>5</v>
+        <v>6000</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5821,18 +5851,18 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B128" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>130</v>
+        <v>6000</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5864,11 +5894,11 @@
       <c r="B129" s="6">
         <v>5400</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>14</v>
+      <c r="C129" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5900,11 +5930,11 @@
       <c r="B130" s="6">
         <v>5400</v>
       </c>
-      <c r="C130" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>158</v>
+      <c r="C130" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5929,18 +5959,18 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B131" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>5</v>
+        <v>5400</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -5965,18 +5995,18 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B132" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>14</v>
+        <v>5400</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6008,11 +6038,11 @@
       <c r="B133" s="6">
         <v>1000</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>6</v>
+      <c r="C133" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6039,16 +6069,16 @@
     </row>
     <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B134" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6075,16 +6105,16 @@
     </row>
     <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B135" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>8</v>
+        <v>1000</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6116,11 +6146,11 @@
       <c r="B136" s="6">
         <v>1900</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>9</v>
+      <c r="C136" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6152,11 +6182,11 @@
       <c r="B137" s="6">
         <v>1900</v>
       </c>
-      <c r="C137" s="14" t="s">
-        <v>14</v>
+      <c r="C137" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6188,11 +6218,11 @@
       <c r="B138" s="6">
         <v>1900</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>6</v>
+      <c r="C138" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6217,18 +6247,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="B139" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>5</v>
+        <v>1900</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6253,18 +6283,18 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="B140" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>8</v>
+        <v>1900</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6296,11 +6326,11 @@
       <c r="B141" s="6">
         <v>7000</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>161</v>
+      <c r="C141" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6332,11 +6362,11 @@
       <c r="B142" s="6">
         <v>7000</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="8">
-        <v>99999</v>
+      <c r="C142" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6361,18 +6391,18 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B143" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>5</v>
+        <v>7000</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6397,18 +6427,18 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B144" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>103</v>
+        <v>7000</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="8">
+        <v>99999</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6433,199 +6463,365 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B145" s="6">
         <v>4000</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+    </row>
+    <row r="146" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B146" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+    </row>
+    <row r="147" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C147" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B146" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B147" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B148" s="6">
         <v>6500</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>8</v>
+      <c r="C148" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B149" s="6">
         <v>6500</v>
       </c>
-      <c r="C149" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C149" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B150" s="6">
         <v>6500</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>14</v>
+      <c r="C150" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B151" s="6">
         <v>6500</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="12" t="s">
+      <c r="D153" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
+    <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B154" s="6">
         <v>5800</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D154" s="8">
         <v>99999</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B153" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B154" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B155" s="6">
         <v>4400</v>
       </c>
-      <c r="C155" s="14" t="s">
-        <v>203</v>
+      <c r="C155" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B156" s="6">
         <v>4400</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B158" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
+    <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B159" s="23">
         <v>5900</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="8">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
+      <c r="C159" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
+    </row>
+    <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B160" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
+      <c r="Z160" s="1"/>
+    </row>
+    <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B161" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+      <c r="Y161" s="1"/>
+      <c r="Z161" s="1"/>
+    </row>
+    <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B162" s="6">
         <v>7200</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C162" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D162" s="12" t="s">
         <v>180</v>
       </c>
     </row>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D27D5E-FB44-408B-A66E-16088F5406D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B835CD1-232D-46BD-B3FD-8DC1195CA47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -609,9 +609,6 @@
     <t>EMG_sarnold</t>
   </si>
   <si>
-    <t>MCSHP_AdkinsDwivedi</t>
-  </si>
-  <si>
     <t>mcshp_aamaya</t>
   </si>
   <si>
@@ -661,13 +658,16 @@
   </si>
   <si>
     <t>PPG_hbollen</t>
+  </si>
+  <si>
+    <t>MCSHP_sjenkins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -701,6 +701,11 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="12">
@@ -771,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -869,12 +874,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -949,6 +969,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1268,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2673,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
@@ -2755,7 +2781,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>19</v>
       </c>
@@ -2899,7 +2925,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>22</v>
       </c>
@@ -3079,7 +3105,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>24</v>
       </c>
@@ -3115,7 +3141,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>24</v>
       </c>
@@ -3259,7 +3285,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>25</v>
       </c>
@@ -3547,7 +3573,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>28</v>
       </c>
@@ -3691,7 +3717,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -3727,7 +3753,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -3809,8 +3835,8 @@
       <c r="C71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>194</v>
+      <c r="D71" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3845,8 +3871,8 @@
       <c r="C72" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>195</v>
+      <c r="D72" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3907,7 +3933,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>30</v>
       </c>
@@ -4195,7 +4221,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>33</v>
       </c>
@@ -4665,7 +4691,7 @@
     </row>
     <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95" s="6">
         <v>2950</v>
@@ -4699,7 +4725,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>40</v>
       </c>
@@ -4998,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5034,7 +5060,7 @@
         <v>161</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5095,7 +5121,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>46</v>
       </c>
@@ -5131,7 +5157,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>46</v>
       </c>
@@ -5205,7 +5231,7 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B110" s="6">
         <v>2550</v>
@@ -5214,7 +5240,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5275,7 +5301,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>47</v>
       </c>
@@ -5419,7 +5445,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>48</v>
       </c>
@@ -5455,7 +5481,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>48</v>
       </c>
@@ -5599,7 +5625,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>154</v>
       </c>
@@ -5815,7 +5841,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>50</v>
       </c>
@@ -5851,7 +5877,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>50</v>
       </c>
@@ -6067,7 +6093,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>51</v>
       </c>
@@ -6186,7 +6212,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6211,7 +6237,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>52</v>
       </c>
@@ -6247,7 +6273,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>52</v>
       </c>
@@ -6258,7 +6284,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6294,7 +6320,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6499,7 +6525,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>53</v>
       </c>
@@ -6535,7 +6561,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>53</v>
       </c>
@@ -6591,7 +6617,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>54</v>
       </c>
@@ -6605,7 +6631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>54</v>
       </c>
@@ -6658,7 +6684,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6672,7 +6698,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
@@ -6683,10 +6709,10 @@
         <v>4400</v>
       </c>
       <c r="C157" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D157" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6700,7 +6726,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6714,7 +6740,7 @@
         <v>5</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -6750,7 +6776,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6775,7 +6801,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>115</v>
       </c>
@@ -6786,7 +6812,7 @@
         <v>14</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B835CD1-232D-46BD-B3FD-8DC1195CA47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE9F7F5-42BA-43D8-B7F3-602B9BF51C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t>Baodanh</t>
   </si>
   <si>
-    <t>PMS_20A5106</t>
-  </si>
-  <si>
     <t>PROV_areyes</t>
   </si>
   <si>
@@ -661,6 +658,9 @@
   </si>
   <si>
     <t>MCSHP_sjenkins</t>
+  </si>
+  <si>
+    <t>PMS_Tromano</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -874,27 +874,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -959,22 +944,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,13 +1270,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="1" max="1" width="47.26953125" customWidth="1"/>
     <col min="3" max="3" width="26.36328125" customWidth="1"/>
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
@@ -1343,7 +1319,7 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="6">
         <v>99999</v>
@@ -1388,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1424,7 +1400,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1451,7 +1427,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="6">
         <v>1750</v>
@@ -1487,7 +1463,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="6">
         <v>2750</v>
@@ -1532,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1568,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1604,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1640,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1667,7 +1643,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="6">
         <v>2650</v>
@@ -1748,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1811,7 +1787,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="6">
         <v>2600</v>
@@ -1883,7 +1859,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="6">
         <v>6800</v>
@@ -1964,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2099,7 +2075,7 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="6">
         <v>6700</v>
@@ -2135,7 +2111,7 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="6">
         <v>7100</v>
@@ -2144,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2171,7 +2147,7 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="6">
         <v>7100</v>
@@ -2180,7 +2156,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
@@ -2207,16 +2183,16 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="6">
         <v>7100</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2241,7 +2217,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -2277,9 +2253,9 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="6">
         <v>7500</v>
@@ -2288,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2313,9 +2289,9 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="6">
         <v>7500</v>
@@ -2324,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2459,7 +2435,7 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="6">
         <v>2050</v>
@@ -2576,7 +2552,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2612,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2648,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2673,7 +2649,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
@@ -2684,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2756,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2781,7 +2757,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>19</v>
       </c>
@@ -2792,7 +2768,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2925,7 +2901,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>22</v>
       </c>
@@ -3008,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3080,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3105,7 +3081,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>24</v>
       </c>
@@ -3116,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3141,7 +3117,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>24</v>
       </c>
@@ -3152,7 +3128,7 @@
         <v>14</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3188,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3285,7 +3261,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>25</v>
       </c>
@@ -3359,7 +3335,7 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B58" s="6">
         <v>2350</v>
@@ -3368,7 +3344,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3431,7 +3407,7 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B60" s="6">
         <v>2650</v>
@@ -3440,7 +3416,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3467,7 +3443,7 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B61" s="6">
         <v>2650</v>
@@ -3476,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3501,7 +3477,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>28</v>
       </c>
@@ -3573,7 +3549,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>28</v>
       </c>
@@ -3620,7 +3596,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3656,7 +3632,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3692,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3717,7 +3693,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>29</v>
       </c>
@@ -3728,7 +3704,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3753,7 +3729,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>29</v>
       </c>
@@ -3764,7 +3740,7 @@
         <v>14</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3800,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3825,9 +3801,9 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="6">
         <v>5700</v>
@@ -3835,8 +3811,8 @@
       <c r="C71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>211</v>
+      <c r="D71" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3861,18 +3837,18 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="6">
         <v>5700</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>194</v>
+        <v>160</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3908,7 +3884,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3933,7 +3909,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>30</v>
       </c>
@@ -3944,7 +3920,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3971,7 +3947,7 @@
     </row>
     <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" s="6">
         <v>1950</v>
@@ -4079,7 +4055,7 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" s="6">
         <v>5600</v>
@@ -4088,7 +4064,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4115,7 +4091,7 @@
     </row>
     <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" s="6">
         <v>5600</v>
@@ -4124,7 +4100,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4221,7 +4197,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>33</v>
       </c>
@@ -4437,9 +4413,9 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" s="6">
         <v>2800</v>
@@ -4473,9 +4449,9 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B89" s="6">
         <v>1550</v>
@@ -4509,9 +4485,9 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" s="6">
         <v>6600</v>
@@ -4545,7 +4521,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>37</v>
       </c>
@@ -4581,7 +4557,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>38</v>
       </c>
@@ -4617,9 +4593,9 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="6">
         <v>5300</v>
@@ -4653,7 +4629,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>39</v>
       </c>
@@ -4689,9 +4665,9 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" s="6">
         <v>2950</v>
@@ -4699,7 +4675,7 @@
       <c r="C95" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="23">
         <v>99999</v>
       </c>
       <c r="E95" s="1"/>
@@ -4725,7 +4701,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>40</v>
       </c>
@@ -4797,9 +4773,9 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B98" s="6">
         <v>2450</v>
@@ -4835,7 +4811,7 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" s="6">
         <v>1650</v>
@@ -4952,7 +4928,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -5024,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5057,10 +5033,10 @@
         <v>1200</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5121,7 +5097,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>46</v>
       </c>
@@ -5157,7 +5133,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>46</v>
       </c>
@@ -5230,8 +5206,8 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>206</v>
+      <c r="A110" s="24" t="s">
+        <v>205</v>
       </c>
       <c r="B110" s="6">
         <v>2550</v>
@@ -5239,8 +5215,8 @@
       <c r="C110" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>207</v>
+      <c r="D110" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5301,7 +5277,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>47</v>
       </c>
@@ -5312,7 +5288,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5348,7 +5324,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5445,7 +5421,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>48</v>
       </c>
@@ -5481,7 +5457,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>48</v>
       </c>
@@ -5528,7 +5504,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5555,7 +5531,7 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="6">
         <v>1850</v>
@@ -5564,7 +5540,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5591,7 +5567,7 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120" s="6">
         <v>1850</v>
@@ -5600,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5625,9 +5601,9 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B121" s="6">
         <v>1850</v>
@@ -5636,7 +5612,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5672,7 +5648,7 @@
         <v>45</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5708,7 +5684,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5744,7 +5720,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5780,7 +5756,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5816,7 +5792,7 @@
         <v>8</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5841,7 +5817,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>50</v>
       </c>
@@ -5852,7 +5828,7 @@
         <v>14</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5877,7 +5853,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>50</v>
       </c>
@@ -5888,7 +5864,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5913,9 +5889,9 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B129" s="6">
         <v>5400</v>
@@ -5924,7 +5900,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5949,9 +5925,9 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B130" s="6">
         <v>5400</v>
@@ -5960,7 +5936,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5985,9 +5961,9 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B131" s="6">
         <v>5400</v>
@@ -5996,7 +5972,7 @@
         <v>14</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6021,9 +5997,9 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B132" s="6">
         <v>5400</v>
@@ -6032,7 +6008,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6068,7 +6044,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6093,7 +6069,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>51</v>
       </c>
@@ -6104,7 +6080,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6140,7 +6116,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6176,7 +6152,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6212,7 +6188,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6237,7 +6213,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>52</v>
       </c>
@@ -6248,7 +6224,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6273,7 +6249,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>52</v>
       </c>
@@ -6284,7 +6260,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6320,7 +6296,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6345,9 +6321,9 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B141" s="6">
         <v>7000</v>
@@ -6356,7 +6332,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6381,9 +6357,9 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B142" s="6">
         <v>7000</v>
@@ -6392,7 +6368,7 @@
         <v>8</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6417,18 +6393,18 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B143" s="6">
         <v>7000</v>
       </c>
       <c r="C143" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6453,9 +6429,9 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B144" s="6">
         <v>7000</v>
@@ -6500,7 +6476,7 @@
         <v>5</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6525,7 +6501,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>53</v>
       </c>
@@ -6536,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6561,7 +6537,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>53</v>
       </c>
@@ -6572,7 +6548,7 @@
         <v>14</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6586,7 +6562,7 @@
         <v>45</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6600,7 +6576,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6614,10 +6590,10 @@
         <v>8</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>54</v>
       </c>
@@ -6628,10 +6604,10 @@
         <v>9</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="152" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>54</v>
       </c>
@@ -6642,7 +6618,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6656,12 +6632,12 @@
         <v>6</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B154" s="6">
         <v>5800</v>
@@ -6684,7 +6660,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6698,7 +6674,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
@@ -6709,10 +6685,10 @@
         <v>4400</v>
       </c>
       <c r="C157" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6726,21 +6702,21 @@
         <v>6</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B159" s="23">
+      <c r="A159" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159" s="6">
         <v>5900</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C159" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D159" s="25" t="s">
-        <v>208</v>
+      <c r="D159" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -6767,7 +6743,7 @@
     </row>
     <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B160" s="6">
         <v>5900</v>
@@ -6776,7 +6752,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6801,9 +6777,9 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B161" s="6">
         <v>5900</v>
@@ -6812,7 +6788,7 @@
         <v>14</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6839,7 +6815,7 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B162" s="6">
         <v>7200</v>
@@ -6848,19 +6824,19 @@
         <v>5</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{3AA17D9F-0394-418F-8F81-415D653930D8}"/>
-    <hyperlink ref="D32" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{A1D049BC-03E8-42C1-966A-600E87E092A6}"/>
-    <hyperlink ref="D34" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{0BF47B9A-FA31-499C-A6E2-0564CAA08A51}"/>
-    <hyperlink ref="D35" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{7857E010-19F1-4D55-AAB5-C49682C31352}"/>
-    <hyperlink ref="D36" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{54B827EF-006E-4E2B-9D9F-755C0612BAEB}"/>
-    <hyperlink ref="D39" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=60458157&amp;forPersonCustId=1700" xr:uid="{24CDD955-5A01-4675-835E-7821BD74DDAA}"/>
-    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{E02C5E5F-1A97-4F6C-8E04-C7C1467BC8D9}"/>
-    <hyperlink ref="D56" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{36BA325E-B5F4-4546-ADDC-DEA213851D23}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{7CAB7DDD-AEFA-4A58-9ECC-8ADC721BE699}"/>
+    <hyperlink ref="D32" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{086EBA42-004A-4582-A470-F9D44E15A3ED}"/>
+    <hyperlink ref="D34" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{522DC271-25D7-4EB5-A8A9-9DE44C16B321}"/>
+    <hyperlink ref="D35" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{E1B182F7-587E-4534-A2A3-CF13FDBB23C9}"/>
+    <hyperlink ref="D36" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{3C779974-65EC-4E7C-ABB7-F58C3D9AC2C6}"/>
+    <hyperlink ref="D39" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=60458157&amp;forPersonCustId=1700" xr:uid="{7312158F-4DED-421C-AC87-28BE09761719}"/>
+    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{4090A234-AFBD-4BAA-B4A6-F4EE269F923D}"/>
+    <hyperlink ref="D56" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{8BDA6A68-C2B8-49FA-BD9D-5409437CA3B0}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE9F7F5-42BA-43D8-B7F3-602B9BF51C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473D6C0A-222F-4C0C-AAA0-1FD91952BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="213">
   <si>
     <t>Customer Name</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>PMS_Tromano</t>
+  </si>
+  <si>
+    <t>Anthem CA</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z162"/>
+  <dimension ref="A1:Z163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1787,10 +1790,10 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="B15" s="6">
-        <v>2600</v>
+        <v>3750</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>12</v>
@@ -1823,10 +1826,10 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B16" s="6">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
@@ -1859,10 +1862,10 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>12</v>
@@ -1895,16 +1898,16 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B18" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>58</v>
+        <v>6800</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>99999</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1936,11 +1939,11 @@
       <c r="B19" s="6">
         <v>1600</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>8</v>
+      <c r="C19" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1972,11 +1975,11 @@
       <c r="B20" s="6">
         <v>1600</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>9</v>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2008,11 +2011,11 @@
       <c r="B21" s="6">
         <v>1600</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>14</v>
+      <c r="C21" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2044,11 +2047,11 @@
       <c r="B22" s="6">
         <v>1600</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>6</v>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2075,16 +2078,16 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>6700</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8">
-        <v>99999</v>
+        <v>1600</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2111,16 +2114,16 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B24" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>135</v>
+        <v>6700</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8">
+        <v>99999</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2152,14 +2155,14 @@
       <c r="B25" s="6">
         <v>7100</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>8</v>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2188,14 +2191,14 @@
       <c r="B26" s="6">
         <v>7100</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>185</v>
+      <c r="C26" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2219,16 +2222,16 @@
     </row>
     <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="B27" s="6">
-        <v>4700</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8">
-        <v>99999</v>
+        <v>7100</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2255,16 +2258,16 @@
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="B28" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>164</v>
+        <v>4700</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8">
+        <v>99999</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2296,11 +2299,11 @@
       <c r="B29" s="6">
         <v>7500</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>8</v>
+      <c r="C29" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2327,16 +2330,16 @@
     </row>
     <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="B30" s="6">
-        <v>3200</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>5</v>
+        <v>7500</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2368,11 +2371,11 @@
       <c r="B31" s="6">
         <v>3200</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>8</v>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2404,11 +2407,11 @@
       <c r="B32" s="6">
         <v>3200</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>64</v>
+      <c r="C32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2435,16 +2438,16 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="B33" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8">
-        <v>99999</v>
+        <v>3200</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2471,16 +2474,16 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="B34" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>65</v>
+        <v>2050</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8">
+        <v>99999</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2512,11 +2515,11 @@
       <c r="B35" s="6">
         <v>3100</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>8</v>
+      <c r="C35" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2548,11 +2551,11 @@
       <c r="B36" s="6">
         <v>3100</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>14</v>
+      <c r="C36" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2579,16 +2582,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>170</v>
+        <v>3100</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2620,11 +2623,11 @@
       <c r="B38" s="6">
         <v>1700</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>8</v>
+      <c r="C38" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2656,11 +2659,11 @@
       <c r="B39" s="6">
         <v>1700</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>187</v>
+      <c r="C39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2687,16 +2690,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>1700</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2728,11 +2731,11 @@
       <c r="B41" s="6">
         <v>2900</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>8</v>
+      <c r="C41" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2764,11 +2767,11 @@
       <c r="B42" s="6">
         <v>2900</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>14</v>
+      <c r="C42" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2800,11 +2803,11 @@
       <c r="B43" s="6">
         <v>2900</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>6</v>
+      <c r="C43" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2831,16 +2834,16 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B44" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>5</v>
+        <v>2900</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2872,11 +2875,11 @@
       <c r="B45" s="6">
         <v>1800</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>8</v>
+      <c r="C45" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2908,11 +2911,11 @@
       <c r="B46" s="6">
         <v>1800</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>14</v>
+      <c r="C46" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2944,11 +2947,11 @@
       <c r="B47" s="6">
         <v>1800</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>6</v>
+      <c r="C47" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2975,16 +2978,16 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="6">
-        <v>4300</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>173</v>
+        <v>1800</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3011,16 +3014,16 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="6">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>71</v>
+      <c r="D49" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3052,11 +3055,11 @@
       <c r="B50" s="6">
         <v>3000</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>121</v>
+      <c r="C50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3088,11 +3091,11 @@
       <c r="B51" s="6">
         <v>3000</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>122</v>
+      <c r="C51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3124,11 +3127,11 @@
       <c r="B52" s="6">
         <v>3000</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>14</v>
+      <c r="C52" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3160,11 +3163,11 @@
       <c r="B53" s="6">
         <v>3000</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
+      <c r="C53" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3191,16 +3194,16 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>72</v>
+        <v>3000</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3232,11 +3235,11 @@
       <c r="B55" s="6">
         <v>3500</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>73</v>
+      <c r="C55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3268,11 +3271,11 @@
       <c r="B56" s="6">
         <v>3500</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>74</v>
+      <c r="C56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3299,16 +3302,16 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="6">
-        <v>200</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3335,16 +3338,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="B58" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>175</v>
+        <v>200</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8">
+        <v>99999</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3371,16 +3374,16 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="B59" s="6">
-        <v>3600</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="8">
-        <v>99999</v>
+        <v>2350</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3407,16 +3410,16 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="B60" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>189</v>
+        <v>3600</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="8">
+        <v>99999</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3448,11 +3451,11 @@
       <c r="B61" s="6">
         <v>2650</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>8</v>
+      <c r="C61" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3479,16 +3482,16 @@
     </row>
     <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="B62" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>5</v>
+        <v>2650</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3520,11 +3523,11 @@
       <c r="B63" s="6">
         <v>4600</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>8</v>
+      <c r="C63" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3556,11 +3559,11 @@
       <c r="B64" s="6">
         <v>4600</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>9</v>
+      <c r="C64" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3592,11 +3595,11 @@
       <c r="B65" s="6">
         <v>4600</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>6</v>
+      <c r="C65" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3623,16 +3626,16 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="6">
-        <v>150</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>5</v>
+        <v>4600</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3664,11 +3667,11 @@
       <c r="B67" s="6">
         <v>150</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>8</v>
+      <c r="C67" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3700,11 +3703,11 @@
       <c r="B68" s="6">
         <v>150</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>9</v>
+      <c r="C68" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3736,11 +3739,11 @@
       <c r="B69" s="6">
         <v>150</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>14</v>
+      <c r="C69" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3772,11 +3775,11 @@
       <c r="B70" s="6">
         <v>150</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>6</v>
+      <c r="C70" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3803,16 +3806,16 @@
     </row>
     <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B71" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>210</v>
+        <v>150</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3844,11 +3847,11 @@
       <c r="B72" s="6">
         <v>5700</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>193</v>
+      <c r="C72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3875,16 +3878,16 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="B73" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>165</v>
+        <v>5700</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3916,11 +3919,11 @@
       <c r="B74" s="6">
         <v>2700</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>128</v>
+      <c r="C74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3947,16 +3950,16 @@
     </row>
     <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="B75" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3983,10 +3986,10 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="B76" s="6">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
@@ -4019,10 +4022,10 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" s="6">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>12</v>
@@ -4055,16 +4058,16 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="B78" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>110</v>
+        <v>2100</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="8">
+        <v>99999</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4096,11 +4099,11 @@
       <c r="B79" s="6">
         <v>5600</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>8</v>
+      <c r="C79" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4127,16 +4130,16 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B80" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>5</v>
+        <v>5600</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4168,11 +4171,11 @@
       <c r="B81" s="6">
         <v>1100</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>8</v>
+      <c r="C81" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4204,11 +4207,11 @@
       <c r="B82" s="6">
         <v>1100</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>9</v>
+      <c r="C82" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4240,11 +4243,11 @@
       <c r="B83" s="6">
         <v>1100</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>6</v>
+      <c r="C83" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4271,16 +4274,16 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="6">
-        <v>3300</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4307,10 +4310,10 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B85" s="6">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>12</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B86" s="6">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>12</v>
@@ -4379,10 +4382,10 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" s="6">
-        <v>7400</v>
+        <v>5100</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>12</v>
@@ -4415,10 +4418,10 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="B88" s="6">
-        <v>2800</v>
+        <v>7400</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>12</v>
@@ -4451,10 +4454,10 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B89" s="6">
-        <v>1550</v>
+        <v>2800</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>12</v>
@@ -4487,10 +4490,10 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B90" s="6">
-        <v>6600</v>
+        <v>1550</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>12</v>
@@ -4523,10 +4526,10 @@
     </row>
     <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B91" s="6">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>12</v>
@@ -4559,10 +4562,10 @@
     </row>
     <row r="92" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="6">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
@@ -4595,10 +4598,10 @@
     </row>
     <row r="93" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B93" s="6">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
@@ -4631,10 +4634,10 @@
     </row>
     <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B94" s="6">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
@@ -4667,15 +4670,15 @@
     </row>
     <row r="95" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="B95" s="6">
-        <v>2950</v>
+        <v>4900</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="8">
         <v>99999</v>
       </c>
       <c r="E95" s="1"/>
@@ -4703,15 +4706,15 @@
     </row>
     <row r="96" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="B96" s="6">
-        <v>4100</v>
+        <v>2950</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="23">
         <v>99999</v>
       </c>
       <c r="E96" s="1"/>
@@ -4739,10 +4742,10 @@
     </row>
     <row r="97" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B97" s="6">
-        <v>5000</v>
+        <v>4100</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
@@ -4775,10 +4778,10 @@
     </row>
     <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="B98" s="6">
-        <v>2450</v>
+        <v>5000</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>12</v>
@@ -4811,10 +4814,10 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B99" s="6">
-        <v>1650</v>
+        <v>2450</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
@@ -4847,10 +4850,10 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="B100" s="6">
-        <v>3400</v>
+        <v>1650</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
@@ -4883,16 +4886,16 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>82</v>
+        <v>3400</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="8">
+        <v>99999</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -4924,11 +4927,11 @@
       <c r="B102" s="6">
         <v>1200</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>5</v>
+      <c r="C102" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4960,11 +4963,11 @@
       <c r="B103" s="6">
         <v>1200</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>8</v>
+      <c r="C103" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -4996,11 +4999,11 @@
       <c r="B104" s="6">
         <v>1200</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>6</v>
+      <c r="C104" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5032,11 +5035,11 @@
       <c r="B105" s="6">
         <v>1200</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>160</v>
+      <c r="C105" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5063,16 +5066,16 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B106" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5104,11 +5107,11 @@
       <c r="B107" s="6">
         <v>3900</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>9</v>
+      <c r="C107" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5140,11 +5143,11 @@
       <c r="B108" s="6">
         <v>3900</v>
       </c>
-      <c r="C108" s="14" t="s">
-        <v>14</v>
+      <c r="C108" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5176,11 +5179,11 @@
       <c r="B109" s="6">
         <v>3900</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>6</v>
+      <c r="C109" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5206,17 +5209,17 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="24" t="s">
-        <v>205</v>
+      <c r="A110" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B110" s="6">
-        <v>2550</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>206</v>
+        <v>3900</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5242,17 +5245,17 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>47</v>
+      <c r="A111" s="24" t="s">
+        <v>205</v>
       </c>
       <c r="B111" s="6">
-        <v>3800</v>
+        <v>2550</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>88</v>
+      <c r="D111" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5284,11 +5287,11 @@
       <c r="B112" s="6">
         <v>3800</v>
       </c>
-      <c r="C112" s="14" t="s">
-        <v>14</v>
+      <c r="C112" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5320,11 +5323,11 @@
       <c r="B113" s="6">
         <v>3800</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>6</v>
+      <c r="C113" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5351,16 +5354,16 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B114" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>5</v>
+        <v>3800</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5392,11 +5395,11 @@
       <c r="B115" s="6">
         <v>1300</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>8</v>
+      <c r="C115" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5428,11 +5431,11 @@
       <c r="B116" s="6">
         <v>1300</v>
       </c>
-      <c r="C116" s="13" t="s">
-        <v>9</v>
+      <c r="C116" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5464,11 +5467,11 @@
       <c r="B117" s="6">
         <v>1300</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>14</v>
+      <c r="C117" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5500,11 +5503,11 @@
       <c r="B118" s="6">
         <v>1300</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>6</v>
+      <c r="C118" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5531,16 +5534,16 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B119" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5572,11 +5575,11 @@
       <c r="B120" s="6">
         <v>1850</v>
       </c>
-      <c r="C120" s="11" t="s">
-        <v>8</v>
+      <c r="C120" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5608,11 +5611,11 @@
       <c r="B121" s="6">
         <v>1850</v>
       </c>
-      <c r="C121" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>177</v>
+      <c r="C121" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5639,16 +5642,16 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B122" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>45</v>
+        <v>1850</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5680,11 +5683,11 @@
       <c r="B123" s="6">
         <v>2500</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>5</v>
+      <c r="C123" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5716,11 +5719,11 @@
       <c r="B124" s="6">
         <v>2500</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>8</v>
+      <c r="C124" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5747,16 +5750,16 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B125" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>96</v>
+        <v>2500</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5788,11 +5791,11 @@
       <c r="B126" s="6">
         <v>6000</v>
       </c>
-      <c r="C126" s="11" t="s">
-        <v>8</v>
+      <c r="C126" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5824,11 +5827,11 @@
       <c r="B127" s="6">
         <v>6000</v>
       </c>
-      <c r="C127" s="14" t="s">
-        <v>14</v>
+      <c r="C127" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5860,11 +5863,11 @@
       <c r="B128" s="6">
         <v>6000</v>
       </c>
-      <c r="C128" s="13" t="s">
-        <v>9</v>
+      <c r="C128" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5891,16 +5894,16 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B129" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>5</v>
+        <v>6000</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5932,11 +5935,11 @@
       <c r="B130" s="6">
         <v>5400</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>129</v>
+      <c r="C130" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5968,11 +5971,11 @@
       <c r="B131" s="6">
         <v>5400</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>131</v>
+      <c r="C131" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6004,11 +6007,11 @@
       <c r="B132" s="6">
         <v>5400</v>
       </c>
-      <c r="C132" s="13" t="s">
-        <v>9</v>
+      <c r="C132" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6035,16 +6038,16 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B133" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>5</v>
+        <v>5400</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6076,11 +6079,11 @@
       <c r="B134" s="6">
         <v>1000</v>
       </c>
-      <c r="C134" s="14" t="s">
-        <v>14</v>
+      <c r="C134" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6112,11 +6115,11 @@
       <c r="B135" s="6">
         <v>1000</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>6</v>
+      <c r="C135" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6143,16 +6146,16 @@
     </row>
     <row r="136" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B136" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6184,11 +6187,11 @@
       <c r="B137" s="6">
         <v>1900</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>8</v>
+      <c r="C137" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6220,11 +6223,11 @@
       <c r="B138" s="6">
         <v>1900</v>
       </c>
-      <c r="C138" s="13" t="s">
-        <v>9</v>
+      <c r="C138" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6256,11 +6259,11 @@
       <c r="B139" s="6">
         <v>1900</v>
       </c>
-      <c r="C139" s="14" t="s">
-        <v>14</v>
+      <c r="C139" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6292,11 +6295,11 @@
       <c r="B140" s="6">
         <v>1900</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>6</v>
+      <c r="C140" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6323,16 +6326,16 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B141" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>5</v>
+        <v>1900</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6364,11 +6367,11 @@
       <c r="B142" s="6">
         <v>7000</v>
       </c>
-      <c r="C142" s="11" t="s">
-        <v>8</v>
+      <c r="C142" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6400,11 +6403,11 @@
       <c r="B143" s="6">
         <v>7000</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>160</v>
+      <c r="C143" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6436,11 +6439,11 @@
       <c r="B144" s="6">
         <v>7000</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="8">
-        <v>99999</v>
+      <c r="C144" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6467,16 +6470,16 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="B145" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>162</v>
+        <v>7000</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="8">
+        <v>99999</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6508,11 +6511,11 @@
       <c r="B146" s="6">
         <v>4000</v>
       </c>
-      <c r="C146" s="13" t="s">
-        <v>9</v>
+      <c r="C146" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6544,25 +6547,47 @@
       <c r="B147" s="6">
         <v>4000</v>
       </c>
-      <c r="C147" s="14" t="s">
-        <v>14</v>
+      <c r="C147" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>93</v>
+        <v>4000</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6572,11 +6597,11 @@
       <c r="B149" s="6">
         <v>6500</v>
       </c>
-      <c r="C149" s="9" t="s">
-        <v>5</v>
+      <c r="C149" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6586,11 +6611,11 @@
       <c r="B150" s="6">
         <v>6500</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>8</v>
+      <c r="C150" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6600,11 +6625,11 @@
       <c r="B151" s="6">
         <v>6500</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>106</v>
+      <c r="C151" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6614,11 +6639,11 @@
       <c r="B152" s="6">
         <v>6500</v>
       </c>
-      <c r="C152" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>107</v>
+      <c r="C152" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6628,39 +6653,39 @@
       <c r="B153" s="6">
         <v>6500</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>6</v>
+      <c r="C153" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B154" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="8">
-        <v>99999</v>
+        <v>6500</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B155" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>199</v>
+        <v>5800</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="8">
+        <v>99999</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6670,76 +6695,54 @@
       <c r="B156" s="6">
         <v>4400</v>
       </c>
-      <c r="C156" s="11" t="s">
-        <v>8</v>
+      <c r="C156" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B157" s="6">
         <v>4400</v>
       </c>
-      <c r="C157" s="14" t="s">
-        <v>201</v>
+      <c r="C157" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B158" s="6">
         <v>4400</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>6</v>
+      <c r="C158" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B159" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>5</v>
+        <v>4400</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-      <c r="X159" s="1"/>
-      <c r="Y159" s="1"/>
-      <c r="Z159" s="1"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
@@ -6748,11 +6751,11 @@
       <c r="B160" s="6">
         <v>5900</v>
       </c>
-      <c r="C160" s="11" t="s">
-        <v>8</v>
+      <c r="C160" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6784,11 +6787,11 @@
       <c r="B161" s="6">
         <v>5900</v>
       </c>
-      <c r="C161" s="14" t="s">
-        <v>14</v>
+      <c r="C161" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6815,31 +6818,68 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B162" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+      <c r="Y162" s="1"/>
+      <c r="Z162" s="1"/>
+    </row>
+    <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B163" s="6">
         <v>7200</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C163" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="12" t="s">
+      <c r="D163" s="12" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{7CAB7DDD-AEFA-4A58-9ECC-8ADC721BE699}"/>
-    <hyperlink ref="D32" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{086EBA42-004A-4582-A470-F9D44E15A3ED}"/>
-    <hyperlink ref="D34" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{522DC271-25D7-4EB5-A8A9-9DE44C16B321}"/>
-    <hyperlink ref="D35" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{E1B182F7-587E-4534-A2A3-CF13FDBB23C9}"/>
-    <hyperlink ref="D36" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{3C779974-65EC-4E7C-ABB7-F58C3D9AC2C6}"/>
-    <hyperlink ref="D39" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=60458157&amp;forPersonCustId=1700" xr:uid="{7312158F-4DED-421C-AC87-28BE09761719}"/>
-    <hyperlink ref="D54" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{4090A234-AFBD-4BAA-B4A6-F4EE269F923D}"/>
-    <hyperlink ref="D56" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{8BDA6A68-C2B8-49FA-BD9D-5409437CA3B0}"/>
+    <hyperlink ref="D33" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{086EBA42-004A-4582-A470-F9D44E15A3ED}"/>
+    <hyperlink ref="D35" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{522DC271-25D7-4EB5-A8A9-9DE44C16B321}"/>
+    <hyperlink ref="D36" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{E1B182F7-587E-4534-A2A3-CF13FDBB23C9}"/>
+    <hyperlink ref="D37" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{3C779974-65EC-4E7C-ABB7-F58C3D9AC2C6}"/>
+    <hyperlink ref="D40" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=60458157&amp;forPersonCustId=1700" xr:uid="{7312158F-4DED-421C-AC87-28BE09761719}"/>
+    <hyperlink ref="D55" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{4090A234-AFBD-4BAA-B4A6-F4EE269F923D}"/>
+    <hyperlink ref="D57" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{8BDA6A68-C2B8-49FA-BD9D-5409437CA3B0}"/>
+    <hyperlink ref="A15" r:id="rId9" tooltip="Anthem CA" display="javascript:void(0);" xr:uid="{0F470C97-1220-4C9C-B3AF-D3B9374F22ED}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473D6C0A-222F-4C0C-AAA0-1FD91952BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3019F6BD-3289-4442-AE40-B426375E9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="213">
   <si>
     <t>Customer Name</t>
   </si>
@@ -201,12 +201,6 @@
     <t>anthm_kjacobo</t>
   </si>
   <si>
-    <t>btp_agodinez</t>
-  </si>
-  <si>
-    <t>btp_SBUTTLIERE</t>
-  </si>
-  <si>
     <t>btp_ssison</t>
   </si>
   <si>
@@ -456,9 +450,6 @@
     <t>dignity.familypractice</t>
   </si>
   <si>
-    <t>EXCL_AShetty</t>
-  </si>
-  <si>
     <t>Imperial Health</t>
   </si>
   <si>
@@ -543,9 +534,6 @@
     <t>epic_abarrera</t>
   </si>
   <si>
-    <t>EXCL_Acastillo</t>
-  </si>
-  <si>
     <t>FCMG_CCarpenter</t>
   </si>
   <si>
@@ -664,13 +652,25 @@
   </si>
   <si>
     <t>Anthem CA</t>
+  </si>
+  <si>
+    <t>OptumHealth Tennessee</t>
+  </si>
+  <si>
+    <t>btp_cchanco</t>
+  </si>
+  <si>
+    <t>EXCL_LVitez</t>
+  </si>
+  <si>
+    <t>EXCL_BBautista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -697,11 +697,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -882,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -945,9 +940,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,7 +1266,7 @@
   <dimension ref="A1:Z163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1314,7 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="6">
         <v>99999</v>
@@ -1367,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1403,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1430,7 +1422,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="6">
         <v>1750</v>
@@ -1466,7 +1458,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6">
         <v>2750</v>
@@ -1511,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1547,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1583,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1619,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1646,7 +1638,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" s="6">
         <v>2650</v>
@@ -1727,7 +1719,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1790,7 +1782,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B15" s="6">
         <v>3750</v>
@@ -1798,7 +1790,7 @@
       <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="22">
         <v>99999</v>
       </c>
       <c r="E15" s="1"/>
@@ -1826,7 +1818,7 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" s="6">
         <v>2600</v>
@@ -1898,7 +1890,7 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="6">
         <v>6800</v>
@@ -1943,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1979,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2011,11 +2003,11 @@
       <c r="B21" s="6">
         <v>1600</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>9</v>
+      <c r="C21" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2047,11 +2039,11 @@
       <c r="B22" s="6">
         <v>1600</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>14</v>
+      <c r="C22" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2078,16 +2070,16 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="B23" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>6700</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8">
+        <v>99999</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2114,16 +2106,16 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B24" s="6">
-        <v>6700</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="8">
-        <v>99999</v>
+        <v>7100</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2150,19 +2142,19 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="6">
         <v>7100</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>5</v>
+      <c r="C25" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2186,19 +2178,19 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B26" s="6">
         <v>7100</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
+      <c r="C26" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2222,16 +2214,16 @@
     </row>
     <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="B27" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>186</v>
+        <v>4700</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="8">
+        <v>99999</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2258,16 +2250,16 @@
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="B28" s="6">
-        <v>4700</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="8">
-        <v>99999</v>
+        <v>7500</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2294,16 +2286,16 @@
     </row>
     <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B29" s="6">
         <v>7500</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>5</v>
+      <c r="C29" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2330,16 +2322,16 @@
     </row>
     <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="B30" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>8</v>
+        <v>3200</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2371,11 +2363,11 @@
       <c r="B31" s="6">
         <v>3200</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>5</v>
+      <c r="C31" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2407,11 +2399,11 @@
       <c r="B32" s="6">
         <v>3200</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>63</v>
+      <c r="C32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2438,16 +2430,16 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="B33" s="6">
-        <v>3200</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>64</v>
+        <v>2050</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="8">
+        <v>99999</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2474,16 +2466,16 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B34" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8">
-        <v>99999</v>
+        <v>3100</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2515,11 +2507,11 @@
       <c r="B35" s="6">
         <v>3100</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>5</v>
+      <c r="C35" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2551,11 +2543,11 @@
       <c r="B36" s="6">
         <v>3100</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>8</v>
+      <c r="C36" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2582,16 +2574,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>142</v>
+        <v>1700</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2623,11 +2615,11 @@
       <c r="B38" s="6">
         <v>1700</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>170</v>
+      <c r="C38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2659,11 +2651,11 @@
       <c r="B39" s="6">
         <v>1700</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>171</v>
+      <c r="C39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2690,16 +2682,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>187</v>
+        <v>2900</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2731,11 +2723,11 @@
       <c r="B41" s="6">
         <v>2900</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>5</v>
+      <c r="C41" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2767,11 +2759,11 @@
       <c r="B42" s="6">
         <v>2900</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>8</v>
+      <c r="C42" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2803,11 +2795,11 @@
       <c r="B43" s="6">
         <v>2900</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>14</v>
+      <c r="C43" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2834,16 +2826,16 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B44" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
+        <v>1800</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2875,11 +2867,11 @@
       <c r="B45" s="6">
         <v>1800</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>5</v>
+      <c r="C45" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2911,11 +2903,11 @@
       <c r="B46" s="6">
         <v>1800</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>8</v>
+      <c r="C46" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2947,11 +2939,11 @@
       <c r="B47" s="6">
         <v>1800</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>14</v>
+      <c r="C47" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2978,16 +2970,16 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B48" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>70</v>
+        <v>4300</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3014,16 +3006,16 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" s="6">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>173</v>
+      <c r="D49" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3055,11 +3047,11 @@
       <c r="B50" s="6">
         <v>3000</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>71</v>
+      <c r="C50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3091,11 +3083,11 @@
       <c r="B51" s="6">
         <v>3000</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>121</v>
+      <c r="C51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3127,11 +3119,11 @@
       <c r="B52" s="6">
         <v>3000</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>9</v>
+      <c r="C52" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3163,11 +3155,11 @@
       <c r="B53" s="6">
         <v>3000</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>14</v>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3194,16 +3186,16 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>174</v>
+        <v>3500</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3235,11 +3227,11 @@
       <c r="B55" s="6">
         <v>3500</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>72</v>
+      <c r="C55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3271,11 +3263,11 @@
       <c r="B56" s="6">
         <v>3500</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>73</v>
+      <c r="C56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3302,16 +3294,16 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>74</v>
+        <v>200</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="8">
+        <v>99999</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3338,16 +3330,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B58" s="6">
-        <v>200</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="8">
-        <v>99999</v>
+        <v>2350</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3374,16 +3366,16 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="B59" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>175</v>
+        <v>3600</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="8">
+        <v>99999</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3410,16 +3402,16 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="B60" s="6">
-        <v>3600</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="8">
-        <v>99999</v>
+        <v>2650</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3446,16 +3438,16 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B61" s="6">
         <v>2650</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>5</v>
+      <c r="C61" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3482,16 +3474,16 @@
     </row>
     <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="B62" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>8</v>
+        <v>4600</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3523,11 +3515,11 @@
       <c r="B63" s="6">
         <v>4600</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>5</v>
+      <c r="C63" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3559,11 +3551,11 @@
       <c r="B64" s="6">
         <v>4600</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>8</v>
+      <c r="C64" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3595,11 +3587,11 @@
       <c r="B65" s="6">
         <v>4600</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>9</v>
+      <c r="C65" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3626,16 +3618,16 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B66" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3667,11 +3659,11 @@
       <c r="B67" s="6">
         <v>150</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>5</v>
+      <c r="C67" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3703,11 +3695,11 @@
       <c r="B68" s="6">
         <v>150</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>8</v>
+      <c r="C68" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3739,11 +3731,11 @@
       <c r="B69" s="6">
         <v>150</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>9</v>
+      <c r="C69" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3775,11 +3767,11 @@
       <c r="B70" s="6">
         <v>150</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>14</v>
+      <c r="C70" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3806,16 +3798,16 @@
     </row>
     <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B71" s="6">
-        <v>150</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>192</v>
+        <v>5700</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3842,16 +3834,16 @@
     </row>
     <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B72" s="6">
         <v>5700</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>210</v>
+      <c r="C72" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3878,16 +3870,16 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="B73" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>193</v>
+        <v>2700</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3919,11 +3911,11 @@
       <c r="B74" s="6">
         <v>2700</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>165</v>
+      <c r="C74" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3950,16 +3942,16 @@
     </row>
     <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="B75" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>128</v>
+        <v>1950</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="8">
+        <v>99999</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3986,10 +3978,10 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="B76" s="6">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
@@ -4022,10 +4014,10 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B77" s="6">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>12</v>
@@ -4058,16 +4050,16 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="B78" s="6">
-        <v>2100</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="8">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4094,16 +4086,16 @@
     </row>
     <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79" s="6">
         <v>5600</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>5</v>
+      <c r="C79" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4130,16 +4122,16 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B80" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>8</v>
+        <v>1100</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4171,11 +4163,11 @@
       <c r="B81" s="6">
         <v>1100</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>5</v>
+      <c r="C81" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4207,11 +4199,11 @@
       <c r="B82" s="6">
         <v>1100</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>8</v>
+      <c r="C82" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4243,11 +4235,11 @@
       <c r="B83" s="6">
         <v>1100</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>9</v>
+      <c r="C83" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4274,16 +4266,16 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B84" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>81</v>
+        <v>3300</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="8">
+        <v>99999</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4310,10 +4302,10 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B85" s="6">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>12</v>
@@ -4346,10 +4338,10 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B86" s="6">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>12</v>
@@ -4382,10 +4374,10 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B87" s="6">
-        <v>5100</v>
+        <v>7400</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>12</v>
@@ -4418,10 +4410,10 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="B88" s="6">
-        <v>7400</v>
+        <v>2800</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>12</v>
@@ -4454,10 +4446,10 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B89" s="6">
-        <v>2800</v>
+        <v>1550</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>12</v>
@@ -4490,10 +4482,10 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B90" s="6">
-        <v>1550</v>
+        <v>6600</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>12</v>
@@ -4526,10 +4518,10 @@
     </row>
     <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="B91" s="6">
-        <v>6600</v>
+        <v>3450</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>12</v>
@@ -4634,7 +4626,7 @@
     </row>
     <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="6">
         <v>5300</v>
@@ -4706,7 +4698,7 @@
     </row>
     <row r="96" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B96" s="6">
         <v>2950</v>
@@ -4714,7 +4706,7 @@
       <c r="C96" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="22">
         <v>99999</v>
       </c>
       <c r="E96" s="1"/>
@@ -4814,7 +4806,7 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B99" s="6">
         <v>2450</v>
@@ -4850,7 +4842,7 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B100" s="6">
         <v>1650</v>
@@ -4931,7 +4923,7 @@
         <v>45</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4967,7 +4959,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -5003,7 +4995,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5039,7 +5031,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5072,10 +5064,10 @@
         <v>1200</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5111,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5147,7 +5139,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5183,7 +5175,7 @@
         <v>14</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5219,7 +5211,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5245,8 +5237,8 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="24" t="s">
-        <v>205</v>
+      <c r="A111" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="B111" s="6">
         <v>2550</v>
@@ -5255,7 +5247,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5291,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5327,7 +5319,7 @@
         <v>14</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5363,7 +5355,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5399,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5435,7 +5427,7 @@
         <v>8</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5471,7 +5463,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5507,7 +5499,7 @@
         <v>14</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5543,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5570,7 +5562,7 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B120" s="6">
         <v>1850</v>
@@ -5579,7 +5571,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5606,7 +5598,7 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B121" s="6">
         <v>1850</v>
@@ -5615,7 +5607,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5642,7 +5634,7 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B122" s="6">
         <v>1850</v>
@@ -5651,7 +5643,7 @@
         <v>14</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5687,7 +5679,7 @@
         <v>45</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5723,7 +5715,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5759,7 +5751,7 @@
         <v>8</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5795,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5831,7 +5823,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5867,7 +5859,7 @@
         <v>14</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5903,7 +5895,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5930,7 +5922,7 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B130" s="6">
         <v>5400</v>
@@ -5939,7 +5931,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5966,7 +5958,7 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B131" s="6">
         <v>5400</v>
@@ -5975,7 +5967,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6002,7 +5994,7 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B132" s="6">
         <v>5400</v>
@@ -6011,7 +6003,7 @@
         <v>14</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6038,7 +6030,7 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B133" s="6">
         <v>5400</v>
@@ -6047,7 +6039,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6083,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6119,7 +6111,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6155,7 +6147,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6191,7 +6183,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6227,7 +6219,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6263,7 +6255,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6299,7 +6291,7 @@
         <v>14</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6335,7 +6327,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6362,7 +6354,7 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B142" s="6">
         <v>7000</v>
@@ -6371,7 +6363,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6398,7 +6390,7 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B143" s="6">
         <v>7000</v>
@@ -6407,7 +6399,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6434,16 +6426,16 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B144" s="6">
         <v>7000</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6470,7 +6462,7 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B145" s="6">
         <v>7000</v>
@@ -6515,7 +6507,7 @@
         <v>5</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6551,7 +6543,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -6587,7 +6579,7 @@
         <v>14</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6601,7 +6593,7 @@
         <v>45</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6615,7 +6607,7 @@
         <v>5</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6629,7 +6621,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6643,7 +6635,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6657,7 +6649,7 @@
         <v>14</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6671,12 +6663,12 @@
         <v>6</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B155" s="6">
         <v>5800</v>
@@ -6699,7 +6691,7 @@
         <v>5</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6713,7 +6705,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
@@ -6724,10 +6716,10 @@
         <v>4400</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6741,12 +6733,12 @@
         <v>6</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B160" s="6">
         <v>5900</v>
@@ -6755,7 +6747,7 @@
         <v>5</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6782,7 +6774,7 @@
     </row>
     <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B161" s="6">
         <v>5900</v>
@@ -6791,7 +6783,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6818,7 +6810,7 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B162" s="6">
         <v>5900</v>
@@ -6827,7 +6819,7 @@
         <v>14</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6854,7 +6846,7 @@
     </row>
     <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B163" s="6">
         <v>7200</v>
@@ -6863,23 +6855,21 @@
         <v>5</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{7CAB7DDD-AEFA-4A58-9ECC-8ADC721BE699}"/>
-    <hyperlink ref="D33" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{086EBA42-004A-4582-A470-F9D44E15A3ED}"/>
-    <hyperlink ref="D35" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{522DC271-25D7-4EB5-A8A9-9DE44C16B321}"/>
-    <hyperlink ref="D36" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{E1B182F7-587E-4534-A2A3-CF13FDBB23C9}"/>
-    <hyperlink ref="D37" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{3C779974-65EC-4E7C-ABB7-F58C3D9AC2C6}"/>
-    <hyperlink ref="D40" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=60458157&amp;forPersonCustId=1700" xr:uid="{7312158F-4DED-421C-AC87-28BE09761719}"/>
-    <hyperlink ref="D55" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{4090A234-AFBD-4BAA-B4A6-F4EE269F923D}"/>
-    <hyperlink ref="D57" r:id="rId8" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{8BDA6A68-C2B8-49FA-BD9D-5409437CA3B0}"/>
-    <hyperlink ref="A15" r:id="rId9" tooltip="Anthem CA" display="javascript:void(0);" xr:uid="{0F470C97-1220-4C9C-B3AF-D3B9374F22ED}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{56B62A3D-0211-4749-B8E5-A199ABD782BB}"/>
+    <hyperlink ref="D32" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{6211B793-DC8E-426D-8DD5-2D8D1183B929}"/>
+    <hyperlink ref="D34" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{F8976B69-8C9C-47DD-8AE5-EAAFB5D91D96}"/>
+    <hyperlink ref="D35" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{964763E0-8EA6-4717-AE0D-C5F68FEE67CA}"/>
+    <hyperlink ref="D36" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{2FE5530F-5F41-47E4-832B-6EDEED2BA81D}"/>
+    <hyperlink ref="D54" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{C2E83F9E-2BEA-41F9-BD50-4110DF047865}"/>
+    <hyperlink ref="D56" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{1E222A24-0F20-44C3-9420-F92BCE70820A}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3019F6BD-3289-4442-AE40-B426375E9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8818500-FCD8-413D-B5AC-691B227D57C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="208">
   <si>
     <t>Customer Name</t>
   </si>
@@ -192,9 +192,6 @@
     <t>ST.JOSEPH</t>
   </si>
   <si>
-    <t>Torrance Memorial IPA</t>
-  </si>
-  <si>
     <t>anthm_jatchley</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>adriana.x.hernandez@healthnet.com</t>
   </si>
   <si>
-    <t>S_Vankadaru</t>
-  </si>
-  <si>
     <t>S_Fernandez</t>
   </si>
   <si>
@@ -360,12 +354,6 @@
     <t>Customer Not in List</t>
   </si>
   <si>
-    <t>Stanford Health Care</t>
-  </si>
-  <si>
-    <t>U.S. Renal Care</t>
-  </si>
-  <si>
     <t>Optum Care Network New Mexico</t>
   </si>
   <si>
@@ -420,9 +408,6 @@
     <t>apaul.cu.scpmcs</t>
   </si>
   <si>
-    <t>Antonio_Ferrey</t>
-  </si>
-  <si>
     <t>Change Healthcare</t>
   </si>
   <si>
@@ -522,9 +507,6 @@
     <t>Alliant Health</t>
   </si>
   <si>
-    <t>Altura La Salle</t>
-  </si>
-  <si>
     <t>jiamiw@chasf.org</t>
   </si>
   <si>
@@ -549,12 +531,6 @@
     <t>PROV_CA_AAfshari</t>
   </si>
   <si>
-    <t>Western Health Advantage</t>
-  </si>
-  <si>
-    <t>wha_jbaillie</t>
-  </si>
-  <si>
     <t>Allcare_abaca</t>
   </si>
   <si>
@@ -612,21 +588,6 @@
     <t>SIH_APatel</t>
   </si>
   <si>
-    <t>TMIPA_cteng</t>
-  </si>
-  <si>
-    <t>TMIPA_aip</t>
-  </si>
-  <si>
-    <t>Office Admin Practice and Provider Delegate</t>
-  </si>
-  <si>
-    <t>TMIPA_Apartovi</t>
-  </si>
-  <si>
-    <t>TMIPA_ctsuneishi2</t>
-  </si>
-  <si>
     <t>Optum Care Network Wisconsin</t>
   </si>
   <si>
@@ -636,34 +597,58 @@
     <t>preipa_cgrasu</t>
   </si>
   <si>
-    <t>USRC_anna.giang</t>
-  </si>
-  <si>
-    <t>TM_mrendle</t>
-  </si>
-  <si>
-    <t>PPG_hbollen</t>
+    <t>Aetna</t>
+  </si>
+  <si>
+    <t>Anthem CA</t>
+  </si>
+  <si>
+    <t>Astiva Health</t>
+  </si>
+  <si>
+    <t>btp_cchanco</t>
+  </si>
+  <si>
+    <t>EXCL_LVitez</t>
+  </si>
+  <si>
+    <t>EXCL_BBautista</t>
+  </si>
+  <si>
+    <t>Y_Hakimrabet</t>
+  </si>
+  <si>
+    <t>IMAS</t>
+  </si>
+  <si>
+    <t>La Care Health Plan</t>
   </si>
   <si>
     <t>MCSHP_sjenkins</t>
   </si>
   <si>
+    <t>NorthBay Health</t>
+  </si>
+  <si>
+    <t>OptumCare New Jersey</t>
+  </si>
+  <si>
+    <t>OptumHealth Georgia</t>
+  </si>
+  <si>
+    <t>OptumHealth Kentucky</t>
+  </si>
+  <si>
+    <t>OptumHealth Tennessee</t>
+  </si>
+  <si>
+    <t>OptumHealth Virginia</t>
+  </si>
+  <si>
     <t>PMS_Tromano</t>
   </si>
   <si>
-    <t>Anthem CA</t>
-  </si>
-  <si>
-    <t>OptumHealth Tennessee</t>
-  </si>
-  <si>
-    <t>btp_cchanco</t>
-  </si>
-  <si>
-    <t>EXCL_LVitez</t>
-  </si>
-  <si>
-    <t>EXCL_BBautista</t>
+    <t>Santé</t>
   </si>
 </sst>
 </file>
@@ -877,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -939,14 +924,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1263,15 +1245,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z163"/>
+  <dimension ref="A1:Z162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="3" max="3" width="26.36328125" customWidth="1"/>
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
@@ -1314,7 +1296,7 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6">
         <v>99999</v>
@@ -1350,16 +1332,16 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="B3" s="6">
-        <v>2400</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>176</v>
+        <v>4350</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8">
+        <v>99999</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1391,11 +1373,11 @@
       <c r="B4" s="6">
         <v>2400</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>117</v>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1422,16 +1404,16 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1750</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8">
-        <v>99999</v>
+        <v>2400</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1458,10 +1440,10 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B6" s="6">
-        <v>2750</v>
+        <v>1750</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -1494,16 +1476,16 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="B7" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>177</v>
+        <v>2750</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8">
+        <v>99999</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1535,11 +1517,11 @@
       <c r="B8" s="6">
         <v>1500</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>178</v>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1571,11 +1553,11 @@
       <c r="B9" s="6">
         <v>1500</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>179</v>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1607,11 +1589,11 @@
       <c r="B10" s="6">
         <v>1500</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>6</v>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1638,16 +1620,16 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8">
-        <v>99999</v>
+        <v>1500</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1683,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1719,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1755,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1782,7 +1764,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B15" s="6">
         <v>3750</v>
@@ -1790,7 +1772,7 @@
       <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>99999</v>
       </c>
       <c r="E15" s="1"/>
@@ -1818,7 +1800,7 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B16" s="6">
         <v>2600</v>
@@ -1890,10 +1872,10 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="B18" s="6">
-        <v>6800</v>
+        <v>3250</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
@@ -1926,16 +1908,16 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="B19" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>210</v>
+        <v>6800</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8">
+        <v>99999</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1967,11 +1949,11 @@
       <c r="B20" s="6">
         <v>1600</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>8</v>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2003,11 +1985,11 @@
       <c r="B21" s="6">
         <v>1600</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>14</v>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2039,11 +2021,11 @@
       <c r="B22" s="6">
         <v>1600</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>6</v>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2070,16 +2052,16 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>6700</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8">
-        <v>99999</v>
+        <v>1600</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2106,16 +2088,16 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B24" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>133</v>
+        <v>6700</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8">
+        <v>99999</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2142,16 +2124,16 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B25" s="6">
         <v>7100</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>8</v>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
@@ -2178,16 +2160,16 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B26" s="6">
         <v>7100</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>181</v>
+      <c r="C26" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2214,16 +2196,16 @@
     </row>
     <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B27" s="6">
-        <v>4700</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8">
-        <v>99999</v>
+        <v>7100</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2248,18 +2230,18 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="B28" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>161</v>
+        <v>4700</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8">
+        <v>99999</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2284,18 +2266,18 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B29" s="6">
         <v>7500</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>8</v>
+      <c r="C29" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2320,18 +2302,18 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="B30" s="6">
-        <v>3200</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>5</v>
+        <v>7500</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2363,11 +2345,11 @@
       <c r="B31" s="6">
         <v>3200</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>8</v>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2399,11 +2381,11 @@
       <c r="B32" s="6">
         <v>3200</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>62</v>
+      <c r="C32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2430,16 +2412,16 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B33" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8">
-        <v>99999</v>
+        <v>3200</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2466,16 +2448,16 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="B34" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>63</v>
+        <v>2050</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8">
+        <v>99999</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2507,11 +2489,11 @@
       <c r="B35" s="6">
         <v>3100</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>8</v>
+      <c r="C35" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2543,11 +2525,11 @@
       <c r="B36" s="6">
         <v>3100</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>14</v>
+      <c r="C36" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2574,16 +2556,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>167</v>
+        <v>3100</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2615,11 +2597,11 @@
       <c r="B38" s="6">
         <v>1700</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>8</v>
+      <c r="C38" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2651,11 +2633,11 @@
       <c r="B39" s="6">
         <v>1700</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>9</v>
+      <c r="C39" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2682,16 +2664,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>5</v>
+        <v>1700</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2723,11 +2705,11 @@
       <c r="B41" s="6">
         <v>2900</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>8</v>
+      <c r="C41" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2759,11 +2741,11 @@
       <c r="B42" s="6">
         <v>2900</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>14</v>
+      <c r="C42" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2795,11 +2777,11 @@
       <c r="B43" s="6">
         <v>2900</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>6</v>
+      <c r="C43" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2826,16 +2808,16 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B44" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>5</v>
+        <v>2900</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2867,11 +2849,11 @@
       <c r="B45" s="6">
         <v>1800</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>8</v>
+      <c r="C45" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2903,11 +2885,11 @@
       <c r="B46" s="6">
         <v>1800</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>14</v>
+      <c r="C46" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2939,11 +2921,11 @@
       <c r="B47" s="6">
         <v>1800</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>6</v>
+      <c r="C47" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2970,16 +2952,16 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="6">
-        <v>4300</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>169</v>
+        <v>1800</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3006,16 +2988,16 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="6">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>69</v>
+      <c r="D49" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3047,11 +3029,11 @@
       <c r="B50" s="6">
         <v>3000</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>119</v>
+      <c r="C50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3083,11 +3065,11 @@
       <c r="B51" s="6">
         <v>3000</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>120</v>
+      <c r="C51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3119,11 +3101,11 @@
       <c r="B52" s="6">
         <v>3000</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>14</v>
+      <c r="C52" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3155,11 +3137,11 @@
       <c r="B53" s="6">
         <v>3000</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
+      <c r="C53" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3186,16 +3168,16 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>70</v>
+        <v>3000</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3227,11 +3209,11 @@
       <c r="B55" s="6">
         <v>3500</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>71</v>
+      <c r="C55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3263,11 +3245,11 @@
       <c r="B56" s="6">
         <v>3500</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>72</v>
+      <c r="C56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3294,16 +3276,16 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="6">
-        <v>200</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3330,16 +3312,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="B58" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>171</v>
+        <v>200</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8">
+        <v>99999</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3366,10 +3348,10 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="B59" s="6">
-        <v>3600</v>
+        <v>4250</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>12</v>
@@ -3402,16 +3384,16 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="B60" s="6">
-        <v>2650</v>
+        <v>2350</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>185</v>
+      <c r="D60" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3438,16 +3420,16 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="B61" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>186</v>
+        <v>3600</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="8">
+        <v>99999</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3472,18 +3454,18 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="B62" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>73</v>
+        <v>2250</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="8">
+        <v>99999</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3510,16 +3492,16 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="B63" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>8</v>
+        <v>2650</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3546,16 +3528,16 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="B64" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>9</v>
+        <v>2650</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3587,11 +3569,11 @@
       <c r="B65" s="6">
         <v>4600</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>6</v>
+      <c r="C65" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3618,16 +3600,16 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="6">
-        <v>150</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>5</v>
+        <v>4600</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3654,16 +3636,16 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="6">
-        <v>150</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>8</v>
+        <v>4600</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3690,16 +3672,16 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" s="6">
-        <v>150</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>9</v>
+        <v>4600</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3731,11 +3713,11 @@
       <c r="B69" s="6">
         <v>150</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>14</v>
+      <c r="C69" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3767,11 +3749,11 @@
       <c r="B70" s="6">
         <v>150</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>6</v>
+      <c r="C70" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3798,16 +3780,16 @@
     </row>
     <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="B71" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>206</v>
+        <v>150</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3834,16 +3816,16 @@
     </row>
     <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="B72" s="6">
-        <v>5700</v>
+        <v>150</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>189</v>
+        <v>14</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3870,16 +3852,16 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>162</v>
+        <v>150</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3904,18 +3886,18 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="B74" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>126</v>
+        <v>5700</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3940,18 +3922,18 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B75" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="8">
-        <v>99999</v>
+        <v>5700</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3978,16 +3960,16 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4014,16 +3996,16 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B77" s="6">
-        <v>2100</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4050,16 +4032,16 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B78" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>108</v>
+        <v>1950</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="8">
+        <v>99999</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4086,16 +4068,16 @@
     </row>
     <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="B79" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>144</v>
+        <v>2000</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="8">
+        <v>99999</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4122,16 +4104,16 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>76</v>
+        <v>2100</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="8">
+        <v>99999</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4158,16 +4140,16 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B81" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>8</v>
+        <v>5600</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4194,16 +4176,16 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B82" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>9</v>
+        <v>5600</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4230,16 +4212,16 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="B83" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>79</v>
+        <v>3850</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="8">
+        <v>99999</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4266,16 +4248,16 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="6">
-        <v>3300</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4302,16 +4284,16 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B85" s="6">
-        <v>4500</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4338,16 +4320,16 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B86" s="6">
-        <v>5100</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4374,16 +4356,16 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B87" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4410,10 +4392,10 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="B88" s="6">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>12</v>
@@ -4446,10 +4428,10 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="B89" s="6">
-        <v>1550</v>
+        <v>4500</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>12</v>
@@ -4482,10 +4464,10 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="B90" s="6">
-        <v>6600</v>
+        <v>5100</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>12</v>
@@ -4518,10 +4500,10 @@
     </row>
     <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="B91" s="6">
-        <v>3450</v>
+        <v>7400</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>12</v>
@@ -4552,12 +4534,12 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="B92" s="6">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
@@ -4588,12 +4570,12 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B93" s="6">
-        <v>4800</v>
+        <v>1550</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
@@ -4624,12 +4606,12 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B94" s="6">
-        <v>5300</v>
+        <v>6600</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
@@ -4660,12 +4642,12 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B95" s="6">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
@@ -4696,17 +4678,17 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="B96" s="6">
-        <v>2950</v>
+        <v>4800</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="8">
         <v>99999</v>
       </c>
       <c r="E96" s="1"/>
@@ -4732,12 +4714,12 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B97" s="6">
-        <v>4100</v>
+        <v>5300</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
@@ -4768,12 +4750,12 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B98" s="6">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>12</v>
@@ -4804,17 +4786,17 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B99" s="6">
-        <v>2450</v>
+        <v>2950</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="21">
         <v>99999</v>
       </c>
       <c r="E99" s="1"/>
@@ -4842,10 +4824,10 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="B100" s="6">
-        <v>1650</v>
+        <v>4100</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
@@ -4878,10 +4860,10 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="B101" s="6">
-        <v>3400</v>
+        <v>3950</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>12</v>
@@ -4914,16 +4896,16 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B102" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>80</v>
+        <v>5000</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="8">
+        <v>99999</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -4950,16 +4932,16 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="B103" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>147</v>
+        <v>3550</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="8">
+        <v>99999</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -4986,16 +4968,16 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="B104" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>81</v>
+        <v>3650</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="8">
+        <v>99999</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5020,18 +5002,18 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B105" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>190</v>
+        <v>2450</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="8">
+        <v>99999</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5058,16 +5040,16 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="B106" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>191</v>
+        <v>3450</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="8">
+        <v>99999</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5094,16 +5076,16 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="B107" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>82</v>
+        <v>3350</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="8">
+        <v>99999</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5130,16 +5112,16 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="B108" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>83</v>
+        <v>1650</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="8">
+        <v>99999</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5166,16 +5148,16 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B109" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>84</v>
+        <v>3400</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="8">
+        <v>99999</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5202,16 +5184,16 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B110" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>6</v>
+        <v>1200</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5237,17 +5219,17 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="23" t="s">
-        <v>201</v>
+      <c r="A111" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B111" s="6">
-        <v>2550</v>
+        <v>1200</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="12" t="s">
-        <v>202</v>
+      <c r="D111" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5274,16 +5256,16 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B112" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5310,16 +5292,16 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B113" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>14</v>
+        <v>1200</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5346,16 +5328,16 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B114" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>6</v>
+        <v>1200</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5382,16 +5364,16 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B115" s="6">
-        <v>1300</v>
+        <v>3900</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5418,16 +5400,16 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B116" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>8</v>
+        <v>3900</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5454,16 +5436,16 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B117" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>9</v>
+        <v>3900</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5490,16 +5472,16 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B118" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>14</v>
+        <v>3900</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5526,16 +5508,16 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="B119" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>207</v>
+        <v>2550</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5562,16 +5544,16 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B120" s="6">
-        <v>1850</v>
+        <v>3800</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5598,16 +5580,16 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B121" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>8</v>
+        <v>3800</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5634,16 +5616,16 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B122" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>173</v>
+        <v>3800</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5670,16 +5652,16 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B123" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>91</v>
+        <v>1300</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5706,16 +5688,16 @@
     </row>
     <row r="124" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B124" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>92</v>
+        <v>1300</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5742,16 +5724,16 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B125" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>93</v>
+        <v>1300</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5778,16 +5760,16 @@
     </row>
     <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B126" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5814,16 +5796,16 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B127" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5850,16 +5832,16 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B128" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>14</v>
+        <v>1850</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5886,16 +5868,16 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B129" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>9</v>
+        <v>1850</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5922,16 +5904,16 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B130" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>128</v>
+        <v>1850</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5958,16 +5940,16 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B131" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>127</v>
+        <v>2500</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -5994,16 +5976,16 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B132" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>129</v>
+        <v>2500</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6030,16 +6012,16 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B133" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>154</v>
+        <v>2500</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6066,16 +6048,16 @@
     </row>
     <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B134" s="6">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6102,16 +6084,16 @@
     </row>
     <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B135" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>14</v>
+        <v>6000</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6138,16 +6120,16 @@
     </row>
     <row r="136" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B136" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>6</v>
+        <v>6000</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6174,16 +6156,16 @@
     </row>
     <row r="137" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B137" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>5</v>
+        <v>6000</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6208,18 +6190,18 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B138" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>8</v>
+        <v>5400</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6244,18 +6226,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B139" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>99</v>
+        <v>5400</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6280,18 +6262,18 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B140" s="6">
-        <v>1900</v>
+        <v>5400</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6316,18 +6298,18 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B141" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>6</v>
+        <v>5400</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6354,16 +6336,16 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="B142" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>155</v>
+        <v>3150</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="8">
+        <v>99999</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6390,16 +6372,16 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B143" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>8</v>
+        <v>1000</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6426,16 +6408,16 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B144" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>157</v>
+        <v>1000</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6462,16 +6444,16 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B145" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="8">
-        <v>99999</v>
+        <v>1000</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6498,16 +6480,16 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B146" s="6">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6534,220 +6516,220 @@
     </row>
     <row r="147" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B147" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>9</v>
+        <v>1900</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
+        <v>184</v>
+      </c>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B148" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>14</v>
+        <v>1900</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B149" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>91</v>
+        <v>1900</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B150" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C150" s="9" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="151" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B151" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C151" s="11" t="s">
+      <c r="D151" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B152" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="152" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B152" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D152" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B153" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7000</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B154" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>131</v>
+        <v>7000</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="8">
+        <v>99999</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B155" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="8">
-        <v>99999</v>
+        <v>4000</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B156" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>5</v>
+        <v>4000</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B157" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>8</v>
+        <v>4000</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B158" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>198</v>
+        <v>6500</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B159" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>199</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
     </row>
     <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B160" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>203</v>
+        <v>6500</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6774,16 +6756,16 @@
     </row>
     <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B161" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>8</v>
+        <v>6500</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6810,63 +6792,27 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B162" s="6">
-        <v>5900</v>
+        <v>6500</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D162" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
-      <c r="V162" s="1"/>
-      <c r="W162" s="1"/>
-      <c r="X162" s="1"/>
-      <c r="Y162" s="1"/>
-      <c r="Z162" s="1"/>
-    </row>
-    <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B163" s="6">
-        <v>7200</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>175</v>
+      <c r="D162" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{56B62A3D-0211-4749-B8E5-A199ABD782BB}"/>
-    <hyperlink ref="D32" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{6211B793-DC8E-426D-8DD5-2D8D1183B929}"/>
-    <hyperlink ref="D34" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{F8976B69-8C9C-47DD-8AE5-EAAFB5D91D96}"/>
-    <hyperlink ref="D35" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{964763E0-8EA6-4717-AE0D-C5F68FEE67CA}"/>
-    <hyperlink ref="D36" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{2FE5530F-5F41-47E4-832B-6EDEED2BA81D}"/>
-    <hyperlink ref="D54" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{C2E83F9E-2BEA-41F9-BD50-4110DF047865}"/>
-    <hyperlink ref="D56" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{1E222A24-0F20-44C3-9420-F92BCE70820A}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{EAB7840F-68E7-412C-A7AE-66CAB88AC1C7}"/>
+    <hyperlink ref="D33" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{D738F9F8-9791-4201-8E07-1FD76072C2D8}"/>
+    <hyperlink ref="D35" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{D3694BBA-98B1-44B7-B815-F27561ACEF31}"/>
+    <hyperlink ref="D36" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{923C7DC5-1DEB-4D16-8A35-A85E705D29AF}"/>
+    <hyperlink ref="D37" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{6EA97975-6335-4C28-A3BC-EB0A3D3095A2}"/>
+    <hyperlink ref="D55" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{A8B2CC0B-BE99-4971-8B46-0D0DBEDF006A}"/>
+    <hyperlink ref="D57" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{0B6647D2-931F-4F9F-97BD-094356C4D38E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8818500-FCD8-413D-B5AC-691B227D57C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61B58D-463C-4AA2-B5C4-B05319DA4FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="220">
   <si>
     <t>Customer Name</t>
   </si>
@@ -192,12 +192,6 @@
     <t>ST.JOSEPH</t>
   </si>
   <si>
-    <t>anthm_jatchley</t>
-  </si>
-  <si>
-    <t>anthm_kjacobo</t>
-  </si>
-  <si>
     <t>btp_ssison</t>
   </si>
   <si>
@@ -423,9 +417,6 @@
     <t>AllCare To You</t>
   </si>
   <si>
-    <t>anthm_thassan</t>
-  </si>
-  <si>
     <t>APN CT</t>
   </si>
   <si>
@@ -474,9 +465,6 @@
     <t>CHOC.aavellaneda</t>
   </si>
   <si>
-    <t>DMcAndrew.</t>
-  </si>
-  <si>
     <t>scmg_dennis.cheung</t>
   </si>
   <si>
@@ -649,6 +637,54 @@
   </si>
   <si>
     <t>Santé</t>
+  </si>
+  <si>
+    <t>DMcAndrew</t>
+  </si>
+  <si>
+    <t>Antonio_Ferrey</t>
+  </si>
+  <si>
+    <t>Stanford Health Care</t>
+  </si>
+  <si>
+    <t>Torrance Memorial IPA</t>
+  </si>
+  <si>
+    <t>TMIPA_cteng</t>
+  </si>
+  <si>
+    <t>TMIPA_aip</t>
+  </si>
+  <si>
+    <t>Office Admin Practice and Provider Delegate</t>
+  </si>
+  <si>
+    <t>TMIPA_Apartovi</t>
+  </si>
+  <si>
+    <t>TMIPA_ctsuneishi2</t>
+  </si>
+  <si>
+    <t>U.S. Renal Care</t>
+  </si>
+  <si>
+    <t>USRC_anna.giang</t>
+  </si>
+  <si>
+    <t>TM_mrendle</t>
+  </si>
+  <si>
+    <t>PPG_hbollen</t>
+  </si>
+  <si>
+    <t>Western Health Advantage</t>
+  </si>
+  <si>
+    <t>wha_jbaillie</t>
+  </si>
+  <si>
+    <t>wha_sowens1</t>
   </si>
 </sst>
 </file>
@@ -862,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -928,6 +964,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z162"/>
+  <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H172" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1335,7 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6">
         <v>99999</v>
@@ -1332,7 +1371,7 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6">
         <v>4350</v>
@@ -1377,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1413,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1440,7 +1479,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6">
         <v>1750</v>
@@ -1476,7 +1515,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" s="6">
         <v>2750</v>
@@ -1521,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1557,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1593,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1629,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1661,11 +1700,11 @@
       <c r="B12" s="6">
         <v>3700</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="21">
+        <v>99999</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1692,16 +1731,16 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="B13" s="6">
-        <v>3700</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>132</v>
+        <v>3750</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21">
+        <v>99999</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1728,16 +1767,16 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B14" s="6">
-        <v>3700</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
+        <v>2600</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8">
+        <v>99999</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1764,15 +1803,15 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>3750</v>
+        <v>2200</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="8">
         <v>99999</v>
       </c>
       <c r="E15" s="1"/>
@@ -1800,10 +1839,10 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="B16" s="6">
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
@@ -1836,10 +1875,10 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="B17" s="6">
-        <v>2200</v>
+        <v>6800</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>12</v>
@@ -1872,16 +1911,16 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>3250</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8">
-        <v>99999</v>
+        <v>1600</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1908,16 +1947,16 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>6800</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8">
-        <v>99999</v>
+        <v>1600</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1949,11 +1988,11 @@
       <c r="B20" s="6">
         <v>1600</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>5</v>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1985,11 +2024,11 @@
       <c r="B21" s="6">
         <v>1600</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>8</v>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2016,16 +2055,16 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B22" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>57</v>
+        <v>6700</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8">
+        <v>99999</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2052,16 +2091,16 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="B23" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>58</v>
+        <v>7100</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2088,16 +2127,16 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B24" s="6">
-        <v>6700</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="8">
-        <v>99999</v>
+        <v>7100</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2124,16 +2163,16 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="6">
         <v>7100</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>5</v>
+      <c r="C25" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
@@ -2158,18 +2197,18 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B26" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>172</v>
+        <v>4700</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8">
+        <v>99999</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2194,18 +2233,18 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B27" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>173</v>
+        <v>7500</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2232,16 +2271,16 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="B28" s="6">
-        <v>4700</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="8">
-        <v>99999</v>
+        <v>7500</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2266,18 +2305,18 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="B29" s="6">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2302,18 +2341,18 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="B30" s="6">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2345,10 +2384,10 @@
       <c r="B31" s="6">
         <v>3200</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="1"/>
@@ -2376,16 +2415,16 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="B32" s="6">
-        <v>3200</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>60</v>
+        <v>2050</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="8">
+        <v>99999</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2412,16 +2451,16 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="6">
-        <v>3200</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>9</v>
+        <v>3100</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2448,16 +2487,16 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="B34" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8">
-        <v>99999</v>
+        <v>3100</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2489,11 +2528,11 @@
       <c r="B35" s="6">
         <v>3100</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>5</v>
+      <c r="C35" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2520,16 +2559,16 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>63</v>
+        <v>1700</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2556,16 +2595,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>135</v>
+        <v>1700</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2597,11 +2636,11 @@
       <c r="B38" s="6">
         <v>1700</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>5</v>
+      <c r="C38" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2628,16 +2667,16 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>8</v>
+        <v>2900</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2664,16 +2703,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>9</v>
+        <v>2900</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2705,11 +2744,11 @@
       <c r="B41" s="6">
         <v>2900</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>5</v>
+      <c r="C41" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2741,11 +2780,11 @@
       <c r="B42" s="6">
         <v>2900</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>8</v>
+      <c r="C42" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2772,16 +2811,16 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B43" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>14</v>
+        <v>1800</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2808,16 +2847,16 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B44" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
+        <v>1800</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2849,8 +2888,8 @@
       <c r="B45" s="6">
         <v>1800</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>5</v>
+      <c r="C45" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>64</v>
@@ -2885,8 +2924,8 @@
       <c r="B46" s="6">
         <v>1800</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>8</v>
+      <c r="C46" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>65</v>
@@ -2916,16 +2955,16 @@
     </row>
     <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>66</v>
+        <v>4300</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2952,16 +2991,16 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B48" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>67</v>
+        <v>3000</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2988,16 +3027,16 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" s="6">
-        <v>4300</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>163</v>
+        <v>3000</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3029,11 +3068,11 @@
       <c r="B50" s="6">
         <v>3000</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>68</v>
+      <c r="C50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3065,10 +3104,10 @@
       <c r="B51" s="6">
         <v>3000</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>115</v>
       </c>
       <c r="E51" s="1"/>
@@ -3101,11 +3140,11 @@
       <c r="B52" s="6">
         <v>3000</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>9</v>
+      <c r="C52" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3132,16 +3171,16 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>117</v>
+        <v>3500</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3168,16 +3207,16 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>164</v>
+        <v>3500</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3209,11 +3248,11 @@
       <c r="B55" s="6">
         <v>3500</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>5</v>
+      <c r="C55" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3240,16 +3279,16 @@
     </row>
     <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B56" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>69</v>
+        <v>200</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="8">
+        <v>99999</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3276,16 +3315,16 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="B57" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>70</v>
+        <v>4250</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="8">
+        <v>99999</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3312,16 +3351,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="B58" s="6">
-        <v>200</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="8">
-        <v>99999</v>
+        <v>2350</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3348,10 +3387,10 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="B59" s="6">
-        <v>4250</v>
+        <v>3600</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>12</v>
@@ -3384,16 +3423,16 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B60" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>165</v>
+        <v>2250</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="8">
+        <v>99999</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3420,16 +3459,16 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B61" s="6">
-        <v>3600</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="8">
-        <v>99999</v>
+        <v>2650</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3456,16 +3495,16 @@
     </row>
     <row r="62" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B62" s="6">
-        <v>2250</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="8">
-        <v>99999</v>
+        <v>2650</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3492,16 +3531,16 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="B63" s="6">
-        <v>2650</v>
+        <v>4600</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3528,16 +3567,16 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="B64" s="6">
-        <v>2650</v>
+        <v>4600</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3569,8 +3608,8 @@
       <c r="B65" s="6">
         <v>4600</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>5</v>
+      <c r="C65" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>71</v>
@@ -3605,11 +3644,11 @@
       <c r="B66" s="6">
         <v>4600</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>8</v>
+      <c r="C66" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3636,16 +3675,16 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B67" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>9</v>
+        <v>150</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3672,16 +3711,16 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B68" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3713,11 +3752,11 @@
       <c r="B69" s="6">
         <v>150</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>5</v>
+      <c r="C69" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3749,11 +3788,11 @@
       <c r="B70" s="6">
         <v>150</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>8</v>
+      <c r="C70" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3785,11 +3824,11 @@
       <c r="B71" s="6">
         <v>150</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>9</v>
+      <c r="C71" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3814,18 +3853,18 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="B72" s="6">
-        <v>150</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>121</v>
+        <v>5700</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3850,18 +3889,18 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="B73" s="6">
-        <v>150</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>180</v>
+        <v>5700</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3886,18 +3925,18 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="B74" s="6">
-        <v>5700</v>
+        <v>2700</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="22" t="s">
-        <v>199</v>
+      <c r="D74" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3922,18 +3961,18 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="B75" s="6">
-        <v>5700</v>
+        <v>2700</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>181</v>
+        <v>14</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3960,16 +3999,16 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B76" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>157</v>
+        <v>1950</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="8">
+        <v>99999</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3996,16 +4035,16 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B77" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>122</v>
+        <v>2000</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="8">
+        <v>99999</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4032,10 +4071,10 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="B78" s="6">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>12</v>
@@ -4068,16 +4107,16 @@
     </row>
     <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B79" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="8">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4104,16 +4143,16 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B80" s="6">
-        <v>2100</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="8">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4140,16 +4179,16 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="B81" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>106</v>
+        <v>3850</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="8">
+        <v>99999</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4176,16 +4215,16 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="B82" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>8</v>
+        <v>1100</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4212,16 +4251,16 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="B83" s="6">
-        <v>3850</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4253,8 +4292,8 @@
       <c r="B84" s="6">
         <v>1100</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>5</v>
+      <c r="C84" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>74</v>
@@ -4289,8 +4328,8 @@
       <c r="B85" s="6">
         <v>1100</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>8</v>
+      <c r="C85" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>75</v>
@@ -4320,16 +4359,16 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B86" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>76</v>
+        <v>3300</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="8">
+        <v>99999</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4356,16 +4395,16 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B87" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>77</v>
+        <v>4500</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="8">
+        <v>99999</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4392,10 +4431,10 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B88" s="6">
-        <v>3300</v>
+        <v>5100</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>12</v>
@@ -4428,10 +4467,10 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B89" s="6">
-        <v>4500</v>
+        <v>7400</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>12</v>
@@ -4462,12 +4501,12 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B90" s="6">
-        <v>5100</v>
+        <v>2800</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>12</v>
@@ -4498,12 +4537,12 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="B91" s="6">
-        <v>7400</v>
+        <v>1550</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>12</v>
@@ -4536,10 +4575,10 @@
     </row>
     <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B92" s="6">
-        <v>2800</v>
+        <v>6600</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
@@ -4572,10 +4611,10 @@
     </row>
     <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="B93" s="6">
-        <v>1550</v>
+        <v>5200</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
@@ -4608,10 +4647,10 @@
     </row>
     <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="B94" s="6">
-        <v>6600</v>
+        <v>4800</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
@@ -4644,10 +4683,10 @@
     </row>
     <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="B95" s="6">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
@@ -4680,10 +4719,10 @@
     </row>
     <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B96" s="6">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>12</v>
@@ -4716,15 +4755,15 @@
     </row>
     <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="B97" s="6">
-        <v>5300</v>
+        <v>2950</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="21">
         <v>99999</v>
       </c>
       <c r="E97" s="1"/>
@@ -4750,12 +4789,12 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B98" s="6">
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>12</v>
@@ -4786,17 +4825,17 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B99" s="6">
-        <v>2950</v>
+        <v>3950</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="8">
         <v>99999</v>
       </c>
       <c r="E99" s="1"/>
@@ -4824,10 +4863,10 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B100" s="6">
-        <v>4100</v>
+        <v>5000</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
@@ -4860,10 +4899,10 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B101" s="6">
-        <v>3950</v>
+        <v>3550</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>12</v>
@@ -4896,10 +4935,10 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="B102" s="6">
-        <v>5000</v>
+        <v>3650</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>12</v>
@@ -4930,12 +4969,12 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B103" s="6">
-        <v>3550</v>
+        <v>2450</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>12</v>
@@ -4968,10 +5007,10 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B104" s="6">
-        <v>3650</v>
+        <v>3450</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>12</v>
@@ -5002,12 +5041,12 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="B105" s="6">
-        <v>2450</v>
+        <v>3350</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>12</v>
@@ -5040,10 +5079,10 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="B106" s="6">
-        <v>3450</v>
+        <v>1650</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>12</v>
@@ -5076,10 +5115,10 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="B107" s="6">
-        <v>3350</v>
+        <v>3400</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>12</v>
@@ -5112,16 +5151,16 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B108" s="6">
-        <v>1650</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="8">
-        <v>99999</v>
+        <v>1200</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5148,16 +5187,16 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B109" s="6">
-        <v>3400</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="8">
-        <v>99999</v>
+        <v>1200</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5189,11 +5228,11 @@
       <c r="B110" s="6">
         <v>1200</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>45</v>
+      <c r="C110" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5225,11 +5264,11 @@
       <c r="B111" s="6">
         <v>1200</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>5</v>
+      <c r="C111" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5261,11 +5300,11 @@
       <c r="B112" s="6">
         <v>1200</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>8</v>
+      <c r="C112" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5292,16 +5331,16 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B113" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>6</v>
+        <v>3900</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5328,16 +5367,16 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B114" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>152</v>
+        <v>3900</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5369,8 +5408,8 @@
       <c r="B115" s="6">
         <v>3900</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>5</v>
+      <c r="C115" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>80</v>
@@ -5405,8 +5444,8 @@
       <c r="B116" s="6">
         <v>3900</v>
       </c>
-      <c r="C116" s="13" t="s">
-        <v>9</v>
+      <c r="C116" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>81</v>
@@ -5436,16 +5475,16 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="B117" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>82</v>
+        <v>2550</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5472,16 +5511,16 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B118" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>6</v>
+        <v>3800</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5508,16 +5547,16 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B119" s="6">
-        <v>2550</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>189</v>
+        <v>3800</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5549,11 +5588,11 @@
       <c r="B120" s="6">
         <v>3800</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>5</v>
+      <c r="C120" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5580,16 +5619,16 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B121" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>14</v>
+        <v>1300</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5616,16 +5655,16 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B122" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>6</v>
+        <v>1300</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5657,8 +5696,8 @@
       <c r="B123" s="6">
         <v>1300</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>5</v>
+      <c r="C123" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>85</v>
@@ -5693,8 +5732,8 @@
       <c r="B124" s="6">
         <v>1300</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>8</v>
+      <c r="C124" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>86</v>
@@ -5729,11 +5768,11 @@
       <c r="B125" s="6">
         <v>1300</v>
       </c>
-      <c r="C125" s="13" t="s">
-        <v>9</v>
+      <c r="C125" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5760,16 +5799,16 @@
     </row>
     <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="B126" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>14</v>
+        <v>1850</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5796,16 +5835,16 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="B127" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>6</v>
+        <v>1850</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5832,16 +5871,16 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B128" s="6">
         <v>1850</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>146</v>
+      <c r="C128" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5868,16 +5907,16 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="B129" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>166</v>
+        <v>2500</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5904,16 +5943,16 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="B130" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>14</v>
+        <v>2500</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5945,8 +5984,8 @@
       <c r="B131" s="6">
         <v>2500</v>
       </c>
-      <c r="C131" s="18" t="s">
-        <v>45</v>
+      <c r="C131" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>89</v>
@@ -5976,15 +6015,15 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B132" s="6">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E132" s="1"/>
@@ -6012,16 +6051,16 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B133" s="6">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="19" t="s">
-        <v>91</v>
+      <c r="D133" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6053,11 +6092,11 @@
       <c r="B134" s="6">
         <v>6000</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>5</v>
+      <c r="C134" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6089,11 +6128,11 @@
       <c r="B135" s="6">
         <v>6000</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>8</v>
+      <c r="C135" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6118,18 +6157,18 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B136" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>14</v>
+        <v>5400</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6154,18 +6193,18 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B137" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>148</v>
+        <v>5400</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6192,16 +6231,16 @@
     </row>
     <row r="138" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B138" s="6">
         <v>5400</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>5</v>
+      <c r="C138" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6228,16 +6267,16 @@
     </row>
     <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B139" s="6">
         <v>5400</v>
       </c>
-      <c r="C139" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>123</v>
+      <c r="C139" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6262,18 +6301,18 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="B140" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>125</v>
+        <v>3150</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="8">
+        <v>99999</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6298,18 +6337,18 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B141" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>9</v>
+        <v>1000</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6336,16 +6375,16 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="B142" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="8">
-        <v>99999</v>
+        <v>1000</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6377,11 +6416,11 @@
       <c r="B143" s="6">
         <v>1000</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>5</v>
+      <c r="C143" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6408,13 +6447,13 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B144" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>14</v>
+        <v>1900</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>94</v>
@@ -6444,16 +6483,16 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B145" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>6</v>
+        <v>1900</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6485,11 +6524,11 @@
       <c r="B146" s="6">
         <v>1900</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>5</v>
+      <c r="C146" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6521,11 +6560,11 @@
       <c r="B147" s="6">
         <v>1900</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>8</v>
+      <c r="C147" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6535,95 +6574,95 @@
       <c r="B148" s="6">
         <v>1900</v>
       </c>
-      <c r="C148" s="13" t="s">
-        <v>9</v>
+      <c r="C148" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B149" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>14</v>
+        <v>7000</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B150" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>6</v>
+        <v>7000</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B151" s="6">
         <v>7000</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>5</v>
+      <c r="C151" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B152" s="6">
         <v>7000</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C152" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B153" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>152</v>
+        <v>4000</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B154" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="8">
-        <v>99999</v>
+        <v>4000</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6633,39 +6672,39 @@
       <c r="B155" s="6">
         <v>4000</v>
       </c>
-      <c r="C155" s="9" t="s">
-        <v>5</v>
+      <c r="C155" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B156" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>98</v>
+        <v>6500</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B157" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>99</v>
+        <v>6500</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6675,11 +6714,11 @@
       <c r="B158" s="6">
         <v>6500</v>
       </c>
-      <c r="C158" s="18" t="s">
-        <v>45</v>
+      <c r="C158" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6689,10 +6728,10 @@
       <c r="B159" s="6">
         <v>6500</v>
       </c>
-      <c r="C159" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="12" t="s">
+      <c r="C159" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E159" s="1"/>
@@ -6725,8 +6764,8 @@
       <c r="B160" s="6">
         <v>6500</v>
       </c>
-      <c r="C160" s="11" t="s">
-        <v>8</v>
+      <c r="C160" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>101</v>
@@ -6761,11 +6800,11 @@
       <c r="B161" s="6">
         <v>6500</v>
       </c>
-      <c r="C161" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>102</v>
+      <c r="C161" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6792,27 +6831,153 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="B162" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C162" s="14" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B163" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B165" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B166" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B167" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B168" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B169" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C169" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D162" s="12" t="s">
-        <v>103</v>
+      <c r="D169" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B170" s="6">
+        <v>7200</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B171" s="6">
+        <v>7200</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{EAB7840F-68E7-412C-A7AE-66CAB88AC1C7}"/>
-    <hyperlink ref="D33" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{D738F9F8-9791-4201-8E07-1FD76072C2D8}"/>
-    <hyperlink ref="D35" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{D3694BBA-98B1-44B7-B815-F27561ACEF31}"/>
-    <hyperlink ref="D36" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{923C7DC5-1DEB-4D16-8A35-A85E705D29AF}"/>
-    <hyperlink ref="D37" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{6EA97975-6335-4C28-A3BC-EB0A3D3095A2}"/>
-    <hyperlink ref="D55" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{A8B2CC0B-BE99-4971-8B46-0D0DBEDF006A}"/>
-    <hyperlink ref="D57" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{0B6647D2-931F-4F9F-97BD-094356C4D38E}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{7906E05B-955C-49F9-A61C-CA814AA0C26C}"/>
+    <hyperlink ref="D31" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{68F58185-DA7C-42FF-81F6-DA880977A07D}"/>
+    <hyperlink ref="D33" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{F6B1C0F2-7451-4C19-8748-54197F8E1305}"/>
+    <hyperlink ref="D34" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{9C495BA9-C6C1-4F55-8FA8-3DD119BFAA81}"/>
+    <hyperlink ref="D35" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{62D45994-036B-4235-B039-5FA86BD1BA73}"/>
+    <hyperlink ref="D53" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{90ACDEE1-5D3F-46F4-AB1C-EAD33215B2CB}"/>
+    <hyperlink ref="D55" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{B9BEBCB6-E070-40CD-8B03-38A2D6D0FB12}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\PycharmProjects\Release-Team-Verification-Suite\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61B58D-463C-4AA2-B5C4-B05319DA4FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8FB58D-DC47-4186-A1D7-9904D0891852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,9 +381,6 @@
     <t>GNP_Bwoods</t>
   </si>
   <si>
-    <t>dbouyear_pracDel</t>
-  </si>
-  <si>
     <t>aomalley</t>
   </si>
   <si>
@@ -685,6 +682,9 @@
   </si>
   <si>
     <t>wha_sowens1</t>
+  </si>
+  <si>
+    <t>GNP_kim.holford</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H172" sqref="H172"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="6">
         <v>4350</v>
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="6">
         <v>1750</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6">
         <v>2750</v>
@@ -1560,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1596,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1632,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="6">
         <v>3750</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6">
         <v>2600</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="6">
         <v>3250</v>
@@ -1920,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1956,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="6">
         <v>7100</v>
@@ -2100,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="6">
         <v>7100</v>
@@ -2136,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2163,16 +2163,16 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="6">
         <v>7100</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="27" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="6">
         <v>7500</v>
@@ -2244,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="6">
         <v>7500</v>
@@ -2280,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="6">
         <v>2050</v>
@@ -2532,7 +2532,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2568,7 +2568,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2604,7 +2604,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2640,7 +2640,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2712,7 +2712,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2748,7 +2748,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2964,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3144,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3180,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B57" s="6">
         <v>4250</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" s="6">
         <v>2350</v>
@@ -3360,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" s="6">
         <v>2250</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" s="6">
         <v>2650</v>
@@ -3468,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="62" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B62" s="6">
         <v>2650</v>
@@ -3504,7 +3504,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3720,7 +3720,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3755,8 +3755,8 @@
       <c r="C69" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>118</v>
+      <c r="D69" t="s">
+        <v>219</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3792,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3828,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="72" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72" s="6">
         <v>5700</v>
@@ -3864,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3891,16 +3891,16 @@
     </row>
     <row r="73" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B73" s="6">
         <v>5700</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3936,7 +3936,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3972,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" s="6">
         <v>1950</v>
@@ -4152,7 +4152,7 @@
         <v>8</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="6">
         <v>3850</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="90" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="6">
         <v>2800</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="91" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91" s="6">
         <v>1550</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B97" s="6">
         <v>2950</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B99" s="6">
         <v>3950</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B101" s="6">
         <v>3550</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" s="6">
         <v>3650</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="103" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="6">
         <v>2450</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B104" s="6">
         <v>3450</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B105" s="6">
         <v>3350</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B106" s="6">
         <v>1650</v>
@@ -5196,7 +5196,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5268,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5301,10 +5301,10 @@
         <v>1200</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B117" s="6">
         <v>2550</v>
@@ -5484,7 +5484,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5556,7 +5556,7 @@
         <v>14</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5592,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5772,7 +5772,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B126" s="6">
         <v>1850</v>
@@ -5808,7 +5808,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B127" s="6">
         <v>1850</v>
@@ -5844,7 +5844,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="6">
         <v>1850</v>
@@ -5880,7 +5880,7 @@
         <v>14</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -6060,7 +6060,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6132,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6168,7 +6168,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6204,7 +6204,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6240,7 +6240,7 @@
         <v>14</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6276,7 +6276,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B140" s="6">
         <v>3150</v>
@@ -6348,7 +6348,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6492,7 +6492,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6564,7 +6564,7 @@
         <v>14</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6578,7 +6578,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6592,7 +6592,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6606,7 +6606,7 @@
         <v>8</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6617,10 +6617,10 @@
         <v>7000</v>
       </c>
       <c r="C151" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6648,7 +6648,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6804,7 +6804,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B162" s="6">
         <v>5800</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B163" s="6">
         <v>4400</v>
@@ -6854,12 +6854,12 @@
         <v>5</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B164" s="6">
         <v>4400</v>
@@ -6868,26 +6868,26 @@
         <v>8</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B165" s="6">
         <v>4400</v>
       </c>
       <c r="C165" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B166" s="6">
         <v>4400</v>
@@ -6896,12 +6896,12 @@
         <v>6</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B167" s="6">
         <v>5900</v>
@@ -6910,12 +6910,12 @@
         <v>5</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B168" s="6">
         <v>5900</v>
@@ -6924,12 +6924,12 @@
         <v>8</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B169" s="6">
         <v>5900</v>
@@ -6938,12 +6938,12 @@
         <v>14</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B170" s="6">
         <v>7200</v>
@@ -6952,12 +6952,12 @@
         <v>5</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B171" s="6">
         <v>7200</v>
@@ -6966,7 +6966,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8FB58D-DC47-4186-A1D7-9904D0891852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADE90F-AA15-4A9C-BDD7-10D546DD0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADE90F-AA15-4A9C-BDD7-10D546DD0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1949B06F-3F00-4289-9FFF-1F5D954A1662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="214">
   <si>
     <t>Customer Name</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Children First Medical Group</t>
   </si>
   <si>
-    <t>CKC</t>
-  </si>
-  <si>
     <t>Dignity Health</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>EXCL_DKHAY</t>
   </si>
   <si>
-    <t>Family Choice</t>
-  </si>
-  <si>
     <t>FirstChoice Medical Group</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Prospect</t>
   </si>
   <si>
-    <t>Providence LA</t>
-  </si>
-  <si>
     <t>Quality</t>
   </si>
   <si>
@@ -189,42 +180,18 @@
     <t>Sharp Healthcare</t>
   </si>
   <si>
-    <t>ST.JOSEPH</t>
-  </si>
-  <si>
     <t>btp_ssison</t>
   </si>
   <si>
     <t>BTP_KKHOO</t>
   </si>
   <si>
-    <t>ckc.mhillard1</t>
-  </si>
-  <si>
-    <t>CKC.jtrinh</t>
-  </si>
-  <si>
-    <t>ckc.familypractice</t>
-  </si>
-  <si>
     <t>dchristy</t>
   </si>
   <si>
     <t>dhmf_abajwa</t>
   </si>
   <si>
-    <t>Jhall_FCA</t>
-  </si>
-  <si>
-    <t>cnguyen_fca</t>
-  </si>
-  <si>
-    <t>mtran_fca</t>
-  </si>
-  <si>
-    <t>cmai_fca</t>
-  </si>
-  <si>
     <t>adriana.x.hernandez@healthnet.com</t>
   </si>
   <si>
@@ -288,15 +255,6 @@
     <t>Baodanh</t>
   </si>
   <si>
-    <t>PROV_areyes</t>
-  </si>
-  <si>
-    <t>PROV_Aalvarez</t>
-  </si>
-  <si>
-    <t>PROV_AGamini</t>
-  </si>
-  <si>
     <t>RCHN.nevans</t>
   </si>
   <si>
@@ -321,18 +279,6 @@
     <t>sharp_DEVUM</t>
   </si>
   <si>
-    <t>dwixson_cert</t>
-  </si>
-  <si>
-    <t>DUARTEM3</t>
-  </si>
-  <si>
-    <t>StJoe_AAjit</t>
-  </si>
-  <si>
-    <t>Allevato_A</t>
-  </si>
-  <si>
     <t>Optum Care Network of Oregon</t>
   </si>
   <si>
@@ -639,12 +585,6 @@
     <t>DMcAndrew</t>
   </si>
   <si>
-    <t>Antonio_Ferrey</t>
-  </si>
-  <si>
-    <t>Stanford Health Care</t>
-  </si>
-  <si>
     <t>Torrance Memorial IPA</t>
   </si>
   <si>
@@ -684,7 +624,49 @@
     <t>wha_sowens1</t>
   </si>
   <si>
-    <t>GNP_kim.holford</t>
+    <t>Aetna (CAPCI)</t>
+  </si>
+  <si>
+    <t>Blue Shield of CA</t>
+  </si>
+  <si>
+    <t>Choice Physicians Network</t>
+  </si>
+  <si>
+    <t>DeID2</t>
+  </si>
+  <si>
+    <t>Health Net (CAPCI)</t>
+  </si>
+  <si>
+    <t>Health Net CA</t>
+  </si>
+  <si>
+    <t>KPC Excel ACO</t>
+  </si>
+  <si>
+    <t>KPCEX_JHall</t>
+  </si>
+  <si>
+    <t>dbouyear_pracDel</t>
+  </si>
+  <si>
+    <t>Oasis Health</t>
+  </si>
+  <si>
+    <t>Sante_Kdotson</t>
+  </si>
+  <si>
+    <t>Sante_MSucilla</t>
+  </si>
+  <si>
+    <t>Sante_MDias</t>
+  </si>
+  <si>
+    <t>Simulated Customer 1 (Deid)</t>
+  </si>
+  <si>
+    <t>Test Customer</t>
   </si>
 </sst>
 </file>
@@ -724,7 +706,8 @@
     <font>
       <u/>
       <sz val="10"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -898,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -963,11 +946,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1284,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z171"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1321,7 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6">
         <v>99999</v>
@@ -1371,10 +1357,10 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B3" s="6">
-        <v>4350</v>
+        <v>4050</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
@@ -1407,16 +1393,16 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="B4" s="6">
-        <v>2400</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>163</v>
+        <v>4350</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8">
+        <v>99999</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1448,11 +1434,11 @@
       <c r="B5" s="6">
         <v>2400</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>111</v>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1479,16 +1465,16 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>1750</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
-        <v>99999</v>
+        <v>2400</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1515,10 +1501,10 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="B7" s="6">
-        <v>2750</v>
+        <v>1750</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -1551,16 +1537,16 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>164</v>
+        <v>2750</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8">
+        <v>99999</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1592,11 +1578,11 @@
       <c r="B9" s="6">
         <v>1500</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>165</v>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1628,11 +1614,11 @@
       <c r="B10" s="6">
         <v>1500</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>166</v>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1664,11 +1650,11 @@
       <c r="B11" s="6">
         <v>1500</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>6</v>
+      <c r="C11" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1695,16 +1681,16 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>3700</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="21">
-        <v>99999</v>
+        <v>1500</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1731,10 +1717,10 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>3750</v>
+        <v>3700</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
@@ -1767,15 +1753,15 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="B14" s="6">
-        <v>2600</v>
+        <v>3750</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="21">
         <v>99999</v>
       </c>
       <c r="E14" s="1"/>
@@ -1803,10 +1789,10 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B15" s="6">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>12</v>
@@ -1839,10 +1825,10 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>3250</v>
+        <v>2200</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
@@ -1875,10 +1861,10 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="B17" s="6">
-        <v>6800</v>
+        <v>3250</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>12</v>
@@ -1911,16 +1897,16 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="B18" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>188</v>
+        <v>4550</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <v>99999</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1947,16 +1933,16 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B19" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>153</v>
+        <v>6800</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8">
+        <v>99999</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1988,11 +1974,11 @@
       <c r="B20" s="6">
         <v>1600</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>14</v>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2024,11 +2010,11 @@
       <c r="B21" s="6">
         <v>1600</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>6</v>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2055,16 +2041,16 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6">
-        <v>6700</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8">
-        <v>99999</v>
+        <v>1600</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2091,16 +2077,16 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>125</v>
+        <v>1600</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2127,16 +2113,16 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B24" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>167</v>
+        <v>6700</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8">
+        <v>99999</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2163,16 +2149,16 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B25" s="6">
         <v>7100</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>169</v>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
@@ -2197,18 +2183,18 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B26" s="6">
-        <v>4700</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="8">
-        <v>99999</v>
+        <v>7100</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2233,15 +2219,15 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="6">
+        <v>7100</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B27" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>151</v>
@@ -2271,16 +2257,16 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B28" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>155</v>
+        <v>4700</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8">
+        <v>99999</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2305,18 +2291,18 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="B29" s="6">
-        <v>3200</v>
+        <v>7500</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2341,18 +2327,18 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="B30" s="6">
-        <v>3200</v>
+        <v>7500</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2379,16 +2365,16 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="B31" s="6">
-        <v>3200</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>59</v>
+        <v>1450</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8">
+        <v>99999</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2415,7 +2401,7 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B32" s="6">
         <v>2050</v>
@@ -2451,16 +2437,16 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="B33" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>60</v>
+        <v>5520</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="8">
+        <v>99999</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2487,16 +2473,16 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="6">
         <v>3100</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>8</v>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2523,16 +2509,16 @@
     </row>
     <row r="35" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="6">
         <v>3100</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>14</v>
+      <c r="C35" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2559,16 +2545,16 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>156</v>
+        <v>3100</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2595,16 +2581,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="6">
         <v>1700</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>8</v>
+      <c r="C37" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2631,16 +2617,16 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="6">
         <v>1700</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>9</v>
+      <c r="C38" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2667,16 +2653,16 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>5</v>
+        <v>1700</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2703,16 +2689,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="6">
         <v>2900</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>8</v>
+      <c r="C40" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2739,16 +2725,16 @@
     </row>
     <row r="41" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="6">
         <v>2900</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>14</v>
+      <c r="C41" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2775,16 +2761,16 @@
     </row>
     <row r="42" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="6">
         <v>2900</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>6</v>
+      <c r="C42" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2811,16 +2797,16 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B43" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>5</v>
+        <v>2900</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2847,16 +2833,16 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>63</v>
+        <v>4300</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2886,13 +2872,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>64</v>
+        <v>3000</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2922,13 +2908,13 @@
         <v>22</v>
       </c>
       <c r="B46" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>6</v>
+        <v>3000</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2955,16 +2941,16 @@
     </row>
     <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="6">
-        <v>4300</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>5</v>
+        <v>3000</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2991,16 +2977,16 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B48" s="6">
         <v>3000</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>66</v>
+      <c r="C48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3027,16 +3013,16 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" s="6">
         <v>3000</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>113</v>
+      <c r="C49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3063,16 +3049,16 @@
     </row>
     <row r="50" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="B50" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>114</v>
+        <v>3050</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="8">
+        <v>99999</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3099,16 +3085,16 @@
     </row>
     <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="B51" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>115</v>
+        <v>4150</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="8">
+        <v>99999</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3135,16 +3121,16 @@
     </row>
     <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>159</v>
+        <v>3500</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3171,16 +3157,16 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53" s="6">
         <v>3500</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>191</v>
+      <c r="C53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3207,16 +3193,16 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B54" s="6">
         <v>3500</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>67</v>
+      <c r="C54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3243,16 +3229,16 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>68</v>
+        <v>200</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="8">
+        <v>99999</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3279,10 +3265,10 @@
     </row>
     <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="B56" s="6">
-        <v>200</v>
+        <v>4250</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>12</v>
@@ -3315,16 +3301,16 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="B57" s="6">
-        <v>4250</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="8">
-        <v>99999</v>
+        <v>2350</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3351,16 +3337,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="B58" s="6">
-        <v>2350</v>
+        <v>4750</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3387,7 +3373,7 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" s="6">
         <v>3600</v>
@@ -3423,7 +3409,7 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B60" s="6">
         <v>2250</v>
@@ -3459,7 +3445,7 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B61" s="6">
         <v>2650</v>
@@ -3468,7 +3454,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3495,7 +3481,7 @@
     </row>
     <row r="62" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B62" s="6">
         <v>2650</v>
@@ -3504,7 +3490,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3531,7 +3517,7 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B63" s="6">
         <v>4600</v>
@@ -3540,7 +3526,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3567,7 +3553,7 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B64" s="6">
         <v>4600</v>
@@ -3576,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3603,7 +3589,7 @@
     </row>
     <row r="65" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" s="6">
         <v>4600</v>
@@ -3612,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3639,7 +3625,7 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" s="6">
         <v>4600</v>
@@ -3648,7 +3634,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3675,7 +3661,7 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" s="6">
         <v>150</v>
@@ -3684,7 +3670,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3711,7 +3697,7 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" s="6">
         <v>150</v>
@@ -3720,7 +3706,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3747,7 +3733,7 @@
     </row>
     <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B69" s="6">
         <v>150</v>
@@ -3755,8 +3741,8 @@
       <c r="C69" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D69" t="s">
-        <v>219</v>
+      <c r="D69" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3783,7 +3769,7 @@
     </row>
     <row r="70" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="6">
         <v>150</v>
@@ -3792,7 +3778,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3819,7 +3805,7 @@
     </row>
     <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B71" s="6">
         <v>150</v>
@@ -3828,7 +3814,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3855,7 +3841,7 @@
     </row>
     <row r="72" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B72" s="6">
         <v>5700</v>
@@ -3863,8 +3849,8 @@
       <c r="C72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>194</v>
+      <c r="D72" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3891,16 +3877,16 @@
     </row>
     <row r="73" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B73" s="6">
         <v>5700</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3927,7 +3913,7 @@
     </row>
     <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B74" s="6">
         <v>2700</v>
@@ -3936,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3963,7 +3949,7 @@
     </row>
     <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B75" s="6">
         <v>2700</v>
@@ -3972,7 +3958,7 @@
         <v>14</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3999,7 +3985,7 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B76" s="6">
         <v>1950</v>
@@ -4035,7 +4021,7 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B77" s="6">
         <v>2000</v>
@@ -4071,7 +4057,7 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B78" s="6">
         <v>2100</v>
@@ -4107,7 +4093,7 @@
     </row>
     <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B79" s="6">
         <v>5600</v>
@@ -4116,7 +4102,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4143,7 +4129,7 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B80" s="6">
         <v>5600</v>
@@ -4152,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4179,7 +4165,7 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B81" s="6">
         <v>3850</v>
@@ -4215,16 +4201,16 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="B82" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>72</v>
+        <v>4450</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="8">
+        <v>99999</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4251,16 +4237,16 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B83" s="6">
         <v>1100</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>8</v>
+      <c r="C83" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4287,16 +4273,16 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B84" s="6">
         <v>1100</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>9</v>
+      <c r="C84" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4323,16 +4309,16 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B85" s="6">
         <v>1100</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>6</v>
+      <c r="C85" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4359,16 +4345,16 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B86" s="6">
-        <v>3300</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4395,10 +4381,10 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B87" s="6">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>12</v>
@@ -4431,7 +4417,7 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B88" s="6">
         <v>5100</v>
@@ -4467,7 +4453,7 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B89" s="6">
         <v>7400</v>
@@ -4503,7 +4489,7 @@
     </row>
     <row r="90" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B90" s="6">
         <v>2800</v>
@@ -4539,7 +4525,7 @@
     </row>
     <row r="91" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B91" s="6">
         <v>1550</v>
@@ -4573,12 +4559,12 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B92" s="6">
-        <v>6600</v>
+        <v>4100</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
@@ -4611,10 +4597,10 @@
     </row>
     <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B93" s="6">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
@@ -4647,10 +4633,10 @@
     </row>
     <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B94" s="6">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
@@ -4683,10 +4669,10 @@
     </row>
     <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="B95" s="6">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
@@ -4719,10 +4705,10 @@
     </row>
     <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B96" s="6">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>12</v>
@@ -4755,15 +4741,15 @@
     </row>
     <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="B97" s="6">
-        <v>2950</v>
+        <v>4900</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="8">
         <v>99999</v>
       </c>
       <c r="E97" s="1"/>
@@ -4789,17 +4775,17 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="B98" s="6">
-        <v>4100</v>
+        <v>2950</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="21">
         <v>99999</v>
       </c>
       <c r="E98" s="1"/>
@@ -4827,10 +4813,10 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="B99" s="6">
-        <v>3950</v>
+        <v>5000</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
@@ -4863,10 +4849,10 @@
     </row>
     <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="B100" s="6">
-        <v>5000</v>
+        <v>1650</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
@@ -4899,10 +4885,10 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="B101" s="6">
-        <v>3550</v>
+        <v>4500</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>12</v>
@@ -4935,10 +4921,10 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B102" s="6">
-        <v>3650</v>
+        <v>3950</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>12</v>
@@ -4969,12 +4955,12 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="B103" s="6">
-        <v>2450</v>
+        <v>3550</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>12</v>
@@ -5007,10 +4993,10 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B104" s="6">
-        <v>3450</v>
+        <v>3650</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>12</v>
@@ -5041,12 +5027,12 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="B105" s="6">
-        <v>3350</v>
+        <v>2450</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>12</v>
@@ -5079,10 +5065,10 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="B106" s="6">
-        <v>1650</v>
+        <v>3450</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>12</v>
@@ -5115,10 +5101,10 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="B107" s="6">
-        <v>3400</v>
+        <v>3350</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>12</v>
@@ -5151,16 +5137,16 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B108" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>76</v>
+        <v>3400</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="8">
+        <v>99999</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5187,16 +5173,16 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B109" s="6">
         <v>1200</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>5</v>
+      <c r="C109" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5223,16 +5209,16 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B110" s="6">
         <v>1200</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>8</v>
+      <c r="C110" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5259,16 +5245,16 @@
     </row>
     <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B111" s="6">
         <v>1200</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>6</v>
+      <c r="C111" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5295,16 +5281,16 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B112" s="6">
         <v>1200</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>147</v>
+      <c r="C112" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5331,16 +5317,16 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B113" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5367,16 +5353,16 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B114" s="6">
         <v>3900</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>9</v>
+      <c r="C114" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5403,16 +5389,16 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B115" s="6">
         <v>3900</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>14</v>
+      <c r="C115" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5439,16 +5425,16 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B116" s="6">
         <v>3900</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>6</v>
+      <c r="C116" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5475,16 +5461,16 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B117" s="6">
-        <v>2550</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>184</v>
+        <v>3900</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5511,16 +5497,16 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="B118" s="6">
-        <v>3800</v>
+        <v>2550</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>82</v>
+      <c r="D118" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5547,16 +5533,16 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B119" s="6">
         <v>3800</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>14</v>
+      <c r="C119" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5583,16 +5569,16 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B120" s="6">
         <v>3800</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>6</v>
+      <c r="C120" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5619,16 +5605,16 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B121" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>5</v>
+        <v>3800</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5655,16 +5641,16 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B122" s="6">
         <v>1300</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>8</v>
+      <c r="C122" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5691,16 +5677,16 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B123" s="6">
         <v>1300</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>9</v>
+      <c r="C123" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5727,16 +5713,16 @@
     </row>
     <row r="124" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B124" s="6">
         <v>1300</v>
       </c>
-      <c r="C124" s="14" t="s">
-        <v>14</v>
+      <c r="C124" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5763,16 +5749,16 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B125" s="6">
         <v>1300</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>6</v>
+      <c r="C125" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5799,16 +5785,16 @@
     </row>
     <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="B126" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5835,16 +5821,16 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B127" s="6">
         <v>1850</v>
       </c>
-      <c r="C127" s="11" t="s">
-        <v>8</v>
+      <c r="C127" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5871,16 +5857,16 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B128" s="6">
         <v>1850</v>
       </c>
-      <c r="C128" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>162</v>
+      <c r="C128" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5907,16 +5893,16 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B129" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>45</v>
+        <v>1850</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5943,16 +5929,16 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B130" s="6">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="19" t="s">
-        <v>88</v>
+      <c r="D130" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5979,16 +5965,16 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B131" s="6">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="19" t="s">
-        <v>89</v>
+      <c r="D131" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6015,16 +6001,16 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B132" s="6">
         <v>6000</v>
       </c>
-      <c r="C132" s="9" t="s">
-        <v>5</v>
+      <c r="C132" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6051,16 +6037,16 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B133" s="6">
         <v>6000</v>
       </c>
-      <c r="C133" s="11" t="s">
-        <v>8</v>
+      <c r="C133" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6085,18 +6071,18 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B134" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>14</v>
+        <v>5400</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6121,18 +6107,18 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B135" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>144</v>
+        <v>5400</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6159,16 +6145,16 @@
     </row>
     <row r="136" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B136" s="6">
         <v>5400</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>5</v>
+      <c r="C136" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6195,16 +6181,16 @@
     </row>
     <row r="137" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B137" s="6">
         <v>5400</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>120</v>
+      <c r="C137" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6229,18 +6215,18 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="B138" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>122</v>
+        <v>3150</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6265,18 +6251,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="B139" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>203</v>
+        <v>3150</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6303,16 +6289,16 @@
     </row>
     <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B140" s="6">
         <v>3150</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="8">
-        <v>99999</v>
+      <c r="C140" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6339,7 +6325,7 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B141" s="6">
         <v>1000</v>
@@ -6348,7 +6334,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6375,7 +6361,7 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B142" s="6">
         <v>1000</v>
@@ -6384,7 +6370,7 @@
         <v>14</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6411,7 +6397,7 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B143" s="6">
         <v>1000</v>
@@ -6420,7 +6406,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6447,7 +6433,7 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B144" s="6">
         <v>1900</v>
@@ -6456,7 +6442,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6483,7 +6469,7 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B145" s="6">
         <v>1900</v>
@@ -6492,7 +6478,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6519,7 +6505,7 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B146" s="6">
         <v>1900</v>
@@ -6528,7 +6514,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6555,7 +6541,7 @@
     </row>
     <row r="147" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B147" s="6">
         <v>1900</v>
@@ -6564,12 +6550,12 @@
         <v>14</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B148" s="6">
         <v>1900</v>
@@ -6578,12 +6564,12 @@
         <v>6</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B149" s="6">
         <v>7000</v>
@@ -6592,12 +6578,12 @@
         <v>5</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B150" s="6">
         <v>7000</v>
@@ -6606,26 +6592,26 @@
         <v>8</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B151" s="6">
         <v>7000</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B152" s="6">
         <v>7000</v>
@@ -6639,7 +6625,7 @@
     </row>
     <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B153" s="6">
         <v>4000</v>
@@ -6648,12 +6634,12 @@
         <v>5</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B154" s="6">
         <v>4000</v>
@@ -6662,12 +6648,12 @@
         <v>9</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B155" s="6">
         <v>4000</v>
@@ -6676,63 +6662,63 @@
         <v>14</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="B156" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>87</v>
+        <v>5510</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="8">
+        <v>99999</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="B157" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>98</v>
+        <v>7350</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="8">
+        <v>99999</v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="B158" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>99</v>
+        <v>4400</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="B159" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>9</v>
+        <v>4400</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -6757,18 +6743,18 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="B160" s="6">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>101</v>
+        <v>189</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6795,16 +6781,16 @@
     </row>
     <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="B161" s="6">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D161" s="12" t="s">
-        <v>204</v>
+      <c r="D161" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6831,156 +6817,85 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B162" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="8">
-        <v>99999</v>
+        <v>5900</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B163" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>5</v>
+        <v>5900</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B164" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>8</v>
+        <v>5900</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="165" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B165" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>210</v>
+        <v>7200</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B166" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B167" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="168" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B168" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C168" s="11" t="s">
+        <v>7200</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="169" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B169" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="170" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B170" s="6">
-        <v>7200</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B171" s="6">
-        <v>7200</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>218</v>
+      <c r="D166" s="22" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{7906E05B-955C-49F9-A61C-CA814AA0C26C}"/>
-    <hyperlink ref="D31" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37053699&amp;forPersonCustId=3200" xr:uid="{68F58185-DA7C-42FF-81F6-DA880977A07D}"/>
-    <hyperlink ref="D33" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{F6B1C0F2-7451-4C19-8748-54197F8E1305}"/>
-    <hyperlink ref="D34" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{9C495BA9-C6C1-4F55-8FA8-3DD119BFAA81}"/>
-    <hyperlink ref="D35" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{62D45994-036B-4235-B039-5FA86BD1BA73}"/>
-    <hyperlink ref="D53" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{90ACDEE1-5D3F-46F4-AB1C-EAD33215B2CB}"/>
-    <hyperlink ref="D55" r:id="rId7" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{B9BEBCB6-E070-40CD-8B03-38A2D6D0FB12}"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{8F891FE7-2E88-4CC9-950E-6B686ECF53FD}"/>
+    <hyperlink ref="D34" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{1E85FA58-ABBF-496E-BE0E-E6DD92EADE53}"/>
+    <hyperlink ref="D35" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{B4C90CE9-4244-4478-938B-AD39CDDAFAFA}"/>
+    <hyperlink ref="D36" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9A0C2856-CB38-494E-BABD-BE4DC0F09012}"/>
+    <hyperlink ref="D52" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
+    <hyperlink ref="D54" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1949B06F-3F00-4289-9FFF-1F5D954A1662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FAF511-CC3C-4D69-B7F5-7B82E1668F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="218">
   <si>
     <t>Customer Name</t>
   </si>
@@ -477,9 +477,6 @@
     <t>Bjohnson</t>
   </si>
   <si>
-    <t>Ofiice Admin</t>
-  </si>
-  <si>
     <t>Adesbaillets</t>
   </si>
   <si>
@@ -667,6 +664,21 @@
   </si>
   <si>
     <t>Test Customer</t>
+  </si>
+  <si>
+    <t>Ofiice Admin Provider Delegate</t>
+  </si>
+  <si>
+    <t>CONIFER_Alan.Minner</t>
+  </si>
+  <si>
+    <t>CONIFER_Rudy.Marilla</t>
+  </si>
+  <si>
+    <t>CONIFER_reception@hobbsmedicalgroup.com</t>
+  </si>
+  <si>
+    <t>Ofiice Admin Practice Delegate</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1295,7 @@
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1369,7 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="6">
         <v>4050</v>
@@ -1393,7 +1405,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="6">
         <v>4350</v>
@@ -1643,7 +1655,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1753,7 +1765,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="6">
         <v>3750</v>
@@ -1861,7 +1873,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="6">
         <v>3250</v>
@@ -1897,7 +1909,7 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="6">
         <v>4550</v>
@@ -1978,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2039,7 +2051,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2231,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>106</v>
       </c>
@@ -2227,10 +2239,10 @@
         <v>7100</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2365,7 +2377,7 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="6">
         <v>1450</v>
@@ -2373,7 +2385,7 @@
       <c r="C31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="12">
         <v>99999</v>
       </c>
       <c r="E31" s="1"/>
@@ -2406,11 +2418,11 @@
       <c r="B32" s="6">
         <v>2050</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="8">
-        <v>99999</v>
+      <c r="C32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2437,16 +2449,16 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="B33" s="6">
-        <v>5520</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8">
-        <v>99999</v>
+        <v>2050</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2471,18 +2483,18 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B34" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>53</v>
+        <v>2050</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2509,16 +2521,16 @@
     </row>
     <row r="35" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="B35" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>54</v>
+        <v>5520</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="12">
+        <v>99999</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2550,11 +2562,11 @@
       <c r="B36" s="6">
         <v>3100</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>113</v>
+      <c r="C36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2581,16 +2593,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>138</v>
+        <v>3100</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2615,18 +2627,18 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>139</v>
+        <v>3100</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2658,11 +2670,11 @@
       <c r="B39" s="6">
         <v>1700</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>9</v>
+      <c r="C39" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2689,16 +2701,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>5</v>
+        <v>1700</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2723,18 +2735,18 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>8</v>
+        <v>1700</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2766,11 +2778,11 @@
       <c r="B42" s="6">
         <v>2900</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>14</v>
+      <c r="C42" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2802,11 +2814,11 @@
       <c r="B43" s="6">
         <v>2900</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>6</v>
+      <c r="C43" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2831,18 +2843,18 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B44" s="6">
-        <v>4300</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>140</v>
+        <v>2900</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2869,16 +2881,16 @@
     </row>
     <row r="45" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B45" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>55</v>
+        <v>2900</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2905,16 +2917,16 @@
     </row>
     <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>95</v>
+        <v>4300</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2946,11 +2958,11 @@
       <c r="B47" s="6">
         <v>3000</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>96</v>
+      <c r="C47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2982,11 +2994,11 @@
       <c r="B48" s="6">
         <v>3000</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>97</v>
+      <c r="C48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3011,18 +3023,18 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="6">
         <v>3000</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>6</v>
+      <c r="C49" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3047,18 +3059,18 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="B50" s="6">
-        <v>3050</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="8">
-        <v>99999</v>
+        <v>3000</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3085,16 +3097,16 @@
     </row>
     <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="B51" s="6">
-        <v>4150</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="8">
-        <v>99999</v>
+        <v>3000</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3121,16 +3133,16 @@
     </row>
     <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="B52" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>173</v>
+        <v>3050</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="8">
+        <v>99999</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3157,16 +3169,16 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="B53" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>56</v>
+        <v>4150</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="8">
+        <v>99999</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3198,11 +3210,11 @@
       <c r="B54" s="6">
         <v>3500</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>14</v>
+      <c r="C54" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3229,16 +3241,16 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="6">
-        <v>200</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3263,18 +3275,18 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="B56" s="6">
-        <v>4250</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3301,16 +3313,16 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="B57" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>142</v>
+        <v>200</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="8">
+        <v>99999</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3337,16 +3349,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B58" s="6">
-        <v>4750</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>206</v>
+        <v>4250</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="8">
+        <v>99999</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3373,16 +3385,16 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="B59" s="6">
-        <v>3600</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="8">
-        <v>99999</v>
+        <v>2350</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3409,16 +3421,16 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="B60" s="6">
-        <v>2250</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="8">
-        <v>99999</v>
+        <v>4750</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3445,16 +3457,16 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="B61" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>154</v>
+        <v>3600</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="8">
+        <v>99999</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3479,18 +3491,18 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B62" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>155</v>
+        <v>2250</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="8">
+        <v>99999</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3517,16 +3529,16 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="B63" s="6">
-        <v>4600</v>
+        <v>2650</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3551,18 +3563,18 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="B64" s="6">
-        <v>4600</v>
+        <v>2650</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3594,11 +3606,11 @@
       <c r="B65" s="6">
         <v>4600</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>9</v>
+      <c r="C65" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3630,11 +3642,11 @@
       <c r="B66" s="6">
         <v>4600</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>6</v>
+      <c r="C66" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3659,18 +3671,18 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" s="6">
-        <v>150</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>5</v>
+        <v>4600</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3697,16 +3709,16 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" s="6">
-        <v>150</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>8</v>
+        <v>4600</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3738,11 +3750,11 @@
       <c r="B69" s="6">
         <v>150</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>9</v>
+      <c r="C69" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3774,11 +3786,11 @@
       <c r="B70" s="6">
         <v>150</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>14</v>
+      <c r="C70" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3803,18 +3815,18 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B71" s="6">
         <v>150</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>6</v>
+      <c r="C71" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3839,18 +3851,18 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="B72" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>176</v>
+        <v>150</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3875,18 +3887,18 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="B73" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3911,18 +3923,18 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B74" s="6">
-        <v>2700</v>
+        <v>5700</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>134</v>
+      <c r="D74" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3947,18 +3959,18 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B75" s="6">
-        <v>2700</v>
+        <v>5700</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>101</v>
+        <v>129</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3985,16 +3997,16 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B76" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4019,18 +4031,18 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4057,10 +4069,10 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="B78" s="6">
-        <v>2100</v>
+        <v>1950</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>12</v>
@@ -4093,16 +4105,16 @@
     </row>
     <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B79" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>86</v>
+        <v>2000</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="8">
+        <v>99999</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4129,16 +4141,16 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B80" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>117</v>
+        <v>2100</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="8">
+        <v>99999</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4165,16 +4177,16 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="B81" s="6">
-        <v>3850</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="8">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4201,16 +4213,16 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="B82" s="6">
-        <v>4450</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="8">
-        <v>99999</v>
+        <v>5600</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4237,16 +4249,16 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="B83" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>61</v>
+        <v>3850</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="8">
+        <v>99999</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4273,16 +4285,16 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="B84" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>62</v>
+        <v>4450</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="8">
+        <v>99999</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4314,11 +4326,11 @@
       <c r="B85" s="6">
         <v>1100</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>9</v>
+      <c r="C85" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4350,11 +4362,11 @@
       <c r="B86" s="6">
         <v>1100</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>6</v>
+      <c r="C86" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4379,18 +4391,18 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B87" s="6">
-        <v>3300</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4417,16 +4429,16 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B88" s="6">
-        <v>5100</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4453,10 +4465,10 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B89" s="6">
-        <v>7400</v>
+        <v>3300</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>12</v>
@@ -4487,12 +4499,12 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="B90" s="6">
-        <v>2800</v>
+        <v>5100</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>12</v>
@@ -4523,12 +4535,12 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B91" s="6">
-        <v>1550</v>
+        <v>7400</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>12</v>
@@ -4559,12 +4571,12 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="B92" s="6">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
@@ -4597,10 +4609,10 @@
     </row>
     <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B93" s="6">
-        <v>6600</v>
+        <v>1550</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>12</v>
@@ -4633,10 +4645,10 @@
     </row>
     <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B94" s="6">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>12</v>
@@ -4669,10 +4681,10 @@
     </row>
     <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B95" s="6">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
@@ -4705,10 +4717,10 @@
     </row>
     <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B96" s="6">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>12</v>
@@ -4741,10 +4753,10 @@
     </row>
     <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B97" s="6">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>12</v>
@@ -4777,15 +4789,15 @@
     </row>
     <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="B98" s="6">
-        <v>2950</v>
+        <v>5300</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="8">
         <v>99999</v>
       </c>
       <c r="E98" s="1"/>
@@ -4811,12 +4823,12 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B99" s="6">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>12</v>
@@ -4847,17 +4859,17 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="B100" s="6">
-        <v>1650</v>
+        <v>2950</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="21">
         <v>99999</v>
       </c>
       <c r="E100" s="1"/>
@@ -4885,10 +4897,10 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B101" s="6">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>12</v>
@@ -4921,10 +4933,10 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="B102" s="6">
-        <v>3950</v>
+        <v>1650</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>12</v>
@@ -4957,10 +4969,10 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="B103" s="6">
-        <v>3550</v>
+        <v>4500</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>12</v>
@@ -4993,10 +5005,10 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B104" s="6">
-        <v>3650</v>
+        <v>3950</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>12</v>
@@ -5027,12 +5039,12 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B105" s="6">
-        <v>2450</v>
+        <v>3550</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>12</v>
@@ -5065,10 +5077,10 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B106" s="6">
-        <v>3450</v>
+        <v>3650</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>12</v>
@@ -5099,12 +5111,12 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="B107" s="6">
-        <v>3350</v>
+        <v>2450</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>12</v>
@@ -5137,10 +5149,10 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="B108" s="6">
-        <v>3400</v>
+        <v>3450</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>12</v>
@@ -5173,16 +5185,16 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="B109" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>65</v>
+        <v>3350</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="8">
+        <v>99999</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5209,16 +5221,16 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B110" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>120</v>
+        <v>3400</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="8">
+        <v>99999</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5250,11 +5262,11 @@
       <c r="B111" s="6">
         <v>1200</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>8</v>
+      <c r="C111" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5286,11 +5298,11 @@
       <c r="B112" s="6">
         <v>1200</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>6</v>
+      <c r="C112" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5322,11 +5334,11 @@
       <c r="B113" s="6">
         <v>1200</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>129</v>
+      <c r="C113" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5353,16 +5365,16 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B114" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5389,16 +5401,16 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B115" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>9</v>
+        <v>1200</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5430,11 +5442,11 @@
       <c r="B116" s="6">
         <v>3900</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>14</v>
+      <c r="C116" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5459,18 +5471,18 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B117" s="6">
         <v>3900</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>6</v>
+      <c r="C117" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5495,18 +5507,18 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="B118" s="6">
-        <v>2550</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>166</v>
+        <v>3900</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5533,16 +5545,16 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B119" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>5</v>
+        <v>3900</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5569,16 +5581,16 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B120" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>121</v>
+        <v>2550</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5610,11 +5622,11 @@
       <c r="B121" s="6">
         <v>3800</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>6</v>
+      <c r="C121" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5639,18 +5651,18 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B122" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>5</v>
+        <v>3800</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5677,16 +5689,16 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B123" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>8</v>
+        <v>3800</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5718,11 +5730,11 @@
       <c r="B124" s="6">
         <v>1300</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>9</v>
+      <c r="C124" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5754,11 +5766,11 @@
       <c r="B125" s="6">
         <v>1300</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>14</v>
+      <c r="C125" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5783,18 +5795,18 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B126" s="6">
         <v>1300</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>6</v>
+      <c r="C126" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5819,18 +5831,18 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B127" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5857,16 +5869,16 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B128" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5898,11 +5910,11 @@
       <c r="B129" s="6">
         <v>1850</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>144</v>
+      <c r="C129" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5929,16 +5941,16 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B130" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>5</v>
+        <v>1850</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5963,18 +5975,18 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B131" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>125</v>
+        <v>1850</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6006,11 +6018,11 @@
       <c r="B132" s="6">
         <v>6000</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>14</v>
+      <c r="C132" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6042,11 +6054,11 @@
       <c r="B133" s="6">
         <v>6000</v>
       </c>
-      <c r="C133" s="13" t="s">
-        <v>9</v>
+      <c r="C133" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6071,18 +6083,18 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B134" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>5</v>
+        <v>6000</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6107,18 +6119,18 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B135" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>102</v>
+        <v>6000</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6150,11 +6162,11 @@
       <c r="B136" s="6">
         <v>5400</v>
       </c>
-      <c r="C136" s="14" t="s">
-        <v>14</v>
+      <c r="C136" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6186,11 +6198,11 @@
       <c r="B137" s="6">
         <v>5400</v>
       </c>
-      <c r="C137" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>185</v>
+      <c r="C137" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6215,18 +6227,18 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="B138" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>209</v>
+        <v>5400</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6251,18 +6263,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B139" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="B139" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6289,16 +6301,16 @@
     </row>
     <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B140" s="6">
         <v>3150</v>
       </c>
-      <c r="C140" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>211</v>
+      <c r="C140" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6325,16 +6337,16 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="B141" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>105</v>
+        <v>3150</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6359,18 +6371,18 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="B142" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C142" s="14" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C142" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>78</v>
+      <c r="D142" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6402,11 +6414,11 @@
       <c r="B143" s="6">
         <v>1000</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>6</v>
+      <c r="C143" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6431,18 +6443,18 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B144" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6469,16 +6481,16 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B145" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>8</v>
+        <v>1000</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6510,11 +6522,11 @@
       <c r="B146" s="6">
         <v>1900</v>
       </c>
-      <c r="C146" s="13" t="s">
-        <v>9</v>
+      <c r="C146" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6546,53 +6558,97 @@
       <c r="B147" s="6">
         <v>1900</v>
       </c>
-      <c r="C147" s="14" t="s">
-        <v>14</v>
+      <c r="C147" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
+    </row>
+    <row r="148" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B148" s="6">
         <v>1900</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
+    </row>
+    <row r="149" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B149" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="150" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B150" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="D150" s="8" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6602,11 +6658,11 @@
       <c r="B151" s="6">
         <v>7000</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>129</v>
+      <c r="C151" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6616,39 +6672,39 @@
       <c r="B152" s="6">
         <v>7000</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B153" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B154" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D154" s="8">
         <v>99999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B153" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B154" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6658,139 +6714,95 @@
       <c r="B155" s="6">
         <v>4000</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C157" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D157" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B156" s="6">
+    <row r="158" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B158" s="6">
         <v>5510</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C158" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="8">
+      <c r="D158" s="8">
         <v>99999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B157" s="6">
-        <v>7350</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="8">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B158" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B159" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-      <c r="X159" s="1"/>
-      <c r="Y159" s="1"/>
-      <c r="Z159" s="1"/>
-    </row>
-    <row r="160" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7350</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B160" s="6">
         <v>4400</v>
       </c>
-      <c r="C160" s="14" t="s">
-        <v>189</v>
+      <c r="C160" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-      <c r="X160" s="1"/>
-      <c r="Y160" s="1"/>
-      <c r="Z160" s="1"/>
+        <v>186</v>
+      </c>
     </row>
     <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B161" s="6">
         <v>4400</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>6</v>
+      <c r="C161" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6815,87 +6827,160 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B162" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>5</v>
+        <v>4400</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>193</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+      <c r="Y162" s="1"/>
+      <c r="Z162" s="1"/>
     </row>
     <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B163" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>8</v>
+        <v>4400</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>194</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
     </row>
     <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B164" s="6">
         <v>5900</v>
       </c>
-      <c r="C164" s="14" t="s">
-        <v>14</v>
+      <c r="C164" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B165" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B166" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167" s="6">
+        <v>7200</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B165" s="6">
+    </row>
+    <row r="168" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B168" s="6">
         <v>7200</v>
       </c>
-      <c r="C165" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="12" t="s">
+      <c r="C168" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B166" s="6">
-        <v>7200</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{8F891FE7-2E88-4CC9-950E-6B686ECF53FD}"/>
-    <hyperlink ref="D34" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{1E85FA58-ABBF-496E-BE0E-E6DD92EADE53}"/>
-    <hyperlink ref="D35" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{B4C90CE9-4244-4478-938B-AD39CDDAFAFA}"/>
-    <hyperlink ref="D36" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9A0C2856-CB38-494E-BABD-BE4DC0F09012}"/>
-    <hyperlink ref="D52" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
-    <hyperlink ref="D54" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
+    <hyperlink ref="D36" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{1E85FA58-ABBF-496E-BE0E-E6DD92EADE53}"/>
+    <hyperlink ref="D37" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{B4C90CE9-4244-4478-938B-AD39CDDAFAFA}"/>
+    <hyperlink ref="D38" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9A0C2856-CB38-494E-BABD-BE4DC0F09012}"/>
+    <hyperlink ref="D54" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
+    <hyperlink ref="D56" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
+    <hyperlink ref="D34" r:id="rId7" xr:uid="{488D04B8-E993-44C3-BF8F-619DB62F84E5}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FAF511-CC3C-4D69-B7F5-7B82E1668F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A43C54-7C92-4804-BF2B-EBDC949F5AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="219">
   <si>
     <t>Customer Name</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>Ofiice Admin Practice Delegate</t>
+  </si>
+  <si>
+    <t>CPN_CThompson</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1288,7 @@
   <dimension ref="A1:Z168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1298,7 @@
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1658,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +2054,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2231,7 +2234,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>106</v>
       </c>
@@ -2382,11 +2385,11 @@
       <c r="B31" s="6">
         <v>1450</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="12">
-        <v>99999</v>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2627,7 +2630,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>16</v>
       </c>
@@ -2735,7 +2738,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>17</v>
       </c>
@@ -2843,7 +2846,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>18</v>
       </c>
@@ -3023,7 +3026,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -3059,7 +3062,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -3275,7 +3278,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>23</v>
       </c>
@@ -3671,7 +3674,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>26</v>
       </c>
@@ -3815,7 +3818,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>27</v>
       </c>
@@ -3851,7 +3854,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>27</v>
       </c>
@@ -4031,7 +4034,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>28</v>
       </c>
@@ -4391,7 +4394,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>31</v>
       </c>
@@ -4643,7 +4646,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>38</v>
       </c>
@@ -5471,7 +5474,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>44</v>
       </c>
@@ -5507,7 +5510,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>44</v>
       </c>
@@ -5651,7 +5654,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>45</v>
       </c>
@@ -5795,7 +5798,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>46</v>
       </c>
@@ -5831,7 +5834,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>46</v>
       </c>
@@ -5975,7 +5978,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>123</v>
       </c>
@@ -6083,7 +6086,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>47</v>
       </c>
@@ -6119,7 +6122,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>47</v>
       </c>
@@ -6371,7 +6374,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -6443,7 +6446,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>48</v>
       </c>
@@ -6587,7 +6590,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>49</v>
       </c>
@@ -6623,7 +6626,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>49</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>50</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>50</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>191</v>
       </c>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A43C54-7C92-4804-BF2B-EBDC949F5AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA02061-C770-400A-B047-7B2296A8BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="217">
   <si>
     <t>Customer Name</t>
   </si>
@@ -57,18 +57,12 @@
     <t>Office Admin Practice Delegate</t>
   </si>
   <si>
-    <t>Anthem</t>
-  </si>
-  <si>
     <t>AppleCare Medical Group</t>
   </si>
   <si>
     <t>Cozeva Support</t>
   </si>
   <si>
-    <t>Brown &amp; Toland Physicians</t>
-  </si>
-  <si>
     <t>Office Admin Provider Delegate</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>NAMM</t>
   </si>
   <si>
-    <t>Omnicare</t>
-  </si>
-  <si>
     <t>OPTUM</t>
   </si>
   <si>
@@ -282,12 +273,6 @@
     <t>Optum Care Network of Oregon</t>
   </si>
   <si>
-    <t>Nivano Physicians</t>
-  </si>
-  <si>
-    <t>josec@nivanophysicians.com</t>
-  </si>
-  <si>
     <t>River City Medical Group ACO</t>
   </si>
   <si>
@@ -378,9 +363,6 @@
     <t>Molina Healthcare</t>
   </si>
   <si>
-    <t>Nivano_aedwards</t>
-  </si>
-  <si>
     <t>Optum Care Colorado (NWST)</t>
   </si>
   <si>
@@ -630,9 +612,6 @@
     <t>Choice Physicians Network</t>
   </si>
   <si>
-    <t>DeID2</t>
-  </si>
-  <si>
     <t>Health Net (CAPCI)</t>
   </si>
   <si>
@@ -682,6 +661,21 @@
   </si>
   <si>
     <t>CPN_CThompson</t>
+  </si>
+  <si>
+    <t>ALTURA</t>
+  </si>
+  <si>
+    <t>Altais</t>
+  </si>
+  <si>
+    <t>Anthem CA IND ACA</t>
+  </si>
+  <si>
+    <t>Central California Alliance for Health</t>
+  </si>
+  <si>
+    <t>Simulated Customer 2 (Deid)</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z168"/>
+  <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1336,13 +1330,13 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6">
         <v>99999</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8">
         <v>99999</v>
@@ -1372,13 +1366,13 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B3" s="6">
         <v>4050</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8">
         <v>99999</v>
@@ -1408,13 +1402,13 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B4" s="6">
         <v>4350</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8">
         <v>99999</v>
@@ -1453,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1489,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1516,13 +1510,13 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B7" s="6">
         <v>1750</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8">
         <v>99999</v>
@@ -1552,13 +1546,13 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B8" s="6">
         <v>2750</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8">
         <v>99999</v>
@@ -1588,16 +1582,16 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="B9" s="6">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1624,16 +1618,16 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="B10" s="6">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>147</v>
+      <c r="D10" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1660,16 +1654,16 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="B11" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>9</v>
+        <v>1600</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1696,16 +1690,16 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="B12" s="6">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1732,16 +1726,16 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>3700</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="21">
-        <v>99999</v>
+        <v>1500</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1768,16 +1762,16 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="B14" s="6">
-        <v>3750</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="21">
-        <v>99999</v>
+        <v>1500</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1804,16 +1798,16 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6">
-        <v>2600</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8">
-        <v>99999</v>
+        <v>1500</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1838,18 +1832,18 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="6">
-        <v>2200</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8">
-        <v>99999</v>
+        <v>1500</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1876,16 +1870,16 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="B17" s="6">
-        <v>3250</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1912,16 +1906,16 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B18" s="6">
-        <v>4550</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1948,16 +1942,16 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="B19" s="6">
-        <v>6800</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8">
-        <v>99999</v>
+        <v>1100</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1984,16 +1978,16 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="B20" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>5</v>
+        <v>1100</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2018,18 +2012,18 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="B21" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>135</v>
+        <v>3700</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="21">
+        <v>99999</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2056,16 +2050,16 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B22" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>51</v>
+        <v>3750</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="21">
+        <v>99999</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2092,16 +2086,16 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B23" s="6">
-        <v>1600</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>52</v>
+        <v>2600</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8">
+        <v>99999</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2128,13 +2122,13 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B24" s="6">
-        <v>6700</v>
+        <v>2200</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="8">
         <v>99999</v>
@@ -2164,19 +2158,19 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B25" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>107</v>
+        <v>3250</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="8">
+        <v>99999</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2200,16 +2194,16 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="B26" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>149</v>
+        <v>4550</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="8">
+        <v>99999</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2236,16 +2230,16 @@
     </row>
     <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B27" s="6">
-        <v>7100</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>150</v>
+        <v>6800</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8">
+        <v>99999</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2272,13 +2266,13 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="B28" s="6">
-        <v>4700</v>
+        <v>4850</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="8">
         <v>99999</v>
@@ -2306,18 +2300,18 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B29" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>133</v>
+        <v>6700</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="8">
+        <v>99999</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2342,21 +2336,21 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B30" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>137</v>
+        <v>7100</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2380,16 +2374,16 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="B31" s="6">
-        <v>1450</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>5</v>
+        <v>7100</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2416,16 +2410,16 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B32" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>5</v>
+        <v>7100</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2450,18 +2444,18 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="B33" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>215</v>
+        <v>4700</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="8">
+        <v>99999</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2488,16 +2482,16 @@
     </row>
     <row r="34" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B34" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>217</v>
+        <v>7500</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2522,18 +2516,18 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="B35" s="6">
-        <v>5520</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="12">
-        <v>99999</v>
+        <v>7500</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2560,16 +2554,16 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B36" s="6">
-        <v>3100</v>
+        <v>1450</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2596,16 +2590,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B37" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>54</v>
+        <v>2050</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2632,16 +2626,16 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B38" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>113</v>
+        <v>2050</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2666,18 +2660,18 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B39" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>138</v>
+        <v>2050</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2704,16 +2698,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B40" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>139</v>
+        <v>3100</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2740,16 +2734,16 @@
     </row>
     <row r="41" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B41" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>151</v>
+        <v>3100</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2776,16 +2770,16 @@
     </row>
     <row r="42" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B42" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>19</v>
+        <v>3100</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2812,16 +2806,16 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B43" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>8</v>
+        <v>1700</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2848,16 +2842,16 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B44" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>14</v>
+        <v>1700</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2884,16 +2878,16 @@
     </row>
     <row r="45" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B45" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>6</v>
+        <v>1700</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2920,16 +2914,16 @@
     </row>
     <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B46" s="6">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>140</v>
+      <c r="D46" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2956,16 +2950,16 @@
     </row>
     <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B47" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>55</v>
+        <v>2900</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2992,16 +2986,16 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B48" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>8</v>
+        <v>2900</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3028,16 +3022,16 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B49" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>96</v>
+        <v>2900</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3064,16 +3058,16 @@
     </row>
     <row r="50" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B50" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>14</v>
+        <v>4300</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3100,16 +3094,16 @@
     </row>
     <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" s="6">
         <v>3000</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>141</v>
+      <c r="C51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3136,16 +3130,16 @@
     </row>
     <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="B52" s="6">
-        <v>3050</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="8">
-        <v>99999</v>
+        <v>3000</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3172,16 +3166,16 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="B53" s="6">
-        <v>4150</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="8">
-        <v>99999</v>
+        <v>3000</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3208,16 +3202,16 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B54" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>172</v>
+        <v>3000</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3244,16 +3238,16 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B55" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>56</v>
+        <v>3000</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3280,16 +3274,16 @@
     </row>
     <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="B56" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>57</v>
+        <v>3050</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="8">
+        <v>99999</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3316,13 +3310,13 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="B57" s="6">
-        <v>200</v>
+        <v>4150</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="8">
         <v>99999</v>
@@ -3352,16 +3346,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="B58" s="6">
-        <v>4250</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3388,16 +3382,16 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="B59" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>142</v>
+        <v>3500</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3424,16 +3418,16 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="B60" s="6">
-        <v>4750</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>205</v>
+        <v>3500</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3460,13 +3454,13 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B61" s="6">
-        <v>3600</v>
+        <v>200</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" s="8">
         <v>99999</v>
@@ -3496,13 +3490,13 @@
     </row>
     <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B62" s="6">
-        <v>2250</v>
+        <v>4250</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" s="8">
         <v>99999</v>
@@ -3532,16 +3526,16 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="B63" s="6">
-        <v>2650</v>
+        <v>2350</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>153</v>
+      <c r="D63" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3566,18 +3560,18 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B64" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>154</v>
+        <v>4750</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3604,16 +3598,16 @@
     </row>
     <row r="65" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B65" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>58</v>
+        <v>3600</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="8">
+        <v>99999</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3640,16 +3634,16 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="B66" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>59</v>
+        <v>2250</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="8">
+        <v>99999</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3676,16 +3670,16 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="B67" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>9</v>
+        <v>2650</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3710,18 +3704,18 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="B68" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>6</v>
+        <v>2650</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3748,16 +3742,16 @@
     </row>
     <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B69" s="6">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3784,16 +3778,16 @@
     </row>
     <row r="70" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B70" s="6">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3820,16 +3814,16 @@
     </row>
     <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B71" s="6">
-        <v>150</v>
+        <v>4600</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3856,16 +3850,16 @@
     </row>
     <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B72" s="6">
-        <v>150</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>14</v>
+        <v>4600</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3892,16 +3886,16 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" s="6">
         <v>150</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>6</v>
+      <c r="C73" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3926,18 +3920,18 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B74" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3962,18 +3956,18 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B75" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4000,16 +3994,16 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B76" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4036,16 +4030,16 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B77" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>14</v>
+        <v>150</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4070,18 +4064,18 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B78" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="8">
-        <v>99999</v>
+        <v>5700</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4106,18 +4100,18 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B79" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="8">
-        <v>99999</v>
+        <v>5700</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4144,16 +4138,16 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B80" s="6">
-        <v>2100</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4180,16 +4174,16 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B81" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>5</v>
+        <v>2700</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4216,16 +4210,16 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B82" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>117</v>
+        <v>1950</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="8">
+        <v>99999</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4252,13 +4246,13 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B83" s="6">
-        <v>3850</v>
+        <v>2000</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="8">
         <v>99999</v>
@@ -4288,13 +4282,13 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="B84" s="6">
-        <v>4450</v>
+        <v>2100</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="8">
         <v>99999</v>
@@ -4324,16 +4318,16 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="B85" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>61</v>
+        <v>3850</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="8">
+        <v>99999</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4360,16 +4354,16 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="B86" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>62</v>
+        <v>4450</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="8">
+        <v>99999</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4396,16 +4390,16 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B87" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>63</v>
+        <v>3300</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="8">
+        <v>99999</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4432,16 +4426,16 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>64</v>
+        <v>5100</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="8">
+        <v>99999</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4468,13 +4462,13 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B89" s="6">
-        <v>3300</v>
+        <v>7400</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" s="8">
         <v>99999</v>
@@ -4502,15 +4496,15 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="B90" s="6">
-        <v>5100</v>
+        <v>2800</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="8">
         <v>99999</v>
@@ -4538,15 +4532,15 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B91" s="6">
-        <v>7400</v>
+        <v>1550</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" s="8">
         <v>99999</v>
@@ -4574,15 +4568,15 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B92" s="6">
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92" s="8">
         <v>99999</v>
@@ -4612,13 +4606,13 @@
     </row>
     <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B93" s="6">
-        <v>1550</v>
+        <v>6600</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" s="8">
         <v>99999</v>
@@ -4646,15 +4640,15 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B94" s="6">
-        <v>4100</v>
+        <v>5200</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" s="8">
         <v>99999</v>
@@ -4684,13 +4678,13 @@
     </row>
     <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B95" s="6">
-        <v>6600</v>
+        <v>4800</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="8">
         <v>99999</v>
@@ -4720,13 +4714,13 @@
     </row>
     <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B96" s="6">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" s="8">
         <v>99999</v>
@@ -4756,13 +4750,13 @@
     </row>
     <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B97" s="6">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="8">
         <v>99999</v>
@@ -4792,15 +4786,15 @@
     </row>
     <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="B98" s="6">
-        <v>5300</v>
+        <v>2950</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="8">
+        <v>11</v>
+      </c>
+      <c r="D98" s="21">
         <v>99999</v>
       </c>
       <c r="E98" s="1"/>
@@ -4826,15 +4820,15 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B99" s="6">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" s="8">
         <v>99999</v>
@@ -4862,17 +4856,17 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="B100" s="6">
-        <v>2950</v>
+        <v>1650</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="21">
+        <v>11</v>
+      </c>
+      <c r="D100" s="8">
         <v>99999</v>
       </c>
       <c r="E100" s="1"/>
@@ -4900,13 +4894,13 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B101" s="6">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" s="8">
         <v>99999</v>
@@ -4936,13 +4930,13 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B102" s="6">
-        <v>1650</v>
+        <v>3950</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" s="8">
         <v>99999</v>
@@ -4972,13 +4966,13 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="B103" s="6">
-        <v>4500</v>
+        <v>3550</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="8">
         <v>99999</v>
@@ -5008,13 +5002,13 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B104" s="6">
-        <v>3950</v>
+        <v>3650</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="8">
         <v>99999</v>
@@ -5042,15 +5036,15 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="B105" s="6">
-        <v>3550</v>
+        <v>2450</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" s="8">
         <v>99999</v>
@@ -5080,13 +5074,13 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B106" s="6">
-        <v>3650</v>
+        <v>3450</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="8">
         <v>99999</v>
@@ -5114,15 +5108,15 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B107" s="6">
-        <v>2450</v>
+        <v>3350</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="8">
         <v>99999</v>
@@ -5152,13 +5146,13 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B108" s="6">
-        <v>3450</v>
+        <v>3400</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" s="8">
         <v>99999</v>
@@ -5188,16 +5182,16 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B109" s="6">
-        <v>3350</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="8">
-        <v>99999</v>
+        <v>1200</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5224,16 +5218,16 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B110" s="6">
-        <v>3400</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="8">
-        <v>99999</v>
+        <v>1200</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5260,16 +5254,16 @@
     </row>
     <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B111" s="6">
         <v>1200</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>43</v>
+      <c r="C111" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5296,16 +5290,16 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B112" s="6">
         <v>1200</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>5</v>
+      <c r="C112" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5332,16 +5326,16 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B113" s="6">
         <v>1200</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>8</v>
+      <c r="C113" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5368,16 +5362,16 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B114" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>6</v>
+        <v>3900</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5404,16 +5398,16 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B115" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>129</v>
+        <v>3900</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5440,16 +5434,16 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B116" s="6">
         <v>3900</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>5</v>
+      <c r="C116" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5476,16 +5470,16 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B117" s="6">
         <v>3900</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>9</v>
+      <c r="C117" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5512,16 +5506,16 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="B118" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>69</v>
+        <v>2550</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5548,16 +5542,16 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B119" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>6</v>
+        <v>3800</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5584,16 +5578,16 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="B120" s="6">
-        <v>2550</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>165</v>
+        <v>3800</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5620,16 +5614,16 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B121" s="6">
         <v>3800</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>5</v>
+      <c r="C121" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5656,16 +5650,16 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B122" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>14</v>
+        <v>1300</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5692,16 +5686,16 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B123" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>6</v>
+        <v>1300</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5728,16 +5722,16 @@
     </row>
     <row r="124" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B124" s="6">
         <v>1300</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>5</v>
+      <c r="C124" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5764,16 +5758,16 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B125" s="6">
         <v>1300</v>
       </c>
-      <c r="C125" s="11" t="s">
-        <v>8</v>
+      <c r="C125" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5800,16 +5794,16 @@
     </row>
     <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B126" s="6">
         <v>1300</v>
       </c>
-      <c r="C126" s="13" t="s">
-        <v>9</v>
+      <c r="C126" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5836,16 +5830,16 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B127" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>14</v>
+        <v>1850</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5872,16 +5866,16 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B128" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>6</v>
+        <v>1850</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5908,16 +5902,16 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B129" s="6">
         <v>1850</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>124</v>
+      <c r="C129" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5944,16 +5938,16 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="B130" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>8</v>
+        <v>6000</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5980,16 +5974,16 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="B131" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>144</v>
+        <v>6000</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6016,16 +6010,16 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B132" s="6">
         <v>6000</v>
       </c>
-      <c r="C132" s="9" t="s">
-        <v>5</v>
+      <c r="C132" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6052,16 +6046,16 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B133" s="6">
         <v>6000</v>
       </c>
-      <c r="C133" s="11" t="s">
-        <v>8</v>
+      <c r="C133" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6086,18 +6080,18 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B134" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>14</v>
+        <v>5400</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6122,18 +6116,18 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B135" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>126</v>
+        <v>5400</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6160,16 +6154,16 @@
     </row>
     <row r="136" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B136" s="6">
         <v>5400</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>5</v>
+      <c r="C136" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6196,16 +6190,16 @@
     </row>
     <row r="137" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B137" s="6">
         <v>5400</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>102</v>
+      <c r="C137" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6230,18 +6224,18 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="B138" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>104</v>
+        <v>3150</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6266,18 +6260,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="B139" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>184</v>
+        <v>3150</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6304,16 +6298,16 @@
     </row>
     <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B140" s="6">
         <v>3150</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>208</v>
+      <c r="C140" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6340,16 +6334,16 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="B141" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>209</v>
+        <v>1000</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6376,16 +6370,16 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="B142" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C142" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>210</v>
+        <v>1000</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6412,16 +6406,16 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B143" s="6">
         <v>1000</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>5</v>
+      <c r="C143" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6448,16 +6442,16 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B144" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>14</v>
+        <v>1900</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6484,16 +6478,16 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B145" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>6</v>
+        <v>1900</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6520,16 +6514,16 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B146" s="6">
         <v>1900</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>5</v>
+      <c r="C146" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6556,211 +6550,189 @@
     </row>
     <row r="147" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B147" s="6">
         <v>1900</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>8</v>
+      <c r="C147" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B148" s="6">
         <v>1900</v>
       </c>
-      <c r="C148" s="13" t="s">
-        <v>9</v>
+      <c r="C148" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1"/>
-      <c r="X148" s="1"/>
-      <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
-    </row>
-    <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B149" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>14</v>
+        <v>7000</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B150" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>6</v>
+        <v>7000</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B151" s="6">
         <v>7000</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>5</v>
+      <c r="C151" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B152" s="6">
         <v>7000</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B153" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>129</v>
+        <v>4000</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B154" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="8">
-        <v>99999</v>
+        <v>4000</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B155" s="6">
         <v>4000</v>
       </c>
-      <c r="C155" s="9" t="s">
-        <v>5</v>
+      <c r="C155" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="B156" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5510</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="B157" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5520</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="12">
+        <v>99999</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
+    </row>
+    <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B158" s="6">
-        <v>5510</v>
+        <v>7350</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D158" s="8">
         <v>99999</v>
@@ -6768,44 +6740,66 @@
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="B159" s="6">
-        <v>7350</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="8">
-        <v>99999</v>
+        <v>4400</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B160" s="6">
         <v>4400</v>
       </c>
-      <c r="C160" s="9" t="s">
-        <v>5</v>
+      <c r="C160" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
+      <c r="Z160" s="1"/>
+    </row>
+    <row r="161" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B161" s="6">
         <v>4400</v>
       </c>
-      <c r="C161" s="11" t="s">
-        <v>8</v>
+      <c r="C161" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6830,18 +6824,18 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B162" s="6">
         <v>4400</v>
       </c>
-      <c r="C162" s="14" t="s">
-        <v>188</v>
+      <c r="C162" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6871,116 +6865,80 @@
         <v>185</v>
       </c>
       <c r="B163" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>6</v>
+        <v>5900</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
-      <c r="W163" s="1"/>
-      <c r="X163" s="1"/>
-      <c r="Y163" s="1"/>
-      <c r="Z163" s="1"/>
+        <v>186</v>
+      </c>
     </row>
     <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B164" s="6">
         <v>5900</v>
       </c>
-      <c r="C164" s="9" t="s">
-        <v>5</v>
+      <c r="C164" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B165" s="6">
         <v>5900</v>
       </c>
-      <c r="C165" s="11" t="s">
-        <v>8</v>
+      <c r="C165" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B166" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>194</v>
+        <v>7200</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B167" s="6">
         <v>7200</v>
       </c>
-      <c r="C167" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="168" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B168" s="6">
-        <v>7200</v>
-      </c>
-      <c r="C168" s="11" t="s">
+      <c r="C167" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="22" t="s">
-        <v>197</v>
+      <c r="D167" s="22" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{8F891FE7-2E88-4CC9-950E-6B686ECF53FD}"/>
-    <hyperlink ref="D36" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{1E85FA58-ABBF-496E-BE0E-E6DD92EADE53}"/>
-    <hyperlink ref="D37" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{B4C90CE9-4244-4478-938B-AD39CDDAFAFA}"/>
-    <hyperlink ref="D38" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9A0C2856-CB38-494E-BABD-BE4DC0F09012}"/>
-    <hyperlink ref="D54" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
-    <hyperlink ref="D56" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
-    <hyperlink ref="D34" r:id="rId7" xr:uid="{488D04B8-E993-44C3-BF8F-619DB62F84E5}"/>
+    <hyperlink ref="D40" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{1E85FA58-ABBF-496E-BE0E-E6DD92EADE53}"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{B4C90CE9-4244-4478-938B-AD39CDDAFAFA}"/>
+    <hyperlink ref="D42" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9A0C2856-CB38-494E-BABD-BE4DC0F09012}"/>
+    <hyperlink ref="D58" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
+    <hyperlink ref="D60" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
+    <hyperlink ref="D39" r:id="rId7" xr:uid="{488D04B8-E993-44C3-BF8F-619DB62F84E5}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA02061-C770-400A-B047-7B2296A8BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F3C52E-FB2C-4ED3-A869-747CF5969269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="215">
   <si>
     <t>Customer Name</t>
   </si>
@@ -384,9 +384,6 @@
     <t>PROV_CA_AReyes</t>
   </si>
   <si>
-    <t>CHOC.llyGuerrero</t>
-  </si>
-  <si>
     <t>CHOC.aavellaneda</t>
   </si>
   <si>
@@ -597,12 +594,6 @@
     <t>Western Health Advantage</t>
   </si>
   <si>
-    <t>wha_jbaillie</t>
-  </si>
-  <si>
-    <t>wha_sowens1</t>
-  </si>
-  <si>
     <t>Aetna (CAPCI)</t>
   </si>
   <si>
@@ -676,6 +667,9 @@
   </si>
   <si>
     <t>Simulated Customer 2 (Deid)</t>
+  </si>
+  <si>
+    <t>Choc.GGomezBarajas</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z167"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1360,7 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="6">
         <v>4050</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" s="6">
         <v>4350</v>
@@ -1447,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1546,7 +1540,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="6">
         <v>2750</v>
@@ -1582,7 +1576,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B9" s="6">
         <v>1600</v>
@@ -1591,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1618,7 +1612,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B10" s="6">
         <v>1600</v>
@@ -1627,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1654,7 +1648,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B11" s="6">
         <v>1600</v>
@@ -1690,7 +1684,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B12" s="6">
         <v>1600</v>
@@ -1735,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1771,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1807,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1870,7 +1864,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B17" s="6">
         <v>1100</v>
@@ -1906,7 +1900,7 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" s="6">
         <v>1100</v>
@@ -1942,7 +1936,7 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B19" s="6">
         <v>1100</v>
@@ -1978,7 +1972,7 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B20" s="6">
         <v>1100</v>
@@ -2014,7 +2008,7 @@
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B21" s="6">
         <v>3700</v>
@@ -2050,7 +2044,7 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="6">
         <v>3750</v>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="6">
         <v>3250</v>
@@ -2194,7 +2188,7 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B26" s="6">
         <v>4550</v>
@@ -2266,7 +2260,7 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B28" s="6">
         <v>4850</v>
@@ -2383,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2416,10 +2410,10 @@
         <v>7100</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2482,7 +2476,7 @@
     </row>
     <row r="34" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="6">
         <v>7500</v>
@@ -2491,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2518,7 +2512,7 @@
     </row>
     <row r="35" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="6">
         <v>7500</v>
@@ -2527,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2554,7 +2548,7 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B36" s="6">
         <v>1450</v>
@@ -2563,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2599,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2635,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2668,10 +2662,10 @@
         <v>2050</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2815,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2851,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2887,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2959,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2995,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3067,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3247,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3274,7 +3268,7 @@
     </row>
     <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B56" s="6">
         <v>3050</v>
@@ -3310,7 +3304,7 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B57" s="6">
         <v>4150</v>
@@ -3355,7 +3349,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3490,7 +3484,7 @@
     </row>
     <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B62" s="6">
         <v>4250</v>
@@ -3535,7 +3529,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3562,7 +3556,7 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B64" s="6">
         <v>4750</v>
@@ -3571,7 +3565,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3634,7 +3628,7 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B66" s="6">
         <v>2250</v>
@@ -3670,7 +3664,7 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="6">
         <v>2650</v>
@@ -3679,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3706,7 +3700,7 @@
     </row>
     <row r="68" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="6">
         <v>2650</v>
@@ -3715,7 +3709,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3931,7 +3925,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3967,7 +3961,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4039,7 +4033,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4075,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4108,10 +4102,10 @@
         <v>5700</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4147,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4318,7 +4312,7 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="6">
         <v>3850</v>
@@ -4354,7 +4348,7 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B86" s="6">
         <v>4450</v>
@@ -4786,7 +4780,7 @@
     </row>
     <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B98" s="6">
         <v>2950</v>
@@ -4930,7 +4924,7 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B102" s="6">
         <v>3950</v>
@@ -4966,7 +4960,7 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B103" s="6">
         <v>3550</v>
@@ -5002,7 +4996,7 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" s="6">
         <v>3650</v>
@@ -5074,7 +5068,7 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B106" s="6">
         <v>3450</v>
@@ -5110,7 +5104,7 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B107" s="6">
         <v>3350</v>
@@ -5299,7 +5293,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5332,10 +5326,10 @@
         <v>1200</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5506,7 +5500,7 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118" s="6">
         <v>2550</v>
@@ -5515,7 +5509,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5803,7 +5797,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5875,7 +5869,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5911,7 +5905,7 @@
         <v>12</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5983,7 +5977,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6055,7 +6049,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6199,7 +6193,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6226,7 +6220,7 @@
     </row>
     <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B138" s="6">
         <v>3150</v>
@@ -6235,7 +6229,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6262,7 +6256,7 @@
     </row>
     <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="6">
         <v>3150</v>
@@ -6271,7 +6265,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6298,7 +6292,7 @@
     </row>
     <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B140" s="6">
         <v>3150</v>
@@ -6307,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6487,7 +6481,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6559,7 +6553,7 @@
         <v>12</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6573,7 +6567,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6587,7 +6581,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6601,7 +6595,7 @@
         <v>8</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6612,10 +6606,10 @@
         <v>7000</v>
       </c>
       <c r="C151" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6643,7 +6637,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6676,7 +6670,7 @@
     </row>
     <row r="156" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B156" s="6">
         <v>5510</v>
@@ -6690,7 +6684,7 @@
     </row>
     <row r="157" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B157" s="6">
         <v>5520</v>
@@ -6726,7 +6720,7 @@
     </row>
     <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B158" s="6">
         <v>7350</v>
@@ -6740,7 +6734,7 @@
     </row>
     <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B159" s="6">
         <v>4400</v>
@@ -6749,12 +6743,12 @@
         <v>5</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B160" s="6">
         <v>4400</v>
@@ -6763,7 +6757,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6790,16 +6784,16 @@
     </row>
     <row r="161" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B161" s="6">
         <v>4400</v>
       </c>
       <c r="C161" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6826,7 +6820,7 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B162" s="6">
         <v>4400</v>
@@ -6835,7 +6829,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6862,7 +6856,7 @@
     </row>
     <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B163" s="6">
         <v>5900</v>
@@ -6871,12 +6865,12 @@
         <v>5</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B164" s="6">
         <v>5900</v>
@@ -6885,12 +6879,12 @@
         <v>8</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B165" s="6">
         <v>5900</v>
@@ -6899,35 +6893,21 @@
         <v>12</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B166" s="6">
         <v>7200</v>
       </c>
-      <c r="C166" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B167" s="6">
-        <v>7200</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>191</v>
+      <c r="C166" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="12">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F3C52E-FB2C-4ED3-A869-747CF5969269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14444F-0AB4-4741-AE95-E0D46A035711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="218">
   <si>
     <t>Customer Name</t>
   </si>
@@ -201,9 +201,6 @@
     <t>mpm_AnCruz</t>
   </si>
   <si>
-    <t>Omn_araheja</t>
-  </si>
-  <si>
     <t>omn_kfaust</t>
   </si>
   <si>
@@ -670,6 +667,18 @@
   </si>
   <si>
     <t>Choc.GGomezBarajas</t>
+  </si>
+  <si>
+    <t>OMG_BeSanchez</t>
+  </si>
+  <si>
+    <t>AHMG_Llyman</t>
+  </si>
+  <si>
+    <t>CPN_Mmartinez</t>
+  </si>
+  <si>
+    <t>HNETIHA_DFernandez</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1333,7 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6">
         <v>99999</v>
@@ -1360,7 +1369,7 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="6">
         <v>4050</v>
@@ -1396,7 +1405,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6">
         <v>4350</v>
@@ -1441,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1477,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1504,7 +1513,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="6">
         <v>1750</v>
@@ -1540,7 +1549,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="6">
         <v>2750</v>
@@ -1576,7 +1585,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="6">
         <v>1600</v>
@@ -1585,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1612,7 +1621,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="6">
         <v>1600</v>
@@ -1621,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1648,7 +1657,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="6">
         <v>1600</v>
@@ -1684,7 +1693,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="6">
         <v>1600</v>
@@ -1729,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1765,7 +1774,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1801,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1837,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1864,7 +1873,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="6">
         <v>1100</v>
@@ -1873,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1900,7 +1909,7 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="6">
         <v>1100</v>
@@ -1909,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1936,7 +1945,7 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="6">
         <v>1100</v>
@@ -1945,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1972,7 +1981,7 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="6">
         <v>1100</v>
@@ -1981,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2008,7 +2017,7 @@
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="6">
         <v>3700</v>
@@ -2044,7 +2053,7 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="6">
         <v>3750</v>
@@ -2080,7 +2089,7 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="6">
         <v>2600</v>
@@ -2152,7 +2161,7 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="6">
         <v>3250</v>
@@ -2188,7 +2197,7 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26" s="6">
         <v>4550</v>
@@ -2224,7 +2233,7 @@
     </row>
     <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="6">
         <v>6800</v>
@@ -2260,7 +2269,7 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="6">
         <v>4850</v>
@@ -2296,7 +2305,7 @@
     </row>
     <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="6">
         <v>6700</v>
@@ -2332,7 +2341,7 @@
     </row>
     <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="6">
         <v>7100</v>
@@ -2341,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
@@ -2368,7 +2377,7 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="6">
         <v>7100</v>
@@ -2377,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2404,16 +2413,16 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="6">
         <v>7100</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2476,7 +2485,7 @@
     </row>
     <row r="34" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="6">
         <v>7500</v>
@@ -2485,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2512,7 +2521,7 @@
     </row>
     <row r="35" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="6">
         <v>7500</v>
@@ -2521,7 +2530,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2548,7 +2557,7 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="6">
         <v>1450</v>
@@ -2557,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2584,16 +2593,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="B37" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>5</v>
+        <v>1450</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2620,16 +2629,16 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="B38" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>8</v>
+        <v>1450</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2654,18 +2663,18 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="6">
         <v>2050</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>207</v>
+      <c r="C39" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2692,16 +2701,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B40" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>5</v>
+        <v>2050</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2726,18 +2735,18 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B41" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>51</v>
+        <v>2050</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2769,11 +2778,11 @@
       <c r="B42" s="6">
         <v>3100</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>108</v>
+      <c r="C42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2800,16 +2809,16 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>131</v>
+        <v>3100</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2836,16 +2845,16 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>132</v>
+        <v>3100</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2877,11 +2886,11 @@
       <c r="B45" s="6">
         <v>1700</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>9</v>
+      <c r="C45" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2908,16 +2917,16 @@
     </row>
     <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>5</v>
+        <v>1700</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2944,16 +2953,16 @@
     </row>
     <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>8</v>
+        <v>1700</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2985,11 +2994,11 @@
       <c r="B48" s="6">
         <v>2900</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>12</v>
+      <c r="C48" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3021,11 +3030,11 @@
       <c r="B49" s="6">
         <v>2900</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>6</v>
+      <c r="C49" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3052,16 +3061,16 @@
     </row>
     <row r="50" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B50" s="6">
-        <v>4300</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>133</v>
+        <v>2900</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3088,16 +3097,16 @@
     </row>
     <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B51" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>52</v>
+        <v>2900</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3124,16 +3133,16 @@
     </row>
     <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>90</v>
+        <v>4300</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3165,11 +3174,11 @@
       <c r="B53" s="6">
         <v>3000</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>91</v>
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3201,11 +3210,11 @@
       <c r="B54" s="6">
         <v>3000</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>92</v>
+      <c r="C54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3237,11 +3246,11 @@
       <c r="B55" s="6">
         <v>3000</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>6</v>
+      <c r="C55" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3268,16 +3277,16 @@
     </row>
     <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="B56" s="6">
-        <v>3050</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="8">
-        <v>99999</v>
+        <v>3000</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3304,16 +3313,16 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="B57" s="6">
-        <v>4150</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="8">
-        <v>99999</v>
+        <v>3000</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3340,16 +3349,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="B58" s="6">
-        <v>3500</v>
+        <v>3050</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>165</v>
+      <c r="D58" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3376,16 +3385,16 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="B59" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>53</v>
+        <v>4150</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="8">
+        <v>99999</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3417,11 +3426,11 @@
       <c r="B60" s="6">
         <v>3500</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>12</v>
+      <c r="C60" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3448,16 +3457,16 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" s="6">
-        <v>200</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3484,16 +3493,16 @@
     </row>
     <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="B62" s="6">
-        <v>4250</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3520,16 +3529,16 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="B63" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>135</v>
+        <v>200</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8">
+        <v>99999</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3556,16 +3565,16 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="B64" s="6">
-        <v>4750</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>195</v>
+        <v>4250</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="8">
+        <v>99999</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3592,16 +3601,16 @@
     </row>
     <row r="65" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B65" s="6">
-        <v>3600</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="8">
-        <v>99999</v>
+        <v>2350</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3628,16 +3637,16 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B66" s="6">
-        <v>2250</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="8">
-        <v>99999</v>
+        <v>4750</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3664,16 +3673,16 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="B67" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>146</v>
+        <v>3600</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="8">
+        <v>99999</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3698,18 +3707,18 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B68" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>147</v>
+        <v>2250</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="8">
+        <v>99999</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3736,16 +3745,16 @@
     </row>
     <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B69" s="6">
-        <v>4600</v>
+        <v>2650</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3770,18 +3779,18 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B70" s="6">
-        <v>4600</v>
+        <v>2650</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3813,11 +3822,11 @@
       <c r="B71" s="6">
         <v>4600</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>9</v>
+      <c r="C71" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3849,11 +3858,11 @@
       <c r="B72" s="6">
         <v>4600</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>6</v>
+      <c r="C72" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3880,16 +3889,16 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="6">
-        <v>150</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>5</v>
+        <v>4600</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3916,16 +3925,16 @@
     </row>
     <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74" s="6">
-        <v>150</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>8</v>
+        <v>4600</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3957,11 +3966,11 @@
       <c r="B75" s="6">
         <v>150</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>9</v>
+      <c r="C75" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3993,11 +4002,11 @@
       <c r="B76" s="6">
         <v>150</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>12</v>
+      <c r="C76" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4029,11 +4038,11 @@
       <c r="B77" s="6">
         <v>150</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>6</v>
+      <c r="C77" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4058,18 +4067,18 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="B78" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>168</v>
+        <v>150</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4094,18 +4103,18 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="B79" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="1" t="s">
         <v>150</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4130,18 +4139,18 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B80" s="6">
-        <v>2700</v>
+        <v>5700</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>127</v>
+      <c r="D80" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4166,18 +4175,18 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B81" s="6">
-        <v>2700</v>
+        <v>5700</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>96</v>
+        <v>121</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4204,16 +4213,16 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B82" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4240,16 +4249,16 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4276,10 +4285,10 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B84" s="6">
-        <v>2100</v>
+        <v>1950</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>11</v>
@@ -4312,10 +4321,10 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="B85" s="6">
-        <v>3850</v>
+        <v>2000</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>11</v>
@@ -4348,10 +4357,10 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="B86" s="6">
-        <v>4450</v>
+        <v>2100</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>11</v>
@@ -4384,10 +4393,10 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="B87" s="6">
-        <v>3300</v>
+        <v>3850</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>11</v>
@@ -4420,10 +4429,10 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="B88" s="6">
-        <v>5100</v>
+        <v>4450</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>11</v>
@@ -4456,10 +4465,10 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89" s="6">
-        <v>7400</v>
+        <v>3300</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>11</v>
@@ -4490,12 +4499,12 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B90" s="6">
-        <v>2800</v>
+        <v>5100</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>11</v>
@@ -4526,12 +4535,12 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B91" s="6">
-        <v>1550</v>
+        <v>7400</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>11</v>
@@ -4562,12 +4571,12 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B92" s="6">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>11</v>
@@ -4600,10 +4609,10 @@
     </row>
     <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B93" s="6">
-        <v>6600</v>
+        <v>1550</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>11</v>
@@ -4634,12 +4643,12 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B94" s="6">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>11</v>
@@ -4672,10 +4681,10 @@
     </row>
     <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B95" s="6">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>11</v>
@@ -4708,10 +4717,10 @@
     </row>
     <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B96" s="6">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>11</v>
@@ -4744,10 +4753,10 @@
     </row>
     <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B97" s="6">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>11</v>
@@ -4780,15 +4789,15 @@
     </row>
     <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="B98" s="6">
-        <v>2950</v>
+        <v>5300</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="8">
         <v>99999</v>
       </c>
       <c r="E98" s="1"/>
@@ -4814,12 +4823,12 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B99" s="6">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>11</v>
@@ -4850,17 +4859,17 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="B100" s="6">
-        <v>1650</v>
+        <v>2950</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="21">
         <v>99999</v>
       </c>
       <c r="E100" s="1"/>
@@ -4888,10 +4897,10 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B101" s="6">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>11</v>
@@ -4924,10 +4933,10 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="B102" s="6">
-        <v>3950</v>
+        <v>1650</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>11</v>
@@ -4960,10 +4969,10 @@
     </row>
     <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="B103" s="6">
-        <v>3550</v>
+        <v>4500</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>11</v>
@@ -4996,10 +5005,10 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B104" s="6">
-        <v>3650</v>
+        <v>3950</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>11</v>
@@ -5030,12 +5039,12 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="B105" s="6">
-        <v>2450</v>
+        <v>3550</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>11</v>
@@ -5068,10 +5077,10 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B106" s="6">
-        <v>3450</v>
+        <v>3650</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>11</v>
@@ -5102,12 +5111,12 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="B107" s="6">
-        <v>3350</v>
+        <v>2450</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>11</v>
@@ -5140,10 +5149,10 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B108" s="6">
-        <v>3400</v>
+        <v>3450</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>11</v>
@@ -5176,16 +5185,16 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B109" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>62</v>
+        <v>3350</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="8">
+        <v>99999</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5212,16 +5221,16 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B110" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>114</v>
+        <v>3400</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="8">
+        <v>99999</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5253,11 +5262,11 @@
       <c r="B111" s="6">
         <v>1200</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>8</v>
+      <c r="C111" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5289,11 +5298,11 @@
       <c r="B112" s="6">
         <v>1200</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>6</v>
+      <c r="C112" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5325,11 +5334,11 @@
       <c r="B113" s="6">
         <v>1200</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>122</v>
+      <c r="C113" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5356,16 +5365,16 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B114" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5392,16 +5401,16 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B115" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>9</v>
+        <v>1200</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5433,11 +5442,11 @@
       <c r="B116" s="6">
         <v>3900</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>12</v>
+      <c r="C116" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5469,11 +5478,11 @@
       <c r="B117" s="6">
         <v>3900</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>6</v>
+      <c r="C117" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5500,16 +5509,16 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="B118" s="6">
-        <v>2550</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>158</v>
+        <v>3900</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5536,16 +5545,16 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B119" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>5</v>
+        <v>3900</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5572,16 +5581,16 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="B120" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>115</v>
+        <v>2550</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5613,11 +5622,11 @@
       <c r="B121" s="6">
         <v>3800</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>6</v>
+      <c r="C121" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5644,16 +5653,16 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B122" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>5</v>
+        <v>3800</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5680,16 +5689,16 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B123" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>8</v>
+        <v>3800</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5721,11 +5730,11 @@
       <c r="B124" s="6">
         <v>1300</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>9</v>
+      <c r="C124" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5757,11 +5766,11 @@
       <c r="B125" s="6">
         <v>1300</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>12</v>
+      <c r="C125" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5793,11 +5802,11 @@
       <c r="B126" s="6">
         <v>1300</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>6</v>
+      <c r="C126" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5824,16 +5833,16 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="B127" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5860,16 +5869,16 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="B128" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5896,16 +5905,16 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B129" s="6">
         <v>1850</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>137</v>
+      <c r="C129" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5932,16 +5941,16 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B130" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>5</v>
+        <v>1850</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5968,16 +5977,16 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B131" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>214</v>
+        <v>1850</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6009,11 +6018,11 @@
       <c r="B132" s="6">
         <v>6000</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>12</v>
+      <c r="C132" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6045,11 +6054,11 @@
       <c r="B133" s="6">
         <v>6000</v>
       </c>
-      <c r="C133" s="13" t="s">
-        <v>9</v>
+      <c r="C133" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6074,18 +6083,18 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B134" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>5</v>
+        <v>6000</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6110,18 +6119,18 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B135" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>97</v>
+        <v>6000</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6148,16 +6157,16 @@
     </row>
     <row r="136" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B136" s="6">
         <v>5400</v>
       </c>
-      <c r="C136" s="14" t="s">
-        <v>12</v>
+      <c r="C136" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6184,16 +6193,16 @@
     </row>
     <row r="137" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B137" s="6">
         <v>5400</v>
       </c>
-      <c r="C137" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>177</v>
+      <c r="C137" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6218,18 +6227,18 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="B138" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>198</v>
+        <v>5400</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6254,18 +6263,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139" s="6">
+        <v>5400</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="B139" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6292,16 +6301,16 @@
     </row>
     <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B140" s="6">
         <v>3150</v>
       </c>
-      <c r="C140" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>200</v>
+      <c r="C140" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6328,16 +6337,16 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="B141" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>100</v>
+        <v>3150</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6364,16 +6373,16 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="B142" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C142" s="14" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C142" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>75</v>
+      <c r="D142" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6405,11 +6414,11 @@
       <c r="B143" s="6">
         <v>1000</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>6</v>
+      <c r="C143" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6436,16 +6445,16 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B144" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6472,16 +6481,16 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B145" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>8</v>
+        <v>1000</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6513,11 +6522,11 @@
       <c r="B146" s="6">
         <v>1900</v>
       </c>
-      <c r="C146" s="13" t="s">
-        <v>9</v>
+      <c r="C146" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6549,12 +6558,34 @@
       <c r="B147" s="6">
         <v>1900</v>
       </c>
-      <c r="C147" s="14" t="s">
-        <v>12</v>
+      <c r="C147" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
@@ -6563,95 +6594,117 @@
       <c r="B148" s="6">
         <v>1900</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
+    </row>
+    <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="149" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B149" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B150" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="D150" s="8" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B151" s="6">
         <v>7000</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>122</v>
+      <c r="C151" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B152" s="6">
         <v>7000</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B154" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D154" s="8">
         <v>99999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B153" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B154" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6661,69 +6714,47 @@
       <c r="B155" s="6">
         <v>4000</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B157" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C157" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B156" s="6">
+      <c r="D157" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="6">
         <v>5510</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="8">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B157" s="6">
-        <v>5520</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="12">
-        <v>99999</v>
-      </c>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
-      <c r="V157" s="1"/>
-      <c r="W157" s="1"/>
-      <c r="X157" s="1"/>
-      <c r="Y157" s="1"/>
-      <c r="Z157" s="1"/>
-    </row>
-    <row r="158" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B158" s="6">
-        <v>7350</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>11</v>
@@ -6732,104 +6763,82 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="B159" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>5520</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="12">
+        <v>99999</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
     </row>
     <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B160" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-      <c r="X160" s="1"/>
-      <c r="Y160" s="1"/>
-      <c r="Z160" s="1"/>
-    </row>
-    <row r="161" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7350</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161" s="6">
         <v>4400</v>
       </c>
-      <c r="C161" s="14" t="s">
-        <v>181</v>
+      <c r="C161" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
-      <c r="W161" s="1"/>
-      <c r="X161" s="1"/>
-      <c r="Y161" s="1"/>
-      <c r="Z161" s="1"/>
+        <v>178</v>
+      </c>
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B162" s="6">
         <v>4400</v>
       </c>
-      <c r="C162" s="10" t="s">
-        <v>6</v>
+      <c r="C162" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6854,71 +6863,143 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B163" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>5</v>
+        <v>4400</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>185</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
     </row>
     <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B164" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>8</v>
+        <v>4400</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
+      <c r="Y164" s="1"/>
+      <c r="Z164" s="1"/>
     </row>
     <row r="165" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B165" s="6">
         <v>5900</v>
       </c>
-      <c r="C165" s="14" t="s">
-        <v>12</v>
+      <c r="C165" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B166" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168" s="6">
         <v>7200</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C168" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="12">
+      <c r="D168" s="12">
         <v>99999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{8F891FE7-2E88-4CC9-950E-6B686ECF53FD}"/>
-    <hyperlink ref="D40" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{1E85FA58-ABBF-496E-BE0E-E6DD92EADE53}"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{B4C90CE9-4244-4478-938B-AD39CDDAFAFA}"/>
-    <hyperlink ref="D42" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9A0C2856-CB38-494E-BABD-BE4DC0F09012}"/>
-    <hyperlink ref="D58" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
-    <hyperlink ref="D60" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
-    <hyperlink ref="D39" r:id="rId7" xr:uid="{488D04B8-E993-44C3-BF8F-619DB62F84E5}"/>
+    <hyperlink ref="D42" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{1E85FA58-ABBF-496E-BE0E-E6DD92EADE53}"/>
+    <hyperlink ref="D43" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{B4C90CE9-4244-4478-938B-AD39CDDAFAFA}"/>
+    <hyperlink ref="D44" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9A0C2856-CB38-494E-BABD-BE4DC0F09012}"/>
+    <hyperlink ref="D60" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
+    <hyperlink ref="D62" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
+    <hyperlink ref="D41" r:id="rId7" xr:uid="{488D04B8-E993-44C3-BF8F-619DB62F84E5}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14444F-0AB4-4741-AE95-E0D46A035711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD89C79F-0FDB-427E-848A-2C0DF8DF77D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="216">
   <si>
     <t>Customer Name</t>
   </si>
@@ -633,9 +633,6 @@
     <t>Test Customer</t>
   </si>
   <si>
-    <t>Ofiice Admin Provider Delegate</t>
-  </si>
-  <si>
     <t>CONIFER_Alan.Minner</t>
   </si>
   <si>
@@ -643,9 +640,6 @@
   </si>
   <si>
     <t>CONIFER_reception@hobbsmedicalgroup.com</t>
-  </si>
-  <si>
-    <t>Ofiice Admin Practice Delegate</t>
   </si>
   <si>
     <t>CPN_CThompson</t>
@@ -1284,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1579,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="6">
         <v>1600</v>
@@ -1621,7 +1615,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="6">
         <v>1600</v>
@@ -1657,7 +1651,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="6">
         <v>1600</v>
@@ -1693,7 +1687,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="6">
         <v>1600</v>
@@ -1873,7 +1867,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="6">
         <v>1100</v>
@@ -1882,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1909,7 +1903,7 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B18" s="6">
         <v>1100</v>
@@ -1945,7 +1939,7 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B19" s="6">
         <v>1100</v>
@@ -1981,7 +1975,7 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" s="6">
         <v>1100</v>
@@ -2017,7 +2011,7 @@
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B21" s="6">
         <v>3700</v>
@@ -2269,7 +2263,7 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B28" s="6">
         <v>4850</v>
@@ -2418,8 +2412,8 @@
       <c r="B32" s="6">
         <v>7100</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>202</v>
+      <c r="C32" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>142</v>
@@ -2566,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2602,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2634,11 +2628,11 @@
       <c r="B38" s="6">
         <v>1450</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>206</v>
+      <c r="C38" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2674,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2710,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2742,11 +2736,11 @@
       <c r="B41" s="6">
         <v>2050</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>206</v>
+      <c r="C41" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3358,7 +3352,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -6058,7 +6052,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6765,7 +6759,7 @@
     </row>
     <row r="159" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B159" s="6">
         <v>5520</v>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD89C79F-0FDB-427E-848A-2C0DF8DF77D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47235CCE-22E9-47F9-9ADA-5BA2DA119B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -294,15 +294,9 @@
     <t>altamed_kprice</t>
   </si>
   <si>
-    <t>aemerson@cnhfclinics.org</t>
-  </si>
-  <si>
     <t>aanderson@briankgawmd.com</t>
   </si>
   <si>
-    <t>admin@vistavillagepediatrics.com</t>
-  </si>
-  <si>
     <t>mpm_LoHo</t>
   </si>
   <si>
@@ -426,9 +420,6 @@
     <t>FCMG_CCarpenter</t>
   </si>
   <si>
-    <t>acmdgp@gmail.com</t>
-  </si>
-  <si>
     <t>imphp_adrienne.smith</t>
   </si>
   <si>
@@ -603,9 +594,6 @@
     <t>Health Net (CAPCI)</t>
   </si>
   <si>
-    <t>Health Net CA</t>
-  </si>
-  <si>
     <t>KPC Excel ACO</t>
   </si>
   <si>
@@ -673,6 +661,18 @@
   </si>
   <si>
     <t>HNETIHA_DFernandez</t>
+  </si>
+  <si>
+    <t>Health Net (Non Comp)</t>
+  </si>
+  <si>
+    <t>apatterson@medpointmanagement.com</t>
+  </si>
+  <si>
+    <t>PBAYLON</t>
+  </si>
+  <si>
+    <t>2004jaspreetkaur@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="6">
         <v>4050</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" s="6">
         <v>4350</v>
@@ -1444,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="6">
         <v>1750</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="6">
         <v>2750</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B9" s="6">
         <v>1600</v>
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6">
         <v>1600</v>
@@ -1624,7 +1624,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B11" s="6">
         <v>1600</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B12" s="6">
         <v>1600</v>
@@ -1732,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1768,7 +1768,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1804,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B17" s="6">
         <v>1100</v>
@@ -1876,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B18" s="6">
         <v>1100</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B19" s="6">
         <v>1100</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B20" s="6">
         <v>1100</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B21" s="6">
         <v>3700</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" s="6">
         <v>3750</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6">
         <v>2600</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B25" s="6">
         <v>3250</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B26" s="6">
         <v>4550</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B28" s="6">
         <v>4850</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="6">
         <v>7100</v>
@@ -2344,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6">
         <v>7100</v>
@@ -2380,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B32" s="6">
         <v>7100</v>
@@ -2416,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="34" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B34" s="6">
         <v>7500</v>
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="35" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="6">
         <v>7500</v>
@@ -2524,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B36" s="6">
         <v>1450</v>
@@ -2560,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B37" s="6">
         <v>1450</v>
@@ -2596,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" s="6">
         <v>1450</v>
@@ -2632,7 +2632,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="6">
         <v>2050</v>
@@ -2668,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="6">
         <v>2050</v>
@@ -2704,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="41" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="6">
         <v>2050</v>
@@ -2740,7 +2740,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2848,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2884,7 +2884,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2920,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2956,7 +2956,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3028,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3064,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3136,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="B53" s="6">
         <v>3000</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>52</v>
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="8">
+        <v>99999</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3197,18 +3197,18 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>89</v>
+        <v>4150</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3233,18 +3233,18 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>9</v>
+        <v>4150</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3269,18 +3269,18 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>12</v>
+        <v>4150</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3305,18 +3305,18 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>6</v>
+        <v>4150</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3341,18 +3341,18 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="B58" s="6">
-        <v>3050</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>5</v>
+        <v>4150</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3379,16 +3379,16 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B59" s="6">
-        <v>4150</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="8">
-        <v>99999</v>
+        <v>3050</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B64" s="6">
         <v>4250</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="65" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B65" s="6">
         <v>2350</v>
@@ -3604,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B66" s="6">
         <v>4750</v>
@@ -3640,7 +3640,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B68" s="6">
         <v>2250</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B69" s="6">
         <v>2650</v>
@@ -3748,7 +3748,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="70" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B70" s="6">
         <v>2650</v>
@@ -3784,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3928,7 +3928,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3964,7 +3964,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4000,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4036,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4072,7 +4072,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4108,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="80" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B80" s="6">
         <v>5700</v>
@@ -4144,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="81" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B81" s="6">
         <v>5700</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4216,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4252,7 +4252,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B84" s="6">
         <v>1950</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B87" s="6">
         <v>3850</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B88" s="6">
         <v>4450</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B92" s="6">
         <v>2800</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B93" s="6">
         <v>1550</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="100" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B100" s="6">
         <v>2950</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" s="6">
         <v>1650</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B104" s="6">
         <v>3950</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B105" s="6">
         <v>3550</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B106" s="6">
         <v>3650</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="107" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" s="6">
         <v>2450</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B108" s="6">
         <v>3450</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B109" s="6">
         <v>3350</v>
@@ -5296,7 +5296,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5368,7 +5368,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5401,10 +5401,10 @@
         <v>1200</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B120" s="6">
         <v>2550</v>
@@ -5584,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5656,7 +5656,7 @@
         <v>12</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5692,7 +5692,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5872,7 +5872,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B129" s="6">
         <v>1850</v>
@@ -5908,7 +5908,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B130" s="6">
         <v>1850</v>
@@ -5944,7 +5944,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B131" s="6">
         <v>1850</v>
@@ -5980,7 +5980,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6052,7 +6052,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6124,7 +6124,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6160,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6232,7 +6232,7 @@
         <v>12</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6268,7 +6268,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B140" s="6">
         <v>3150</v>
@@ -6304,7 +6304,7 @@
         <v>5</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B141" s="6">
         <v>3150</v>
@@ -6340,7 +6340,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B142" s="6">
         <v>3150</v>
@@ -6376,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6412,7 +6412,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6556,7 +6556,7 @@
         <v>8</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -6628,7 +6628,7 @@
         <v>12</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6642,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6656,7 +6656,7 @@
         <v>5</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6670,7 +6670,7 @@
         <v>8</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6681,10 +6681,10 @@
         <v>7000</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6712,7 +6712,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="158" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B158" s="6">
         <v>5510</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="159" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B159" s="6">
         <v>5520</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B160" s="6">
         <v>7350</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B161" s="6">
         <v>4400</v>
@@ -6818,12 +6818,12 @@
         <v>5</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B162" s="6">
         <v>4400</v>
@@ -6832,7 +6832,7 @@
         <v>8</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6859,16 +6859,16 @@
     </row>
     <row r="163" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B163" s="6">
         <v>4400</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B164" s="6">
         <v>4400</v>
@@ -6904,7 +6904,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="165" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B165" s="6">
         <v>5900</v>
@@ -6940,12 +6940,12 @@
         <v>5</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B166" s="6">
         <v>5900</v>
@@ -6954,12 +6954,12 @@
         <v>8</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B167" s="6">
         <v>5900</v>
@@ -6968,12 +6968,12 @@
         <v>12</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B168" s="6">
         <v>7200</v>
@@ -6994,9 +6994,13 @@
     <hyperlink ref="D60" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
     <hyperlink ref="D62" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
     <hyperlink ref="D41" r:id="rId7" xr:uid="{488D04B8-E993-44C3-BF8F-619DB62F84E5}"/>
+    <hyperlink ref="D54" r:id="rId8" display="mailto:adriana.x.hernandez@healthnet.com" xr:uid="{48FE156F-3EE2-49B7-85D0-52BDA454E8E8}"/>
+    <hyperlink ref="D55" r:id="rId9" display="mailto:apatterson@medpointmanagement.com" xr:uid="{C1FCAD42-6338-447C-8D80-9A2448DBDAB8}"/>
+    <hyperlink ref="D56" r:id="rId10" display="mailto:aanderson@briankgawmd.com" xr:uid="{9FE14232-25FE-4A60-97CA-3A8CEE32884A}"/>
+    <hyperlink ref="D57" r:id="rId11" display="mailto:2004jaspreetkaur@gmail.com" xr:uid="{B19B387F-ACE9-442A-9315-26FEC35452B6}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS\RTVS_dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47235CCE-22E9-47F9-9ADA-5BA2DA119B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD465E0C-5C8D-4AE6-8D48-9CC1B46F2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="219">
   <si>
     <t>Customer Name</t>
   </si>
@@ -663,23 +663,32 @@
     <t>HNETIHA_DFernandez</t>
   </si>
   <si>
-    <t>Health Net (Non Comp)</t>
+    <t>CommonSpirit Health</t>
+  </si>
+  <si>
+    <t>Health Net (Non comp)</t>
   </si>
   <si>
     <t>apatterson@medpointmanagement.com</t>
   </si>
   <si>
+    <t>2004jaspreetkaur@gmail.com</t>
+  </si>
+  <si>
     <t>PBAYLON</t>
   </si>
   <si>
-    <t>2004jaspreetkaur@gmail.com</t>
+    <t>New Century Health Plan</t>
+  </si>
+  <si>
+    <t>Sharp Health Plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -715,8 +724,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD1D2D3"/>
+      <name val="Slack-Lato"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,6 +794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF9000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A1D21"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -934,9 +954,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -960,6 +977,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1276,20 +1314,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z168"/>
+  <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="3" max="3" width="26.36328125" customWidth="1"/>
     <col min="4" max="4" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="13.5" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1363,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="13.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -1335,7 +1373,7 @@
       <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="20">
         <v>99999</v>
       </c>
       <c r="E2" s="1"/>
@@ -1361,7 +1399,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="13.5" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>155</v>
       </c>
@@ -1371,7 +1409,7 @@
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="20">
         <v>99999</v>
       </c>
       <c r="E3" s="1"/>
@@ -1397,7 +1435,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="13.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>185</v>
       </c>
@@ -1407,7 +1445,7 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="20">
         <v>99999</v>
       </c>
       <c r="E4" s="1"/>
@@ -1433,7 +1471,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="13.5" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1481,7 @@
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="1"/>
@@ -1469,7 +1507,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="13.5" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1543,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="13.5" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -1515,7 +1553,7 @@
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="20">
         <v>99999</v>
       </c>
       <c r="E7" s="1"/>
@@ -1541,7 +1579,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="13.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>126</v>
       </c>
@@ -1551,7 +1589,7 @@
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="20">
         <v>99999</v>
       </c>
       <c r="E8" s="1"/>
@@ -1577,7 +1615,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="13.5" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>203</v>
       </c>
@@ -1613,7 +1651,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="13.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>203</v>
       </c>
@@ -1649,7 +1687,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="13.5" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>203</v>
       </c>
@@ -1685,7 +1723,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="13.5" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>203</v>
       </c>
@@ -1721,7 +1759,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="13.5" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1795,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="13.5" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1831,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="13.5" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1867,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="13" customHeight="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +1903,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="13.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>202</v>
       </c>
@@ -1901,7 +1939,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="13.5" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>202</v>
       </c>
@@ -1937,7 +1975,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="13.5" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>202</v>
       </c>
@@ -1973,7 +2011,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="13.5" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>202</v>
       </c>
@@ -2009,7 +2047,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="14" customHeight="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>204</v>
       </c>
@@ -2019,7 +2057,7 @@
       <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>99999</v>
       </c>
       <c r="E21" s="1"/>
@@ -2045,7 +2083,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="13.5" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>156</v>
       </c>
@@ -2055,7 +2093,7 @@
       <c r="C22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>99999</v>
       </c>
       <c r="E22" s="1"/>
@@ -2081,7 +2119,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="13.5" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>103</v>
       </c>
@@ -2091,7 +2129,7 @@
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="20">
         <v>99999</v>
       </c>
       <c r="E23" s="1"/>
@@ -2117,7 +2155,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="13.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2165,7 @@
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="20">
         <v>99999</v>
       </c>
       <c r="E24" s="1"/>
@@ -2153,7 +2191,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="13.5" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>157</v>
       </c>
@@ -2163,7 +2201,7 @@
       <c r="C25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="20">
         <v>99999</v>
       </c>
       <c r="E25" s="1"/>
@@ -2189,7 +2227,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="13.5" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>186</v>
       </c>
@@ -2199,7 +2237,7 @@
       <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="20">
         <v>99999</v>
       </c>
       <c r="E26" s="1"/>
@@ -2225,7 +2263,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="13.5" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -2235,7 +2273,7 @@
       <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="20">
         <v>99999</v>
       </c>
       <c r="E27" s="1"/>
@@ -2261,7 +2299,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="26.5" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>205</v>
       </c>
@@ -2271,7 +2309,7 @@
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="20">
         <v>99999</v>
       </c>
       <c r="E28" s="1"/>
@@ -2297,7 +2335,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="13.5" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -2307,7 +2345,7 @@
       <c r="C29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="20">
         <v>99999</v>
       </c>
       <c r="E29" s="1"/>
@@ -2333,7 +2371,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="13.5" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -2343,7 +2381,7 @@
       <c r="C30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E30" s="1"/>
@@ -2369,7 +2407,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="13.5" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -2405,7 +2443,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="13.5" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>98</v>
       </c>
@@ -2441,7 +2479,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="26.5" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
@@ -2451,7 +2489,7 @@
       <c r="C33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="20">
         <v>99999</v>
       </c>
       <c r="E33" s="1"/>
@@ -2477,7 +2515,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="26.5" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>122</v>
       </c>
@@ -2513,7 +2551,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="26.5" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>122</v>
       </c>
@@ -2549,7 +2587,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="13.5" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>187</v>
       </c>
@@ -2585,7 +2623,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="13.5" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>187</v>
       </c>
@@ -2621,7 +2659,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="13.5" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>187</v>
       </c>
@@ -2657,18 +2695,18 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="13.5" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="B39" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>198</v>
+        <v>4950</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="20">
+        <v>99999</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2693,18 +2731,18 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="13.5" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B40" s="6">
         <v>2050</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>8</v>
+      <c r="C40" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2729,18 +2767,18 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="13.5" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B41" s="6">
         <v>2050</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>9</v>
+      <c r="C41" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2765,18 +2803,18 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="13.5" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B42" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>50</v>
+        <v>2050</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2801,18 +2839,18 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="13.5" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="6">
         <v>3100</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>51</v>
+      <c r="C43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2837,18 +2875,18 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="13.5" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="6">
         <v>3100</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>105</v>
+      <c r="C44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2873,18 +2911,18 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="13.5" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="6">
-        <v>1700</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>128</v>
+        <v>3100</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2909,18 +2947,18 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="13.5" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="6">
         <v>1700</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>8</v>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2945,18 +2983,18 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="13.5" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="6">
         <v>1700</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>9</v>
+      <c r="C47" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2981,18 +3019,18 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="13.5" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="6">
-        <v>2900</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>5</v>
+        <v>1700</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3017,18 +3055,18 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="13.5" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="6">
         <v>2900</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>8</v>
+      <c r="C49" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3053,18 +3091,18 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="13.5" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="6">
         <v>2900</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>12</v>
+      <c r="C50" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3089,18 +3127,18 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="13.5" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="6">
         <v>2900</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>6</v>
+      <c r="C51" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3125,18 +3163,18 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="13.5" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B52" s="6">
-        <v>4300</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>130</v>
+        <v>2900</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3161,18 +3199,18 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="13.5" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="B53" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="8">
-        <v>99999</v>
+        <v>4300</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3197,18 +3235,18 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="13.5" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="B54" s="6">
-        <v>4150</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>52</v>
+        <v>3000</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="20">
+        <v>99999</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3233,18 +3271,18 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="13.5" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="B55" s="6">
-        <v>4150</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>8</v>
+        <v>3050</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3269,18 +3307,18 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="13.5" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="6">
         <v>4150</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>89</v>
+      <c r="C56" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3305,18 +3343,18 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="13.5" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="6">
         <v>4150</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>215</v>
+      <c r="C57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3341,18 +3379,18 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="13.5" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="6">
         <v>4150</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>214</v>
+      <c r="C58" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3377,18 +3415,18 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="13.5" thickBot="1">
       <c r="A59" s="5" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="B59" s="6">
-        <v>3050</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>211</v>
+        <v>4150</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>215</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3413,18 +3451,18 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="14.5" thickBot="1">
       <c r="A60" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="6">
-        <v>3500</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>161</v>
+        <v>4150</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3449,18 +3487,18 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="13.5" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="6">
         <v>3500</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>53</v>
+      <c r="C61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3485,18 +3523,18 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="13.5" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="6">
         <v>3500</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>54</v>
+      <c r="C62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3521,18 +3559,18 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="13.5" thickBot="1">
       <c r="A63" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="6">
-        <v>200</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="8">
-        <v>99999</v>
+        <v>3500</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3557,17 +3595,17 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="13.5" thickBot="1">
       <c r="A64" s="5" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B64" s="6">
-        <v>4250</v>
+        <v>200</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="20">
         <v>99999</v>
       </c>
       <c r="E64" s="1"/>
@@ -3593,18 +3631,18 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="13.5" thickBot="1">
       <c r="A65" s="5" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B65" s="6">
-        <v>2350</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>131</v>
+        <v>4250</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="20">
+        <v>99999</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3629,18 +3667,18 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="13.5" thickBot="1">
       <c r="A66" s="5" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B66" s="6">
-        <v>4750</v>
+        <v>2350</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>190</v>
+      <c r="D66" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3665,18 +3703,18 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="13.5" thickBot="1">
       <c r="A67" s="5" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="B67" s="6">
-        <v>3600</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="8">
-        <v>99999</v>
+        <v>4750</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3701,17 +3739,17 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="13.5" thickBot="1">
       <c r="A68" s="5" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B68" s="6">
-        <v>2250</v>
+        <v>3600</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="20">
         <v>99999</v>
       </c>
       <c r="E68" s="1"/>
@@ -3737,18 +3775,18 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="13.5" thickBot="1">
       <c r="A69" s="5" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B69" s="6">
-        <v>2650</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>142</v>
+        <v>2250</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="20">
+        <v>99999</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3773,18 +3811,18 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="12" customHeight="1" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B70" s="6">
         <v>2650</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>8</v>
+      <c r="C70" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3809,18 +3847,18 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="13.5" thickBot="1">
       <c r="A71" s="5" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B71" s="6">
-        <v>4600</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>5</v>
+        <v>2650</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3845,18 +3883,18 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="13.5" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="6">
         <v>4600</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>8</v>
+      <c r="C72" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3881,18 +3919,18 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="13.5" thickBot="1">
       <c r="A73" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B73" s="6">
         <v>4600</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>9</v>
+      <c r="C73" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3917,18 +3955,18 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="13.5" thickBot="1">
       <c r="A74" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B74" s="6">
         <v>4600</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>6</v>
+      <c r="C74" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3953,18 +3991,18 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="13.5" thickBot="1">
       <c r="A75" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75" s="6">
-        <v>150</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>5</v>
+        <v>4600</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3989,18 +4027,18 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="13.5" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B76" s="6">
         <v>150</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>8</v>
+      <c r="C76" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4025,18 +4063,18 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="13.5" thickBot="1">
       <c r="A77" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B77" s="6">
         <v>150</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>9</v>
+      <c r="C77" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4061,18 +4099,18 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="13.5" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B78" s="6">
         <v>150</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>12</v>
+      <c r="C78" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4097,18 +4135,18 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="13.5" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="6">
         <v>150</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>6</v>
+      <c r="C79" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4133,18 +4171,18 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="13.5" thickBot="1">
       <c r="A80" s="5" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="B80" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>164</v>
+        <v>150</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4169,18 +4207,18 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="26.5" thickBot="1">
       <c r="A81" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B81" s="6">
         <v>5700</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>146</v>
+      <c r="C81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4205,18 +4243,18 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="26.5" thickBot="1">
       <c r="A82" s="5" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B82" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>124</v>
+        <v>5700</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4241,18 +4279,18 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="13.5" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B83" s="6">
         <v>2700</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>93</v>
+      <c r="C83" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4277,18 +4315,18 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="13.5" thickBot="1">
       <c r="A84" s="5" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B84" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="8">
-        <v>99999</v>
+        <v>2700</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4313,17 +4351,17 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="13.5" thickBot="1">
       <c r="A85" s="5" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B85" s="6">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="20">
         <v>99999</v>
       </c>
       <c r="E85" s="1"/>
@@ -4349,17 +4387,17 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="13.5" thickBot="1">
       <c r="A86" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86" s="6">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="20">
         <v>99999</v>
       </c>
       <c r="E86" s="1"/>
@@ -4385,17 +4423,17 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="13.5" thickBot="1">
       <c r="A87" s="5" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="B87" s="6">
-        <v>3850</v>
+        <v>2100</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="20">
         <v>99999</v>
       </c>
       <c r="E87" s="1"/>
@@ -4421,17 +4459,17 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="13.5" thickBot="1">
       <c r="A88" s="5" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B88" s="6">
-        <v>4450</v>
+        <v>5250</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="20">
         <v>99999</v>
       </c>
       <c r="E88" s="1"/>
@@ -4457,17 +4495,17 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="13.5" thickBot="1">
       <c r="A89" s="5" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="B89" s="6">
-        <v>3300</v>
+        <v>3850</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="20">
         <v>99999</v>
       </c>
       <c r="E89" s="1"/>
@@ -4493,17 +4531,17 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="13.5" thickBot="1">
       <c r="A90" s="5" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="B90" s="6">
-        <v>5100</v>
+        <v>4450</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="20">
         <v>99999</v>
       </c>
       <c r="E90" s="1"/>
@@ -4529,17 +4567,17 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="13.5" thickBot="1">
       <c r="A91" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B91" s="6">
-        <v>7400</v>
+        <v>3300</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="20">
         <v>99999</v>
       </c>
       <c r="E91" s="1"/>
@@ -4565,17 +4603,17 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="13.5" thickBot="1">
       <c r="A92" s="5" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B92" s="6">
-        <v>2800</v>
+        <v>5100</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="20">
         <v>99999</v>
       </c>
       <c r="E92" s="1"/>
@@ -4601,17 +4639,17 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="13.5" thickBot="1">
       <c r="A93" s="5" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="B93" s="6">
-        <v>1550</v>
+        <v>7400</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="20">
         <v>99999</v>
       </c>
       <c r="E93" s="1"/>
@@ -4637,17 +4675,17 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="26.5" thickBot="1">
       <c r="A94" s="5" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B94" s="6">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="20">
         <v>99999</v>
       </c>
       <c r="E94" s="1"/>
@@ -4673,17 +4711,17 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="26.5" thickBot="1">
       <c r="A95" s="5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B95" s="6">
-        <v>6600</v>
+        <v>1550</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="20">
         <v>99999</v>
       </c>
       <c r="E95" s="1"/>
@@ -4709,17 +4747,17 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="13.5" thickBot="1">
       <c r="A96" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B96" s="6">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="20">
         <v>99999</v>
       </c>
       <c r="E96" s="1"/>
@@ -4745,17 +4783,17 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="26.5" thickBot="1">
       <c r="A97" s="5" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B97" s="6">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="20">
         <v>99999</v>
       </c>
       <c r="E97" s="1"/>
@@ -4781,17 +4819,17 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="26.5" thickBot="1">
       <c r="A98" s="5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B98" s="6">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="20">
         <v>99999</v>
       </c>
       <c r="E98" s="1"/>
@@ -4817,17 +4855,17 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="26.5" thickBot="1">
       <c r="A99" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B99" s="6">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="20">
         <v>99999</v>
       </c>
       <c r="E99" s="1"/>
@@ -4853,17 +4891,17 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="26.5" thickBot="1">
       <c r="A100" s="5" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="B100" s="6">
-        <v>2950</v>
+        <v>5300</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="20">
         <v>99999</v>
       </c>
       <c r="E100" s="1"/>
@@ -4889,17 +4927,17 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="26.5" thickBot="1">
       <c r="A101" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B101" s="6">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="20">
         <v>99999</v>
       </c>
       <c r="E101" s="1"/>
@@ -4925,17 +4963,17 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="26.5" thickBot="1">
       <c r="A102" s="5" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="B102" s="6">
-        <v>1650</v>
+        <v>2950</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="20">
         <v>99999</v>
       </c>
       <c r="E102" s="1"/>
@@ -4961,17 +4999,17 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="13.5" thickBot="1">
       <c r="A103" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B103" s="6">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="20">
         <v>99999</v>
       </c>
       <c r="E103" s="1"/>
@@ -4997,17 +5035,17 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="13.5" thickBot="1">
       <c r="A104" s="5" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B104" s="6">
-        <v>3950</v>
+        <v>1650</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="20">
         <v>99999</v>
       </c>
       <c r="E104" s="1"/>
@@ -5033,17 +5071,17 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="13.5" thickBot="1">
       <c r="A105" s="5" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="B105" s="6">
-        <v>3550</v>
+        <v>4500</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="20">
         <v>99999</v>
       </c>
       <c r="E105" s="1"/>
@@ -5069,17 +5107,17 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="13.5" thickBot="1">
       <c r="A106" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B106" s="6">
-        <v>3650</v>
+        <v>3950</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="20">
         <v>99999</v>
       </c>
       <c r="E106" s="1"/>
@@ -5105,17 +5143,17 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="13.5" thickBot="1">
       <c r="A107" s="5" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="B107" s="6">
-        <v>2450</v>
+        <v>3550</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="20">
         <v>99999</v>
       </c>
       <c r="E107" s="1"/>
@@ -5141,17 +5179,17 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="13.5" thickBot="1">
       <c r="A108" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B108" s="6">
-        <v>3450</v>
+        <v>3650</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="20">
         <v>99999</v>
       </c>
       <c r="E108" s="1"/>
@@ -5177,17 +5215,17 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" ht="26.5" thickBot="1">
       <c r="A109" s="5" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="B109" s="6">
-        <v>3350</v>
+        <v>2450</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="20">
         <v>99999</v>
       </c>
       <c r="E109" s="1"/>
@@ -5213,17 +5251,17 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" ht="13.5" thickBot="1">
       <c r="A110" s="5" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="B110" s="6">
-        <v>3400</v>
+        <v>3450</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="20">
         <v>99999</v>
       </c>
       <c r="E110" s="1"/>
@@ -5249,18 +5287,18 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" ht="13.5" thickBot="1">
       <c r="A111" s="5" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="B111" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>61</v>
+        <v>3350</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="20">
+        <v>99999</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5285,18 +5323,18 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="13.5" thickBot="1">
       <c r="A112" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B112" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>111</v>
+        <v>3400</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="20">
+        <v>99999</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5321,18 +5359,18 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="13.5" thickBot="1">
       <c r="A113" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B113" s="6">
         <v>1200</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>8</v>
+      <c r="C113" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5357,18 +5395,18 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="13.5" thickBot="1">
       <c r="A114" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B114" s="6">
         <v>1200</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>6</v>
+      <c r="C114" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5393,18 +5431,18 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="13.5" thickBot="1">
       <c r="A115" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B115" s="6">
         <v>1200</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>119</v>
+      <c r="C115" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5429,18 +5467,18 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="13.5" thickBot="1">
       <c r="A116" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B116" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5465,18 +5503,18 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="13.5" thickBot="1">
       <c r="A117" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B117" s="6">
-        <v>3900</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>9</v>
+        <v>1200</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5501,18 +5539,18 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="13.5" thickBot="1">
       <c r="A118" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B118" s="6">
         <v>3900</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>12</v>
+      <c r="C118" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5537,18 +5575,18 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="13.5" thickBot="1">
       <c r="A119" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B119" s="6">
         <v>3900</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>6</v>
+      <c r="C119" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5573,18 +5611,18 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="13.5" thickBot="1">
       <c r="A120" s="5" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="B120" s="6">
-        <v>2550</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>154</v>
+        <v>3900</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5609,18 +5647,18 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="13.5" thickBot="1">
       <c r="A121" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B121" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>5</v>
+        <v>3900</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5645,18 +5683,18 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="13.5" thickBot="1">
       <c r="A122" s="5" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B122" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>112</v>
+        <v>2550</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5681,18 +5719,18 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="13.5" thickBot="1">
       <c r="A123" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B123" s="6">
         <v>3800</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>6</v>
+      <c r="C123" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5717,18 +5755,18 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="13.5" thickBot="1">
       <c r="A124" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B124" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>5</v>
+        <v>3800</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5753,18 +5791,18 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="13.5" thickBot="1">
       <c r="A125" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B125" s="6">
-        <v>1300</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>8</v>
+        <v>3800</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5789,18 +5827,18 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="13.5" thickBot="1">
       <c r="A126" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B126" s="6">
         <v>1300</v>
       </c>
-      <c r="C126" s="13" t="s">
-        <v>9</v>
+      <c r="C126" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5825,18 +5863,18 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="13.5" thickBot="1">
       <c r="A127" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B127" s="6">
         <v>1300</v>
       </c>
-      <c r="C127" s="14" t="s">
-        <v>12</v>
+      <c r="C127" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5861,18 +5899,18 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="13.5" thickBot="1">
       <c r="A128" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B128" s="6">
         <v>1300</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>6</v>
+      <c r="C128" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5897,18 +5935,18 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="13.5" thickBot="1">
       <c r="A129" s="5" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B129" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5933,18 +5971,18 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="13.5" thickBot="1">
       <c r="A130" s="5" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B130" s="6">
-        <v>1850</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5969,18 +6007,18 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="13.5" thickBot="1">
       <c r="A131" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B131" s="6">
         <v>1850</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>133</v>
+      <c r="C131" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6005,18 +6043,18 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="13.5" thickBot="1">
       <c r="A132" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B132" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>5</v>
+        <v>1850</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6041,18 +6079,18 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="13.5" thickBot="1">
       <c r="A133" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B133" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>207</v>
+        <v>1850</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -6077,18 +6115,18 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="13.5" thickBot="1">
       <c r="A134" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B134" s="6">
         <v>6000</v>
       </c>
-      <c r="C134" s="14" t="s">
-        <v>12</v>
+      <c r="C134" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -6113,18 +6151,18 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="13.5" thickBot="1">
       <c r="A135" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B135" s="6">
         <v>6000</v>
       </c>
-      <c r="C135" s="13" t="s">
-        <v>9</v>
+      <c r="C135" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6149,18 +6187,18 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="13.5" thickBot="1">
       <c r="A136" s="5" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B136" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>5</v>
+        <v>6000</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -6185,18 +6223,18 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="13.5" thickBot="1">
       <c r="A137" s="5" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B137" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>94</v>
+        <v>6000</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -6221,18 +6259,18 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="26.5" thickBot="1">
       <c r="A138" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B138" s="6">
         <v>5400</v>
       </c>
-      <c r="C138" s="14" t="s">
-        <v>12</v>
+      <c r="C138" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -6257,18 +6295,18 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="26.5" thickBot="1">
       <c r="A139" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B139" s="6">
         <v>5400</v>
       </c>
-      <c r="C139" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>173</v>
+      <c r="C139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -6293,18 +6331,18 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="26.5" thickBot="1">
       <c r="A140" s="5" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="B140" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>193</v>
+        <v>5400</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -6329,18 +6367,18 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="26.5" thickBot="1">
       <c r="A141" s="5" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="B141" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>194</v>
+        <v>5400</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -6365,18 +6403,18 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="13.5" thickBot="1">
       <c r="A142" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B142" s="6">
         <v>3150</v>
       </c>
-      <c r="C142" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>195</v>
+      <c r="C142" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6401,18 +6439,18 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="13.5" thickBot="1">
       <c r="A143" s="5" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="B143" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>97</v>
+        <v>3150</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6437,18 +6475,18 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="13.5" thickBot="1">
       <c r="A144" s="5" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="B144" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C144" s="14" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C144" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>74</v>
+      <c r="D144" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6473,18 +6511,18 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="13.5" thickBot="1">
       <c r="A145" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B145" s="6">
         <v>1000</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>6</v>
+      <c r="C145" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -6509,18 +6547,18 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="13.5" thickBot="1">
       <c r="A146" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B146" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6545,18 +6583,18 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="13.5" thickBot="1">
       <c r="A147" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B147" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>8</v>
+        <v>1000</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -6581,18 +6619,18 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="13.5" thickBot="1">
       <c r="A148" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B148" s="6">
         <v>1900</v>
       </c>
-      <c r="C148" s="13" t="s">
-        <v>9</v>
+      <c r="C148" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -6617,158 +6655,158 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="13.5" thickBot="1">
       <c r="A149" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B149" s="6">
         <v>1900</v>
       </c>
-      <c r="C149" s="14" t="s">
-        <v>12</v>
+      <c r="C149" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" ht="13.5" thickBot="1">
       <c r="A150" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B150" s="6">
         <v>1900</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A151" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A152" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152" s="6">
+        <v>1900</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D152" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B151" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="152" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B152" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="26.5" thickBot="1">
       <c r="A153" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B153" s="6">
         <v>7000</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>119</v>
+      <c r="C153" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" ht="26.5" thickBot="1">
       <c r="A154" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B154" s="6">
         <v>7000</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" ht="26.5" thickBot="1">
+      <c r="A155" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="26.5" thickBot="1">
+      <c r="A156" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B156" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="8">
+      <c r="D156" s="20">
         <v>99999</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
+    <row r="157" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A157" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B157" s="6">
+        <v>5150</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="20">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A158" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B158" s="6">
         <v>4000</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C158" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
+    <row r="159" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A159" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B159" s="6">
         <v>4000</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C159" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D159" s="8" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B157" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B158" s="6">
-        <v>5510</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="8">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B159" s="6">
-        <v>5520</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="12">
-        <v>99999</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -6793,46 +6831,46 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="13.5" thickBot="1">
       <c r="A160" s="5" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="B160" s="6">
-        <v>7350</v>
-      </c>
-      <c r="C160" s="7" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" ht="26.5" thickBot="1">
+      <c r="A161" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B161" s="6">
+        <v>5510</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="8">
+      <c r="D161" s="20">
         <v>99999</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B161" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="26.5" thickBot="1">
       <c r="A162" s="5" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B162" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>176</v>
+        <v>5520</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="30">
+        <v>99999</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6857,18 +6895,18 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="13.5" thickBot="1">
       <c r="A163" s="5" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B163" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>178</v>
+        <v>7350</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="20">
+        <v>99999</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6893,18 +6931,18 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="13.5" thickBot="1">
       <c r="A164" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B164" s="6">
         <v>4400</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>6</v>
+      <c r="C164" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6929,75 +6967,117 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="13.5" thickBot="1">
       <c r="A165" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" ht="26" thickBot="1">
+      <c r="A166" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A167" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" s="6">
+        <v>4400</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A168" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B168" s="6">
         <v>5900</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C168" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D168" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="5" t="s">
+    <row r="169" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A169" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B169" s="6">
         <v>5900</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C169" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D169" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
+    <row r="170" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A170" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B170" s="6">
         <v>5900</v>
       </c>
-      <c r="C167" s="14" t="s">
+      <c r="C170" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D170" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
+    <row r="171" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A171" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B171" s="6">
         <v>7200</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C171" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="12">
+      <c r="D171" s="30">
         <v>99999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{8F891FE7-2E88-4CC9-950E-6B686ECF53FD}"/>
-    <hyperlink ref="D42" r:id="rId2" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{1E85FA58-ABBF-496E-BE0E-E6DD92EADE53}"/>
-    <hyperlink ref="D43" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{B4C90CE9-4244-4478-938B-AD39CDDAFAFA}"/>
-    <hyperlink ref="D44" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{9A0C2856-CB38-494E-BABD-BE4DC0F09012}"/>
-    <hyperlink ref="D60" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{BF163376-B5DC-464F-BEA0-2D46386D19D9}"/>
-    <hyperlink ref="D62" r:id="rId6" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{EB7EBAA3-F398-4594-BDA4-43C4E15BE833}"/>
-    <hyperlink ref="D41" r:id="rId7" xr:uid="{488D04B8-E993-44C3-BF8F-619DB62F84E5}"/>
-    <hyperlink ref="D54" r:id="rId8" display="mailto:adriana.x.hernandez@healthnet.com" xr:uid="{48FE156F-3EE2-49B7-85D0-52BDA454E8E8}"/>
-    <hyperlink ref="D55" r:id="rId9" display="mailto:apatterson@medpointmanagement.com" xr:uid="{C1FCAD42-6338-447C-8D80-9A2448DBDAB8}"/>
-    <hyperlink ref="D56" r:id="rId10" display="mailto:aanderson@briankgawmd.com" xr:uid="{9FE14232-25FE-4A60-97CA-3A8CEE32884A}"/>
-    <hyperlink ref="D57" r:id="rId11" display="mailto:2004jaspreetkaur@gmail.com" xr:uid="{B19B387F-ACE9-442A-9315-26FEC35452B6}"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTEwMDAmb3JnSWQ9MTAwMCZ2Z3BJZD0xMDAwJnZwSWQ9MTAwMCZ2ZzBJZD0xMDAw&amp;person_id=15873326&amp;forPersonCustId=2400" xr:uid="{8299239E-0D85-4FE1-B39F-8EFC2B695F77}"/>
+    <hyperlink ref="D42" r:id="rId2" display="mailto:CONIFER_reception@hobbsmedicalgroup.com" xr:uid="{0F6CA188-DEDA-44BB-948B-C513370CCF1D}"/>
+    <hyperlink ref="D43" r:id="rId3" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=25530467&amp;forPersonCustId=3100" xr:uid="{4E552565-94F4-4DAF-AA3A-925DF96F8B9D}"/>
+    <hyperlink ref="D44" r:id="rId4" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=27542090&amp;forPersonCustId=3100" xr:uid="{5103275B-96E3-4A2C-8CA6-A22975B2B9DB}"/>
+    <hyperlink ref="D45" r:id="rId5" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37055482&amp;forPersonCustId=3100" xr:uid="{D362B651-F0A0-401F-9E6E-BF5283D06BDD}"/>
+    <hyperlink ref="D56" r:id="rId6" display="mailto:adriana.x.hernandez@healthnet.com" xr:uid="{7BC87701-E384-4F81-8E8B-CC71C22E8B43}"/>
+    <hyperlink ref="D57" r:id="rId7" display="mailto:apatterson@medpointmanagement.com" xr:uid="{88730C18-961C-49E1-A3DB-9A666C38BA9A}"/>
+    <hyperlink ref="D58" r:id="rId8" display="mailto:aanderson@briankgawmd.com" xr:uid="{B58AC958-357A-4960-A3D4-156EEFD4BF22}"/>
+    <hyperlink ref="D59" r:id="rId9" display="mailto:2004jaspreetkaur@gmail.com" xr:uid="{BC4CC7AD-B3EB-47DD-A45B-AAF83B64A9D4}"/>
+    <hyperlink ref="D61" r:id="rId10" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=33993491&amp;forPersonCustId=3500" xr:uid="{E03F9C82-8D94-42E8-9727-5C20CEE5A977}"/>
+    <hyperlink ref="D63" r:id="rId11" display="https://www.cozeva.com/new_settings?session=YXBwX2lkPXJlZ2lzdHJpZXMmY3VzdElkPTE1MDAmcGF5ZXJJZD0xNTAwJm9yZ0lkPTE1MDA&amp;person_id=37034624&amp;forPersonCustId=3500" xr:uid="{914465FF-E515-4EDA-BE2A-BD5FAEA052F1}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS\RTVS_dist\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD465E0C-5C8D-4AE6-8D48-9CC1B46F2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F827E-4388-469B-A55F-208682BD28AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="219">
   <si>
     <t>Customer Name</t>
   </si>
@@ -552,18 +552,9 @@
     <t>Torrance Memorial IPA</t>
   </si>
   <si>
-    <t>TMIPA_cteng</t>
-  </si>
-  <si>
     <t>TMIPA_aip</t>
   </si>
   <si>
-    <t>Office Admin Practice and Provider Delegate</t>
-  </si>
-  <si>
-    <t>TMIPA_Apartovi</t>
-  </si>
-  <si>
     <t>TMIPA_ctsuneishi2</t>
   </si>
   <si>
@@ -682,6 +673,15 @@
   </si>
   <si>
     <t>Sharp Health Plan</t>
+  </si>
+  <si>
+    <t>TMIPA_amalam</t>
+  </si>
+  <si>
+    <t>TMIPA_ANakamoto</t>
+  </si>
+  <si>
+    <t>TMIPA_cpark</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z171"/>
+  <dimension ref="A1:Z172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B4" s="6">
         <v>4350</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B9" s="6">
         <v>1600</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10" s="6">
         <v>1600</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B11" s="6">
         <v>1600</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12" s="6">
         <v>1600</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B17" s="6">
         <v>1100</v>
@@ -1914,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B18" s="6">
         <v>1100</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B19" s="6">
         <v>1100</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B20" s="6">
         <v>1100</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21" s="6">
         <v>3700</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B26" s="6">
         <v>4550</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="28" spans="1:26" ht="26.5" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B28" s="6">
         <v>4850</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36" s="6">
         <v>1450</v>
@@ -2598,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B37" s="6">
         <v>1450</v>
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B38" s="6">
         <v>1450</v>
@@ -2670,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B39" s="6">
         <v>4950</v>
@@ -2742,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2778,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2814,7 +2814,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B54" s="6">
         <v>3000</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B55" s="6">
         <v>3050</v>
@@ -3282,7 +3282,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3354,7 +3354,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3426,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3462,7 +3462,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1">
       <c r="A67" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B67" s="6">
         <v>4750</v>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4110,7 +4110,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" thickBot="1">
       <c r="A88" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B88" s="6">
         <v>5250</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" thickBot="1">
       <c r="A90" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B90" s="6">
         <v>4450</v>
@@ -6162,7 +6162,7 @@
         <v>8</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -6414,7 +6414,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -6450,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6486,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="157" spans="1:26" ht="13.5" thickBot="1">
       <c r="A157" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B157" s="6">
         <v>5150</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="161" spans="1:26" ht="26.5" thickBot="1">
       <c r="A161" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B161" s="6">
         <v>5510</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="162" spans="1:26" ht="26.5" thickBot="1">
       <c r="A162" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B162" s="6">
         <v>5520</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="163" spans="1:26" ht="13.5" thickBot="1">
       <c r="A163" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B163" s="6">
         <v>7350</v>
@@ -6942,7 +6942,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6978,21 +6978,17 @@
         <v>8</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" ht="26" thickBot="1">
-      <c r="A166" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B166" s="6">
-        <v>4400</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A166" s="5"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="13.5" thickBot="1">
@@ -7002,66 +6998,80 @@
       <c r="B167" s="6">
         <v>4400</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>6</v>
+      <c r="C167" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="13.5" thickBot="1">
       <c r="A168" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B168" s="6">
-        <v>5900</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>5</v>
+        <v>4400</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="13.5" thickBot="1">
       <c r="A169" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B169" s="6">
         <v>5900</v>
       </c>
-      <c r="C169" s="11" t="s">
-        <v>8</v>
+      <c r="C169" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="13.5" thickBot="1">
       <c r="A170" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B170" s="6">
         <v>5900</v>
       </c>
-      <c r="C170" s="14" t="s">
-        <v>12</v>
+      <c r="C170" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="13.5" thickBot="1">
       <c r="A171" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B171" s="6">
+        <v>5900</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A172" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" s="6">
         <v>7200</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="30">
+      <c r="D172" s="30">
         <v>99999</v>
       </c>
     </row>

--- a/assets/CustomerDB.xlsx
+++ b/assets/CustomerDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdey\Desktop\RTVS Local Dist\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F827E-4388-469B-A55F-208682BD28AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AB637-E090-4AAE-A72C-04E6C747F1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="219">
   <si>
     <t>Customer Name</t>
   </si>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -6982,8 +6982,12 @@
       </c>
     </row>
     <row r="166" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A166" s="5"/>
-      <c r="B166" s="6"/>
+      <c r="A166" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" s="6">
+        <v>4400</v>
+      </c>
       <c r="C166" s="13" t="s">
         <v>9</v>
       </c>
